--- a/2_clean/secondary_metrics.xlsx
+++ b/2_clean/secondary_metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/swalshda_uvm_edu/Documents/Food Systems Research Center/Sustainability Metrics/Sustainability Metrics Manuscript/Metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3315" documentId="11_DCEFBFC18F79A8D366075C52F37BD2728ACE46B3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C3D9E70-52AC-4905-8665-071BF85AE46A}"/>
+  <xr:revisionPtr revIDLastSave="3334" documentId="11_DCEFBFC18F79A8D366075C52F37BD2728ACE46B3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5E3997F-FD94-43D6-923C-F25126D3989A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1860" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Economics" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="514">
   <si>
     <t>quality</t>
   </si>
@@ -389,9 +389,6 @@
     <t>Air pollution - particulate matter</t>
   </si>
   <si>
-    <t>airPollutionParticulateMatter</t>
-  </si>
-  <si>
     <t>Total CH4 emissions from agriculture (Tg)</t>
   </si>
   <si>
@@ -608,6 +605,9 @@
     <t>https://www.mrlc.gov/data/type/land-cover</t>
   </si>
   <si>
+    <t>Shannon index of LULC types with some grouping - forests, high and low development, wetlands, grasslands and shrubs</t>
+  </si>
+  <si>
     <t>lulcDiversity</t>
   </si>
   <si>
@@ -626,13 +626,16 @@
     <t>water quality</t>
   </si>
   <si>
+    <t>Lake habitat complexity condition class</t>
+  </si>
+  <si>
     <t>U.S. Environmental Protection Agency, National Aquatic Resource Surveys, 2022</t>
   </si>
   <si>
     <t>https://www.epa.gov/national-aquatic-resource-surveys/data-national-aquatic-resource-surveys</t>
   </si>
   <si>
-    <t>Lake habitat complexity condition class</t>
+    <t>could use better source - categorical, and state level only</t>
   </si>
   <si>
     <t>lakesLitripcvrCond</t>
@@ -653,42 +656,51 @@
     <t>water quantity</t>
   </si>
   <si>
+    <t>Precipitation</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>PRISM Group, Oregon State University (2025).</t>
+  </si>
+  <si>
+    <t>https://www.prism.oregonstate.edu/recent/</t>
+  </si>
+  <si>
+    <t>Not sure if this is necessary. Could use SPEI?</t>
+  </si>
+  <si>
+    <t>Weeks of extreme drought</t>
+  </si>
+  <si>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>U.S. Department of Agriculture, U.S. Drought Monitor. (2024).</t>
+  </si>
+  <si>
+    <t>https://droughtmonitor.unl.edu/DmData/DataDownload.aspx</t>
+  </si>
+  <si>
+    <t>This is tabular pulled from API, but they also have rasters and vectors</t>
+  </si>
+  <si>
+    <t>droughtNonConWeeksCat2</t>
+  </si>
+  <si>
+    <t>soils</t>
+  </si>
+  <si>
+    <t>biology</t>
+  </si>
+  <si>
+    <t>Limitations for aerobic soil organisms</t>
+  </si>
+  <si>
     <t>vector</t>
   </si>
   <si>
-    <t>weekly</t>
-  </si>
-  <si>
-    <t>U.S. Department of Agriculture, U.S. Drought Monitor. (2024).</t>
-  </si>
-  <si>
-    <t>https://droughtmonitor.unl.edu/DmData/DataDownload.aspx</t>
-  </si>
-  <si>
-    <t>Precipitation</t>
-  </si>
-  <si>
-    <t>monthly</t>
-  </si>
-  <si>
-    <t>PRISM Group, Oregon State University (2025).</t>
-  </si>
-  <si>
-    <t>https://www.prism.oregonstate.edu/recent/</t>
-  </si>
-  <si>
-    <t>Weeks of extreme drought</t>
-  </si>
-  <si>
-    <t>soils</t>
-  </si>
-  <si>
-    <t>biology</t>
-  </si>
-  <si>
-    <t>Limitations for aerobic soil organisms</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -1067,6 +1079,9 @@
     <t>product quality tbd</t>
   </si>
   <si>
+    <t>FDA recalls?</t>
+  </si>
+  <si>
     <t>product safety (not livestock)</t>
   </si>
   <si>
@@ -1208,9 +1223,6 @@
     <t>Social associations</t>
   </si>
   <si>
-    <t>See Rupasingha 2006 - BLS lists establishments by NAICS code, weight by population.</t>
-  </si>
-  <si>
     <t>socialAssociations</t>
   </si>
   <si>
@@ -1562,22 +1574,22 @@
     <t>Only for SFA metrics</t>
   </si>
   <si>
-    <t>FDA recalls?</t>
-  </si>
-  <si>
-    <t>This is tabular pulled from API, but they also have rasters and vectors</t>
-  </si>
-  <si>
-    <t>Not sure if this is necessary. Could use SPEI?</t>
-  </si>
-  <si>
-    <t>Shannon index of LULC types with some grouping - forests, high and low development, wetlands, grasslands and shrubs</t>
-  </si>
-  <si>
-    <t>could use better source - categorical, and state level only</t>
-  </si>
-  <si>
-    <t>droughtNonConWeeksCat2</t>
+    <t>Lots of data from CDC EPH Tracking network. Could use some suggestions on which diseases. Diabetes, cholesterol</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>CDC Environmental Public Health Tracking</t>
+  </si>
+  <si>
+    <t>https://ephtracking.cdc.gov/</t>
+  </si>
+  <si>
+    <t>consider weighting by population</t>
+  </si>
+  <si>
+    <t>airQuality</t>
   </si>
 </sst>
 </file>
@@ -2509,7 +2521,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3494,6 +3506,7 @@
     <sortCondition ref="C2:C30"/>
     <sortCondition ref="D2:D30"/>
   </sortState>
+  <dataConsolidate/>
   <mergeCells count="10">
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="B2:B5"/>
@@ -3520,8 +3533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802AE4B4-391E-474A-9621-08E11B188749}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3596,17 +3609,21 @@
       <c r="G2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="I2" s="22" t="s">
-        <v>37</v>
+        <v>510</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="22"/>
+        <v>511</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>512</v>
+      </c>
       <c r="L2" s="22"/>
       <c r="M2" s="22" t="s">
-        <v>113</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -3616,7 +3633,7 @@
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
@@ -3629,13 +3646,13 @@
         <v>86</v>
       </c>
       <c r="I3" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="M3" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -3645,7 +3662,7 @@
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="22" t="s">
@@ -3658,13 +3675,13 @@
         <v>86</v>
       </c>
       <c r="I4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="M4" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -3674,7 +3691,7 @@
       <c r="B5" s="52"/>
       <c r="C5" s="52"/>
       <c r="D5" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
@@ -3687,13 +3704,13 @@
         <v>86</v>
       </c>
       <c r="I5" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="J5" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="M5" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -3702,32 +3719,32 @@
       </c>
       <c r="B6" s="52"/>
       <c r="C6" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>122</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>123</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="I6" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="J6" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="K6" t="s">
         <v>127</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" s="22" t="s">
         <v>128</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -3737,29 +3754,29 @@
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="I7" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="J7" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="K7" t="s">
         <v>127</v>
       </c>
-      <c r="K7" t="s">
-        <v>128</v>
-      </c>
       <c r="M7" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -3769,29 +3786,29 @@
       <c r="B8" s="52"/>
       <c r="C8" s="52"/>
       <c r="D8" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="I8" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="J8" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="K8" t="s">
         <v>127</v>
       </c>
-      <c r="K8" t="s">
-        <v>128</v>
-      </c>
       <c r="M8" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -3800,10 +3817,10 @@
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>134</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>135</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
@@ -3813,18 +3830,18 @@
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L9" s="22"/>
       <c r="M9" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -3834,7 +3851,7 @@
       <c r="B10" s="52"/>
       <c r="C10" s="52"/>
       <c r="D10" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22" t="s">
@@ -3844,18 +3861,18 @@
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22" t="s">
         <v>19</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L10" s="22"/>
       <c r="M10" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -3865,7 +3882,7 @@
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
       <c r="D11" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
@@ -3875,18 +3892,18 @@
         <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22" t="s">
         <v>19</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L11" s="22"/>
       <c r="M11" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -3896,7 +3913,7 @@
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
       <c r="D12" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22" t="s">
@@ -3906,18 +3923,18 @@
         <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22" t="s">
         <v>19</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L12" s="22"/>
       <c r="M12" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -3925,10 +3942,10 @@
         <v>59</v>
       </c>
       <c r="B13" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>145</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>146</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>59</v>
@@ -3940,7 +3957,7 @@
       <c r="I13" s="20"/>
       <c r="J13" s="34"/>
       <c r="K13" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
@@ -3951,33 +3968,33 @@
       </c>
       <c r="B14" s="52"/>
       <c r="C14" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>148</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>149</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I14" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="J14" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="K14" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L14" s="22"/>
       <c r="M14" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -3987,30 +4004,30 @@
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
       <c r="D15" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I15" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="J15" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="K15" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L15" s="22"/>
       <c r="M15" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -4020,30 +4037,30 @@
       <c r="B16" s="52"/>
       <c r="C16" s="52"/>
       <c r="D16" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I16" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="J16" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="K16" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L16" s="22"/>
       <c r="M16" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -4053,30 +4070,30 @@
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
       <c r="D17" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I17" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="J17" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="K17" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L17" s="22"/>
       <c r="M17" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -4086,30 +4103,30 @@
       <c r="B18" s="52"/>
       <c r="C18" s="52"/>
       <c r="D18" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I18" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="J18" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="K18" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L18" s="22"/>
       <c r="M18" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -4117,13 +4134,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="D19" s="22" t="s">
         <v>161</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>162</v>
       </c>
       <c r="E19" s="22"/>
       <c r="G19" s="22" t="s">
@@ -4133,17 +4150,17 @@
         <v>36</v>
       </c>
       <c r="I19" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="K19" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>165</v>
       </c>
       <c r="L19" s="22"/>
       <c r="M19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -4153,7 +4170,7 @@
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
       <c r="D20" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E20" s="22"/>
       <c r="G20" s="22" t="s">
@@ -4163,17 +4180,17 @@
         <v>36</v>
       </c>
       <c r="I20" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="K20" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>165</v>
       </c>
       <c r="L20" s="22"/>
       <c r="M20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -4183,7 +4200,7 @@
       <c r="B21" s="52"/>
       <c r="C21" s="52"/>
       <c r="D21" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E21" s="22"/>
       <c r="G21" s="22" t="s">
@@ -4193,17 +4210,17 @@
         <v>36</v>
       </c>
       <c r="I21" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J21" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="K21" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>165</v>
       </c>
       <c r="L21" s="22"/>
       <c r="M21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -4213,7 +4230,7 @@
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
       <c r="D22" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E22" s="22"/>
       <c r="G22" s="22" t="s">
@@ -4223,17 +4240,17 @@
         <v>36</v>
       </c>
       <c r="I22" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="K22" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>165</v>
       </c>
       <c r="L22" s="22"/>
       <c r="M22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -4243,7 +4260,7 @@
       <c r="B23" s="52"/>
       <c r="C23" s="52"/>
       <c r="D23" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E23" s="22"/>
       <c r="G23" s="22" t="s">
@@ -4251,17 +4268,17 @@
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="J23" s="22" t="s">
+      <c r="K23" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>165</v>
       </c>
       <c r="L23" s="22"/>
       <c r="M23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -4271,7 +4288,7 @@
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
       <c r="D24" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -4280,17 +4297,17 @@
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J24" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="K24" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>165</v>
       </c>
       <c r="L24" s="22"/>
       <c r="M24" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -4300,7 +4317,7 @@
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
       <c r="D25" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -4309,17 +4326,17 @@
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J25" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="J25" s="22" t="s">
+      <c r="K25" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>165</v>
       </c>
       <c r="L25" s="22"/>
       <c r="M25" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -4329,7 +4346,7 @@
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
       <c r="D26" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -4338,17 +4355,17 @@
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J26" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="J26" s="22" t="s">
+      <c r="K26" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>165</v>
       </c>
       <c r="L26" s="22"/>
       <c r="M26" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -4357,14 +4374,14 @@
       </c>
       <c r="B27" s="52"/>
       <c r="C27" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="22" t="s">
         <v>181</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>182</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>35</v>
@@ -4373,13 +4390,13 @@
         <v>36</v>
       </c>
       <c r="I27" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J27" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="K27" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>507</v>
       </c>
       <c r="L27" s="22"/>
       <c r="M27" s="22" t="s">
@@ -4408,10 +4425,10 @@
         <v>36</v>
       </c>
       <c r="I28" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J28" s="22" t="s">
         <v>163</v>
-      </c>
-      <c r="J28" s="22" t="s">
-        <v>164</v>
       </c>
       <c r="K28" s="22" t="s">
         <v>189</v>
@@ -4425,12 +4442,14 @@
       <c r="A29" s="26">
         <v>1</v>
       </c>
-      <c r="B29" s="52"/>
+      <c r="B29" s="52" t="s">
+        <v>509</v>
+      </c>
       <c r="C29" s="52" t="s">
         <v>191</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="22" t="s">
@@ -4441,17 +4460,17 @@
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>508</v>
+        <v>195</v>
       </c>
       <c r="L29" s="22"/>
       <c r="M29" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -4461,7 +4480,7 @@
       <c r="B30" s="52"/>
       <c r="C30" s="52"/>
       <c r="D30" s="22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="22" t="s">
@@ -4472,17 +4491,17 @@
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>508</v>
+        <v>195</v>
       </c>
       <c r="L30" s="22"/>
       <c r="M30" s="22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -4492,7 +4511,7 @@
       <c r="B31" s="52"/>
       <c r="C31" s="52"/>
       <c r="D31" s="22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="22" t="s">
@@ -4503,17 +4522,17 @@
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>508</v>
+        <v>195</v>
       </c>
       <c r="L31" s="22"/>
       <c r="M31" s="22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -4522,29 +4541,29 @@
       </c>
       <c r="B32" s="52"/>
       <c r="C32" s="52" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G32" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K32" s="22" t="s">
         <v>206</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="J32" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="K32" s="22" t="s">
-        <v>506</v>
       </c>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
@@ -4556,30 +4575,30 @@
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
       <c r="D33" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H33" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>505</v>
+        <v>211</v>
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="22" t="s">
-        <v>509</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -4587,32 +4606,32 @@
         <v>2</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H34" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I34" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J34" s="50" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K34" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -4621,29 +4640,29 @@
       </c>
       <c r="B35" s="53"/>
       <c r="C35" s="53" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H35" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I35" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J35" s="50" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K35" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -4653,26 +4672,26 @@
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
       <c r="D36" s="22" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="G36" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H36" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I36" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J36" s="50" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K36" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -4682,26 +4701,26 @@
       <c r="B37" s="53"/>
       <c r="C37" s="53"/>
       <c r="D37" s="22" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="G37" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H37" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I37" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J37" s="50" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K37" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -4710,29 +4729,29 @@
       </c>
       <c r="B38" s="53"/>
       <c r="C38" s="53" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="G38" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H38" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I38" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J38" s="50" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K38" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -4742,26 +4761,26 @@
       <c r="B39" s="53"/>
       <c r="C39" s="53"/>
       <c r="D39" s="22" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="G39" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H39" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I39" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J39" s="50" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K39" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -4801,8 +4820,8 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4862,13 +4881,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22" t="s">
@@ -4881,17 +4900,17 @@
         <v>36</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>43</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L2" s="22"/>
       <c r="M2" s="22" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -4901,7 +4920,7 @@
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
@@ -4914,17 +4933,17 @@
         <v>36</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>43</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L3" s="22"/>
       <c r="M3" s="22" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -4932,36 +4951,36 @@
         <v>2</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="22" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L4" s="22"/>
       <c r="M4" s="22" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -4970,7 +4989,7 @@
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="42" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D5" s="43" t="s">
         <v>59</v>
@@ -4982,7 +5001,7 @@
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
       <c r="K5" s="34" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L5" s="34"/>
       <c r="M5" s="25" t="s">
@@ -4995,10 +5014,10 @@
       </c>
       <c r="B6" s="52"/>
       <c r="C6" s="52" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22" t="s">
@@ -5011,17 +5030,17 @@
         <v>36</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L6" s="22"/>
       <c r="M6" s="22" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -5031,7 +5050,7 @@
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="22" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22" t="s">
@@ -5048,11 +5067,11 @@
         <v>38</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L7" s="22"/>
       <c r="M7" s="22" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -5062,30 +5081,30 @@
       <c r="B8" s="52"/>
       <c r="C8" s="52"/>
       <c r="D8" s="22" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
         <v>85</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L8" s="22"/>
       <c r="M8" s="22" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -5095,30 +5114,30 @@
       <c r="B9" s="52"/>
       <c r="C9" s="52"/>
       <c r="D9" s="22" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
         <v>85</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L9" s="22"/>
       <c r="M9" s="22" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -5128,30 +5147,30 @@
       <c r="B10" s="52"/>
       <c r="C10" s="52"/>
       <c r="D10" s="22" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22" t="s">
         <v>85</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L10" s="22"/>
       <c r="M10" s="22" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -5160,10 +5179,10 @@
       </c>
       <c r="B11" s="52"/>
       <c r="C11" s="39" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
@@ -5176,17 +5195,17 @@
         <v>36</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L11" s="22"/>
       <c r="M11" s="22" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -5195,7 +5214,7 @@
       </c>
       <c r="B12" s="52"/>
       <c r="C12" s="42" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D12" s="43" t="s">
         <v>59</v>
@@ -5207,7 +5226,7 @@
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L12" s="34"/>
       <c r="M12" s="25" t="s">
@@ -5220,10 +5239,10 @@
       </c>
       <c r="B13" s="52"/>
       <c r="C13" s="51" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22" t="s">
@@ -5233,20 +5252,20 @@
         <v>35</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L13" s="22"/>
       <c r="M13" s="22" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -5254,10 +5273,10 @@
         <v>59</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>59</v>
@@ -5280,7 +5299,7 @@
       </c>
       <c r="B15" s="53"/>
       <c r="C15" s="42" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D15" s="43" t="s">
         <v>59</v>
@@ -5292,7 +5311,7 @@
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
       <c r="K15" s="34" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L15" s="34"/>
       <c r="M15" s="25" t="s">
@@ -5305,7 +5324,7 @@
       </c>
       <c r="B16" s="53"/>
       <c r="C16" s="44" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>59</v>
@@ -5327,10 +5346,10 @@
         <v>59</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D17" s="43" t="s">
         <v>59</v>
@@ -5342,7 +5361,7 @@
       <c r="I17" s="34"/>
       <c r="J17" s="34"/>
       <c r="K17" s="34" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L17" s="34"/>
       <c r="M17" s="25" t="s">
@@ -5354,10 +5373,10 @@
         <v>59</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D18" s="43" t="s">
         <v>59</v>
@@ -5369,7 +5388,7 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L18" s="20"/>
       <c r="M18" s="25" t="s">
@@ -5382,7 +5401,7 @@
       </c>
       <c r="B19" s="52"/>
       <c r="C19" s="44" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D19" s="43" t="s">
         <v>59</v>
@@ -5405,10 +5424,10 @@
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="53" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22" t="s">
@@ -5425,11 +5444,11 @@
         <v>38</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L20" s="22"/>
       <c r="M20" s="22" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -5439,7 +5458,7 @@
       <c r="B21" s="52"/>
       <c r="C21" s="53"/>
       <c r="D21" s="22" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="22" t="s">
@@ -5456,11 +5475,11 @@
         <v>38</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L21" s="22"/>
       <c r="M21" s="22" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -5469,7 +5488,7 @@
       </c>
       <c r="B22" s="52"/>
       <c r="C22" s="44" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D22" s="43" t="s">
         <v>59</v>
@@ -5481,7 +5500,7 @@
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L22" s="20"/>
       <c r="M22" s="25" t="s">
@@ -5493,13 +5512,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="22" t="s">
@@ -5509,7 +5528,7 @@
         <v>35</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I23" s="22" t="s">
         <v>37</v>
@@ -5518,7 +5537,7 @@
         <v>38</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -5527,10 +5546,10 @@
       </c>
       <c r="B24" s="52"/>
       <c r="C24" s="52" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="22" t="s">
@@ -5540,19 +5559,19 @@
         <v>17</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J24" s="22" t="s">
         <v>43</v>
       </c>
       <c r="K24" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M24" s="22" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -5562,7 +5581,7 @@
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
       <c r="D25" s="22" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="22" t="s">
@@ -5572,10 +5591,10 @@
         <v>17</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J25" s="22" t="s">
         <v>43</v>
@@ -5583,7 +5602,7 @@
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
       <c r="M25" s="22" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -5593,7 +5612,7 @@
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
       <c r="D26" s="22" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22" t="s">
@@ -5604,17 +5623,17 @@
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J26" s="22" t="s">
         <v>43</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L26" s="22"/>
       <c r="M26" s="22" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -5623,10 +5642,10 @@
       </c>
       <c r="B27" s="52"/>
       <c r="C27" s="40" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22" t="s">
@@ -5643,11 +5662,11 @@
         <v>38</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L27" s="22"/>
       <c r="M27" s="22" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -5656,7 +5675,7 @@
       </c>
       <c r="B28" s="52"/>
       <c r="C28" s="42" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D28" s="43" t="s">
         <v>59</v>
@@ -5679,10 +5698,10 @@
       </c>
       <c r="B29" s="52"/>
       <c r="C29" s="52" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="22" t="s">
@@ -5692,7 +5711,7 @@
         <v>35</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I29" s="22" t="s">
         <v>37</v>
@@ -5703,7 +5722,7 @@
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
       <c r="M29" s="22" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -5713,7 +5732,7 @@
       <c r="B30" s="52"/>
       <c r="C30" s="52"/>
       <c r="D30" s="22" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="22" t="s">
@@ -5723,7 +5742,7 @@
         <v>35</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I30" s="22" t="s">
         <v>37</v>
@@ -5732,11 +5751,11 @@
         <v>38</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L30" s="22"/>
       <c r="M30" s="22" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -5746,7 +5765,7 @@
       <c r="B31" s="52"/>
       <c r="C31" s="52"/>
       <c r="D31" s="22" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="22" t="s">
@@ -5756,7 +5775,7 @@
         <v>35</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I31" s="22" t="s">
         <v>37</v>
@@ -5767,7 +5786,7 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
       <c r="M31" s="22" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -5777,7 +5796,7 @@
       <c r="B32" s="52"/>
       <c r="C32" s="52"/>
       <c r="D32" s="22" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="22" t="s">
@@ -5787,7 +5806,7 @@
         <v>35</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I32" s="22" t="s">
         <v>37</v>
@@ -5798,7 +5817,7 @@
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -5807,7 +5826,7 @@
       </c>
       <c r="B33" s="52"/>
       <c r="C33" s="38" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D33" s="43" t="s">
         <v>59</v>
@@ -5818,7 +5837,9 @@
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
+      <c r="K33" s="20" t="s">
+        <v>508</v>
+      </c>
       <c r="L33" s="20"/>
       <c r="M33" s="25" t="s">
         <v>59</v>
@@ -5829,10 +5850,10 @@
         <v>59</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D34" s="43" t="s">
         <v>59</v>
@@ -5879,7 +5900,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5944,13 +5965,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22" t="s">
@@ -5963,17 +5984,17 @@
         <v>86</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L2" s="22"/>
       <c r="M2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -5982,10 +6003,10 @@
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="28" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
@@ -5998,16 +6019,16 @@
         <v>86</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K3" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M3" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -6015,10 +6036,10 @@
         <v>59</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>59</v>
@@ -6030,7 +6051,7 @@
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
       <c r="K4" s="34" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L4" s="34"/>
     </row>
@@ -6040,7 +6061,7 @@
       </c>
       <c r="B5" s="55"/>
       <c r="C5" s="35" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>59</v>
@@ -6060,7 +6081,7 @@
       </c>
       <c r="B6" s="55"/>
       <c r="C6" s="35" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>59</v>
@@ -6072,7 +6093,7 @@
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
       <c r="K6" s="34" t="s">
-        <v>504</v>
+        <v>343</v>
       </c>
       <c r="L6" s="34"/>
     </row>
@@ -6082,7 +6103,7 @@
       </c>
       <c r="B7" s="55"/>
       <c r="C7" s="35" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>59</v>
@@ -6094,7 +6115,7 @@
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
       <c r="K7" s="34" t="s">
-        <v>504</v>
+        <v>343</v>
       </c>
       <c r="L7" s="34"/>
     </row>
@@ -6103,17 +6124,17 @@
         <v>2</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>35</v>
@@ -6122,17 +6143,17 @@
         <v>26</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="L8" s="22"/>
       <c r="M8" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -6140,10 +6161,10 @@
         <v>59</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>59</v>
@@ -6155,7 +6176,7 @@
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
       <c r="K9" s="34" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L9" s="34"/>
     </row>
@@ -6164,13 +6185,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30" t="s">
@@ -6191,7 +6212,7 @@
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
       <c r="M10" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -6199,13 +6220,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
@@ -6224,10 +6245,10 @@
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="M11" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -6236,10 +6257,10 @@
       </c>
       <c r="B12" s="52"/>
       <c r="C12" s="28" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22" t="s">
@@ -6260,14 +6281,14 @@
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
       <c r="M12" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="B13" s="52"/>
       <c r="C13" s="42" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>59</v>
@@ -6279,7 +6300,7 @@
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
       <c r="K13" s="34" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
@@ -6290,10 +6311,10 @@
       </c>
       <c r="B14" s="52"/>
       <c r="C14" s="52" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22" t="s">
@@ -6303,7 +6324,7 @@
         <v>17</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>76</v>
@@ -6314,7 +6335,7 @@
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
       <c r="M14" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -6324,7 +6345,7 @@
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
       <c r="D15" s="22" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22" t="s">
@@ -6334,7 +6355,7 @@
         <v>17</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>76</v>
@@ -6345,7 +6366,7 @@
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
       <c r="M15" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -6354,7 +6375,7 @@
       </c>
       <c r="B16" s="52"/>
       <c r="C16" s="35" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>59</v>
@@ -6366,7 +6387,7 @@
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
       <c r="K16" s="34" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="L16" s="34"/>
     </row>
@@ -6375,10 +6396,10 @@
         <v>59</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D17" s="48" t="s">
         <v>59</v>
@@ -6390,7 +6411,7 @@
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
       <c r="K17" s="48" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="L17" s="35"/>
       <c r="M17" s="35"/>
@@ -6417,7 +6438,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6475,10 +6496,10 @@
         <v>59</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -6489,7 +6510,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
       <c r="J2" s="20" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
@@ -6500,7 +6521,7 @@
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="38" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D3" t="s">
         <v>59</v>
@@ -6520,7 +6541,7 @@
       </c>
       <c r="B4" s="53"/>
       <c r="C4" s="38" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
@@ -6540,7 +6561,7 @@
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="38" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
@@ -6560,10 +6581,10 @@
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="53" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D6" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -6572,7 +6593,7 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H6" t="s">
         <v>37</v>
@@ -6581,11 +6602,11 @@
         <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6595,7 +6616,7 @@
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
       <c r="D7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -6604,7 +6625,7 @@
         <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H7" t="s">
         <v>37</v>
@@ -6613,11 +6634,11 @@
         <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K7"/>
       <c r="L7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6626,7 +6647,7 @@
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="38" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -6637,7 +6658,7 @@
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
@@ -6648,7 +6669,7 @@
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="38" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D9" t="s">
         <v>59</v>
@@ -6659,7 +6680,7 @@
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -6669,13 +6690,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D10" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -6684,7 +6705,7 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H10" t="s">
         <v>19</v>
@@ -6693,11 +6714,11 @@
         <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K10"/>
       <c r="L10" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6706,10 +6727,10 @@
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="29" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D11" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -6718,7 +6739,7 @@
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
@@ -6729,7 +6750,7 @@
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6738,10 +6759,10 @@
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="29" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D12" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -6750,7 +6771,7 @@
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H12" t="s">
         <v>19</v>
@@ -6761,7 +6782,7 @@
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6770,7 +6791,7 @@
       </c>
       <c r="B13" s="53"/>
       <c r="C13" s="38" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
@@ -6781,7 +6802,7 @@
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
@@ -6791,10 +6812,10 @@
         <v>59</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>59</v>
@@ -6814,10 +6835,10 @@
       </c>
       <c r="B15" s="53"/>
       <c r="C15" s="53" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D15" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E15" t="s">
         <v>85</v>
@@ -6835,11 +6856,11 @@
         <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K15"/>
       <c r="L15" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6849,7 +6870,7 @@
       <c r="B16" s="53"/>
       <c r="C16" s="53"/>
       <c r="D16" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E16" t="s">
         <v>85</v>
@@ -6867,11 +6888,11 @@
         <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K16"/>
       <c r="L16" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6881,7 +6902,7 @@
       <c r="B17" s="53"/>
       <c r="C17" s="53"/>
       <c r="D17" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E17" t="s">
         <v>85</v>
@@ -6899,11 +6920,11 @@
         <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K17"/>
       <c r="L17" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6912,7 +6933,7 @@
       </c>
       <c r="B18" s="53"/>
       <c r="C18" s="38" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>59</v>
@@ -6931,13 +6952,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D19" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
@@ -6946,7 +6967,7 @@
         <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H19" t="s">
         <v>37</v>
@@ -6957,7 +6978,7 @@
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6967,7 +6988,7 @@
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
       <c r="D20" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -6976,7 +6997,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H20" t="s">
         <v>37</v>
@@ -6987,7 +7008,7 @@
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6996,7 +7017,7 @@
       </c>
       <c r="B21" s="53"/>
       <c r="C21" s="38" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>59</v>
@@ -7007,7 +7028,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
       <c r="J21" s="20" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
@@ -7018,7 +7039,7 @@
       </c>
       <c r="B22" s="53"/>
       <c r="C22" s="38" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>59</v>
@@ -7029,7 +7050,7 @@
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
@@ -7040,7 +7061,7 @@
       </c>
       <c r="B23" s="53"/>
       <c r="C23" s="38" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>59</v>
@@ -7051,7 +7072,7 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
@@ -7062,7 +7083,7 @@
       </c>
       <c r="B24" s="53"/>
       <c r="C24" s="38" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>59</v>
@@ -7073,7 +7094,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" s="20" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
@@ -7084,7 +7105,7 @@
       </c>
       <c r="B25" s="53"/>
       <c r="C25" s="38" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>59</v>
@@ -7095,7 +7116,7 @@
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
@@ -7105,13 +7126,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
@@ -7120,7 +7141,7 @@
         <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H26" t="s">
         <v>37</v>
@@ -7129,11 +7150,11 @@
         <v>38</v>
       </c>
       <c r="J26" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K26"/>
       <c r="L26" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7143,7 +7164,7 @@
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
       <c r="D27" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -7152,7 +7173,7 @@
         <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H27" t="s">
         <v>37</v>
@@ -7161,11 +7182,11 @@
         <v>38</v>
       </c>
       <c r="J27" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K27"/>
       <c r="L27" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7174,7 +7195,7 @@
       </c>
       <c r="B28" s="53"/>
       <c r="C28" s="38" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D28" t="s">
         <v>59</v>
@@ -7194,7 +7215,7 @@
       </c>
       <c r="B29" s="53"/>
       <c r="C29" s="38" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D29" t="s">
         <v>59</v>
@@ -7205,7 +7226,7 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
@@ -7216,15 +7237,15 @@
       </c>
       <c r="B30" s="53"/>
       <c r="C30" s="29" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D30" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H30" t="s">
         <v>42</v>
@@ -7233,11 +7254,11 @@
         <v>43</v>
       </c>
       <c r="J30" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="K30"/>
       <c r="L30" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -7324,18 +7345,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B2" s="59"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B3" s="61"/>
     </row>
@@ -7345,13 +7366,13 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B5" s="61"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="56" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B6" s="57"/>
     </row>
@@ -7361,13 +7382,13 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B8" s="61"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B9" s="57"/>
     </row>
@@ -7377,13 +7398,13 @@
     </row>
     <row r="11" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="64" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B11" s="65"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="66" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B12" s="61"/>
     </row>
@@ -7393,19 +7414,19 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B14" s="61"/>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="62" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B15" s="63"/>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B17" s="2"/>
     </row>
@@ -7414,15 +7435,15 @@
         <v>11</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -7430,7 +7451,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -7438,7 +7459,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -7446,7 +7467,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -7454,7 +7475,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -7462,15 +7483,15 @@
         <v>7</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -7478,23 +7499,23 @@
         <v>0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -7503,16 +7524,16 @@
     </row>
     <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -7520,25 +7541,25 @@
         <v>59</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -7611,13 +7632,13 @@
         <v>6</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>8</v>
@@ -7631,7 +7652,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -7643,32 +7664,32 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C3" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="J3" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C4" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -7677,10 +7698,10 @@
         <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J4" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -7688,7 +7709,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -7699,27 +7720,27 @@
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C6" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="J6" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -7728,7 +7749,7 @@
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
@@ -7739,71 +7760,71 @@
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C8" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="J8" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B9" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="H9" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B10" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H10" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B11" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="G11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="G12" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B13" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G13" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/2_clean/secondary_metrics.xlsx
+++ b/2_clean/secondary_metrics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/swalshda_uvm_edu/Documents/Food Systems Research Center/Sustainability Metrics/Sustainability Metrics Manuscript/Metrics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdonov12\OneDrive - University of Vermont\Food Systems Research Center\Sustainability Metrics\Sustainability Metrics Manuscript\Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3334" documentId="11_DCEFBFC18F79A8D366075C52F37BD2728ACE46B3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5E3997F-FD94-43D6-923C-F25126D3989A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DF1908-CE30-4112-84EC-9B98DA2512CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Economics" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="510">
   <si>
     <t>quality</t>
   </si>
@@ -200,27 +200,12 @@
     <t>business failure rate of food business</t>
   </si>
   <si>
-    <t>OTY % change in food establishments, farming fishing and forestry</t>
-  </si>
-  <si>
     <t>U.S. Bureau of Labor Statistics, Quarterly Census of Employment and Wages</t>
   </si>
   <si>
     <t>https://www.bls.gov/cew/</t>
   </si>
   <si>
-    <t>otyAnnualAvgEstabsPctChg111NAICS</t>
-  </si>
-  <si>
-    <t>OTY % change in food establishments, food preparation and service</t>
-  </si>
-  <si>
-    <t>Probably drop this metric</t>
-  </si>
-  <si>
-    <t>otyAnnualAvgEstabsPctChg112NAICS</t>
-  </si>
-  <si>
     <t>distribution chain localness</t>
   </si>
   <si>
@@ -251,18 +236,6 @@
     <t>expPF</t>
   </si>
   <si>
-    <t>OTY % change in average weekly wage, animal production</t>
-  </si>
-  <si>
-    <t>otyAnnualAvgWklyWagePctChg111NAICS</t>
-  </si>
-  <si>
-    <t>OTY % change in average weekly wage, crop production</t>
-  </si>
-  <si>
-    <t>otyAnnualAvgWklyWagePctChg112NAICS</t>
-  </si>
-  <si>
     <t>market mix</t>
   </si>
   <si>
@@ -389,12 +362,18 @@
     <t>Air pollution - particulate matter</t>
   </si>
   <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>CDC Environmental Public Health Tracking</t>
+  </si>
+  <si>
+    <t>https://ephtracking.cdc.gov/</t>
+  </si>
+  <si>
     <t>Total CH4 emissions from agriculture (Tg)</t>
   </si>
   <si>
-    <t>https://climatetrace.org/</t>
-  </si>
-  <si>
     <t>U.S. Environmental Protection Agency State GHG Data (2024).</t>
   </si>
   <si>
@@ -422,9 +401,6 @@
     <t>8 years</t>
   </si>
   <si>
-    <t>area</t>
-  </si>
-  <si>
     <t>TreeMap 2016: A tree-level model of the forests of the conterminous United States circa 2016</t>
   </si>
   <si>
@@ -623,6 +599,9 @@
     <t>pctAtRiskEcosystems</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>water quality</t>
   </si>
   <si>
@@ -992,12 +971,6 @@
     <t>physical health tbd</t>
   </si>
   <si>
-    <t>Health Factor Group</t>
-  </si>
-  <si>
-    <t>healthFactorGroup</t>
-  </si>
-  <si>
     <t>Health Factor Z-Score</t>
   </si>
   <si>
@@ -1007,12 +980,6 @@
     <t>healthFactorZ</t>
   </si>
   <si>
-    <t>Health Outcome Group</t>
-  </si>
-  <si>
-    <t>healthOutcomeGroup</t>
-  </si>
-  <si>
     <t>Life expectancy</t>
   </si>
   <si>
@@ -1022,6 +989,9 @@
     <t>presence of metabolic disease/Diet related non-communicable diseases</t>
   </si>
   <si>
+    <t>Lots of data from CDC EPH Tracking network. Could use some suggestions on which diseases. Diabetes, cholesterol</t>
+  </si>
+  <si>
     <t>stability agency</t>
   </si>
   <si>
@@ -1574,22 +1544,40 @@
     <t>Only for SFA metrics</t>
   </si>
   <si>
-    <t>Lots of data from CDC EPH Tracking network. Could use some suggestions on which diseases. Diabetes, cholesterol</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>CDC Environmental Public Health Tracking</t>
-  </si>
-  <si>
-    <t>https://ephtracking.cdc.gov/</t>
-  </si>
-  <si>
-    <t>consider weighting by population</t>
-  </si>
-  <si>
-    <t>airQuality</t>
+    <t>Gender pay gap in agricultural sector</t>
+  </si>
+  <si>
+    <t>Proportion of womens' pay to mens' pay in agriculture sector (NAICS 11)</t>
+  </si>
+  <si>
+    <t>Might like this better than general pay gap or income inequality. Could also consider sector 111? Maybe 112?</t>
+  </si>
+  <si>
+    <t>Health Outcome Z-Score</t>
+  </si>
+  <si>
+    <t>healthOutcomeZ</t>
+  </si>
+  <si>
+    <t>OTY % change in average weekly wage, agricultural sector</t>
+  </si>
+  <si>
+    <t>otyAnnualAvgWklyWagePctChgNAICS11</t>
+  </si>
+  <si>
+    <t>otyAnnualAvgEstabsCountPctChgNAICS11</t>
+  </si>
+  <si>
+    <t>OTY % change in number of agricultural establishments</t>
+  </si>
+  <si>
+    <t>airPollutionParticulateMatter</t>
+  </si>
+  <si>
+    <t>Using UW version of this data, for some reason theirs is more complete than the source, EPHT</t>
+  </si>
+  <si>
+    <t>https://cfpub.epa.gov/ghgdata/inventoryexplorer/</t>
   </si>
 </sst>
 </file>
@@ -2022,27 +2010,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2051,6 +2033,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2518,10 +2506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D1AE80-3BFB-3B41-8518-A67336181549}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2723,7 +2711,7 @@
       <c r="B6" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="53" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="22" t="s">
@@ -2758,7 +2746,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="22" t="s">
         <v>41</v>
       </c>
@@ -2791,7 +2779,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="22" t="s">
         <v>46</v>
       </c>
@@ -2820,46 +2808,36 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="24">
-        <v>3</v>
-      </c>
+      <c r="A9" s="24"/>
       <c r="B9" s="52"/>
-      <c r="C9" s="52" t="s">
-        <v>49</v>
-      </c>
+      <c r="C9" s="53"/>
       <c r="D9" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="22"/>
+        <v>498</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22" t="s">
+        <v>500</v>
+      </c>
       <c r="L9" s="22"/>
-      <c r="M9" s="22" t="s">
-        <v>53</v>
-      </c>
+      <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <v>3</v>
       </c>
       <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
+      <c r="C10" s="28" t="s">
+        <v>49</v>
+      </c>
       <c r="D10" s="22" t="s">
-        <v>54</v>
+        <v>506</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22" t="s">
@@ -2872,17 +2850,15 @@
         <v>36</v>
       </c>
       <c r="I10" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>55</v>
-      </c>
+      <c r="K10" s="22"/>
       <c r="L10" s="22"/>
       <c r="M10" s="22" t="s">
-        <v>56</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -2890,13 +2866,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
@@ -2905,11 +2881,11 @@
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L11" s="34"/>
       <c r="M11" s="34" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -2917,13 +2893,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22" t="s">
@@ -2952,7 +2928,7 @@
       <c r="B13" s="52"/>
       <c r="C13" s="52"/>
       <c r="D13" s="22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22" t="s">
@@ -2962,7 +2938,7 @@
         <v>17</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>19</v>
@@ -2973,7 +2949,7 @@
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
       <c r="M13" s="22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2983,7 +2959,7 @@
       <c r="B14" s="52"/>
       <c r="C14" s="52"/>
       <c r="D14" s="22" t="s">
-        <v>67</v>
+        <v>503</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22" t="s">
@@ -2996,58 +2972,52 @@
         <v>36</v>
       </c>
       <c r="I14" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="22" t="s">
         <v>51</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>52</v>
       </c>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
       <c r="M14" s="22" t="s">
-        <v>68</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="24">
-        <v>3</v>
+      <c r="A15" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22" t="s">
-        <v>70</v>
+      <c r="C15" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B16" s="52"/>
       <c r="C16" s="35" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="34"/>
@@ -3056,36 +3026,44 @@
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
       <c r="K16" s="34" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L16" s="34"/>
       <c r="M16" s="34" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>59</v>
+      <c r="A17" s="24">
+        <v>3</v>
       </c>
       <c r="B17" s="52"/>
-      <c r="C17" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34" t="s">
-        <v>59</v>
+      <c r="C17" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -3093,11 +3071,9 @@
         <v>3</v>
       </c>
       <c r="B18" s="52"/>
-      <c r="C18" s="52" t="s">
-        <v>74</v>
-      </c>
+      <c r="C18" s="52"/>
       <c r="D18" s="22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22" t="s">
@@ -3110,15 +3086,15 @@
         <v>36</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -3128,7 +3104,7 @@
       <c r="B19" s="52"/>
       <c r="C19" s="52"/>
       <c r="D19" s="22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="22" t="s">
@@ -3141,46 +3117,50 @@
         <v>36</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="24">
-        <v>3</v>
+      <c r="A20" s="23">
+        <v>2</v>
       </c>
       <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
+      <c r="C20" s="52" t="s">
+        <v>74</v>
+      </c>
       <c r="D20" s="22" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="K20" s="22"/>
+        <v>79</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>80</v>
+      </c>
       <c r="L20" s="22"/>
-      <c r="M20" s="22" t="s">
-        <v>82</v>
+      <c r="M20" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -3188,34 +3168,32 @@
         <v>2</v>
       </c>
       <c r="B21" s="52"/>
-      <c r="C21" s="52" t="s">
-        <v>83</v>
-      </c>
+      <c r="C21" s="52"/>
       <c r="D21" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>35</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="L21" s="22"/>
       <c r="M21" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -3225,30 +3203,30 @@
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
       <c r="D22" s="22" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G22" s="22" t="s">
         <v>35</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="L22" s="22"/>
       <c r="M22" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -3258,30 +3236,30 @@
       <c r="B23" s="52"/>
       <c r="C23" s="52"/>
       <c r="D23" s="22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G23" s="22" t="s">
         <v>35</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="L23" s="22"/>
       <c r="M23" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -3291,30 +3269,30 @@
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
       <c r="D24" s="22" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>35</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="L24" s="22"/>
       <c r="M24" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -3324,30 +3302,30 @@
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
       <c r="D25" s="22" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G25" s="22" t="s">
         <v>35</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="L25" s="22"/>
       <c r="M25" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -3357,77 +3335,69 @@
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
       <c r="D26" s="22" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G26" s="22" t="s">
         <v>35</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="L26" s="22"/>
       <c r="M26" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
-        <v>2</v>
-      </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="L27" s="22"/>
-      <c r="M27" t="s">
-        <v>102</v>
+      <c r="A27" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>103</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B28" s="52"/>
       <c r="C28" s="35" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="34"/>
@@ -3436,63 +3406,38 @@
       <c r="I28" s="34"/>
       <c r="J28" s="34"/>
       <c r="K28" s="34" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L28" s="34"/>
       <c r="M28" s="34" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="52"/>
+        <v>54</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>98</v>
+      </c>
       <c r="C29" s="35" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E29" s="43"/>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
+      <c r="I29" s="20"/>
       <c r="J29" s="34"/>
-      <c r="K29" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="L29" s="34"/>
+      <c r="K29" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="L29" s="20"/>
       <c r="M29" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="L30" s="20"/>
-      <c r="M30" s="34" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3501,25 +3446,24 @@
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M30">
-    <sortCondition ref="B2:B30"/>
-    <sortCondition ref="C2:C30"/>
-    <sortCondition ref="D2:D30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M29">
+    <sortCondition ref="B2:B29"/>
+    <sortCondition ref="C2:C29"/>
+    <sortCondition ref="D2:D29"/>
   </sortState>
   <dataConsolidate/>
-  <mergeCells count="10">
-    <mergeCell ref="C18:C20"/>
+  <mergeCells count="9">
+    <mergeCell ref="C17:C19"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C8"/>
     <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B27"/>
-    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B12:B26"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="C6:C9"/>
   </mergeCells>
-  <conditionalFormatting sqref="M21:M27">
+  <conditionalFormatting sqref="M20:M26">
     <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
@@ -3533,8 +3477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802AE4B4-391E-474A-9621-08E11B188749}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3594,13 +3538,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22" t="s">
@@ -3610,20 +3554,20 @@
         <v>35</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>510</v>
+        <v>105</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>511</v>
+        <v>106</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L2" s="22"/>
       <c r="M2" s="22" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -3633,26 +3577,26 @@
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>115</v>
+        <v>77</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>509</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -3662,26 +3606,26 @@
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>115</v>
+        <v>77</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>509</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -3691,26 +3635,26 @@
       <c r="B5" s="52"/>
       <c r="C5" s="52"/>
       <c r="D5" s="22" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>115</v>
+        <v>77</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>509</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -3719,32 +3663,32 @@
       </c>
       <c r="B6" s="52"/>
       <c r="C6" s="52" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -3754,29 +3698,29 @@
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -3786,29 +3730,29 @@
       <c r="B8" s="52"/>
       <c r="C8" s="52"/>
       <c r="D8" s="22" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H8" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" s="22" t="s">
         <v>124</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="K8" t="s">
-        <v>127</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -3817,31 +3761,31 @@
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="52" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>135</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="22" t="s">
         <v>19</v>
       </c>
+      <c r="J9" s="22"/>
       <c r="K9" s="22" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L9" s="22"/>
       <c r="M9" s="22" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -3851,28 +3795,28 @@
       <c r="B10" s="52"/>
       <c r="C10" s="52"/>
       <c r="D10" s="22" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="22" t="s">
         <v>19</v>
       </c>
+      <c r="J10" s="22"/>
       <c r="K10" s="22" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L10" s="22"/>
       <c r="M10" s="22" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -3882,28 +3826,28 @@
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
       <c r="D11" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>135</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="22" t="s">
         <v>19</v>
       </c>
+      <c r="J11" s="22"/>
       <c r="K11" s="22" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L11" s="22"/>
       <c r="M11" s="22" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -3913,42 +3857,42 @@
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
       <c r="D12" s="22" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G12" s="22" t="s">
         <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>135</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="22" t="s">
         <v>19</v>
       </c>
+      <c r="J12" s="22"/>
       <c r="K12" s="22" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L12" s="22"/>
       <c r="M12" s="22" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="34"/>
@@ -3957,7 +3901,7 @@
       <c r="I13" s="20"/>
       <c r="J13" s="34"/>
       <c r="K13" s="34" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
@@ -3968,33 +3912,33 @@
       </c>
       <c r="B14" s="52"/>
       <c r="C14" s="52" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="L14" s="22"/>
       <c r="M14" s="22" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -4004,30 +3948,30 @@
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
       <c r="D15" s="22" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="L15" s="22"/>
       <c r="M15" s="22" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -4037,30 +3981,30 @@
       <c r="B16" s="52"/>
       <c r="C16" s="52"/>
       <c r="D16" s="22" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="L16" s="22"/>
       <c r="M16" s="22" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -4070,30 +4014,30 @@
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
       <c r="D17" s="22" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="L17" s="22"/>
       <c r="M17" s="22" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -4103,30 +4047,30 @@
       <c r="B18" s="52"/>
       <c r="C18" s="52"/>
       <c r="D18" s="22" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="L18" s="22"/>
       <c r="M18" s="22" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -4134,13 +4078,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E19" s="22"/>
       <c r="G19" s="22" t="s">
@@ -4150,17 +4094,17 @@
         <v>36</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L19" s="22"/>
       <c r="M19" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -4170,7 +4114,7 @@
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
       <c r="D20" s="22" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E20" s="22"/>
       <c r="G20" s="22" t="s">
@@ -4180,17 +4124,17 @@
         <v>36</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L20" s="22"/>
       <c r="M20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -4200,7 +4144,7 @@
       <c r="B21" s="52"/>
       <c r="C21" s="52"/>
       <c r="D21" s="22" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E21" s="22"/>
       <c r="G21" s="22" t="s">
@@ -4210,17 +4154,17 @@
         <v>36</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L21" s="22"/>
       <c r="M21" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -4230,7 +4174,7 @@
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
       <c r="D22" s="22" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E22" s="22"/>
       <c r="G22" s="22" t="s">
@@ -4240,17 +4184,17 @@
         <v>36</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L22" s="22"/>
       <c r="M22" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -4260,7 +4204,7 @@
       <c r="B23" s="52"/>
       <c r="C23" s="52"/>
       <c r="D23" s="22" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E23" s="22"/>
       <c r="G23" s="22" t="s">
@@ -4268,17 +4212,17 @@
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="22" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L23" s="22"/>
       <c r="M23" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -4288,7 +4232,7 @@
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
       <c r="D24" s="22" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -4297,17 +4241,17 @@
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L24" s="22"/>
       <c r="M24" s="22" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -4317,7 +4261,7 @@
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
       <c r="D25" s="22" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -4326,17 +4270,17 @@
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L25" s="22"/>
       <c r="M25" s="22" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -4346,7 +4290,7 @@
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
       <c r="D26" s="22" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -4355,17 +4299,17 @@
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L26" s="22"/>
       <c r="M26" s="22" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -4374,14 +4318,14 @@
       </c>
       <c r="B27" s="52"/>
       <c r="C27" s="28" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>35</v>
@@ -4390,17 +4334,17 @@
         <v>36</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="L27" s="22"/>
       <c r="M27" s="22" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -4409,14 +4353,14 @@
       </c>
       <c r="B28" s="52"/>
       <c r="C28" s="28" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G28" s="22" t="s">
         <v>35</v>
@@ -4425,17 +4369,17 @@
         <v>36</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L28" s="22"/>
       <c r="M28" s="22" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -4443,34 +4387,34 @@
         <v>1</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>509</v>
+        <v>183</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G29" s="22" t="s">
         <v>17</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="22" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="L29" s="22"/>
       <c r="M29" s="22" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -4480,28 +4424,28 @@
       <c r="B30" s="52"/>
       <c r="C30" s="52"/>
       <c r="D30" s="22" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>17</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="22" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="L30" s="22"/>
       <c r="M30" s="22" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -4511,28 +4455,28 @@
       <c r="B31" s="52"/>
       <c r="C31" s="52"/>
       <c r="D31" s="22" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G31" s="22" t="s">
         <v>17</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="22" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="L31" s="22"/>
       <c r="M31" s="22" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -4541,29 +4485,29 @@
       </c>
       <c r="B32" s="52"/>
       <c r="C32" s="52" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="22" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
@@ -4575,212 +4519,212 @@
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
       <c r="D33" s="22" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H33" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="22" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <v>2</v>
       </c>
-      <c r="B34" s="53" t="s">
-        <v>213</v>
+      <c r="B34" s="54" t="s">
+        <v>206</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H34" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I34" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="J34" s="50" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K34" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>2</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53" t="s">
-        <v>221</v>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54" t="s">
+        <v>214</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H35" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I35" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="J35" s="50" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K35" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>2</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="22" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G36" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H36" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I36" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="J36" s="50" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K36" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>2</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="22" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G37" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H37" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I37" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="J37" s="50" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K37" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <v>2</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53" t="s">
-        <v>225</v>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54" t="s">
+        <v>218</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G38" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H38" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I38" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="J38" s="50" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K38" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>2</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="22" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G39" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H39" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I39" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="J39" s="50" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K39" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4801,15 +4745,12 @@
     <mergeCell ref="C35:C37"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" xr:uid="{C91467F8-C80D-194D-9CF1-E94B063DF647}"/>
-    <hyperlink ref="I4" r:id="rId2" xr:uid="{EE045362-56A6-7046-9C99-D92E4560A7E9}"/>
-    <hyperlink ref="I5" r:id="rId3" xr:uid="{5CEE79E5-36A0-1449-89D5-40594912DFCB}"/>
-    <hyperlink ref="J34" r:id="rId4" xr:uid="{3D79DC03-4AD8-4138-BA78-16543353E812}"/>
-    <hyperlink ref="J36" r:id="rId5" xr:uid="{2C5D8387-C3E7-4558-8512-24776549ECBC}"/>
-    <hyperlink ref="J38" r:id="rId6" xr:uid="{74409AF7-44EC-4DDA-94CE-5CFE6B6EF45D}"/>
-    <hyperlink ref="J39" r:id="rId7" xr:uid="{C809E76F-A449-46AC-8602-30F16878D60F}"/>
-    <hyperlink ref="J35" r:id="rId8" xr:uid="{E454A5A6-3A9A-4343-AB97-574D153141D3}"/>
-    <hyperlink ref="J37" r:id="rId9" xr:uid="{A9860B9E-3E33-44F9-9771-16C1931572D4}"/>
+    <hyperlink ref="J34" r:id="rId1" xr:uid="{3D79DC03-4AD8-4138-BA78-16543353E812}"/>
+    <hyperlink ref="J36" r:id="rId2" xr:uid="{2C5D8387-C3E7-4558-8512-24776549ECBC}"/>
+    <hyperlink ref="J38" r:id="rId3" xr:uid="{74409AF7-44EC-4DDA-94CE-5CFE6B6EF45D}"/>
+    <hyperlink ref="J39" r:id="rId4" xr:uid="{C809E76F-A449-46AC-8602-30F16878D60F}"/>
+    <hyperlink ref="J35" r:id="rId5" xr:uid="{E454A5A6-3A9A-4343-AB97-574D153141D3}"/>
+    <hyperlink ref="J37" r:id="rId6" xr:uid="{A9860B9E-3E33-44F9-9771-16C1931572D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4817,11 +4758,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F95016-FFA1-D04E-AB0C-5DF6EE3EB4E3}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29:C32"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4881,13 +4822,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22" t="s">
@@ -4900,17 +4841,17 @@
         <v>36</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>43</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L2" s="22"/>
       <c r="M2" s="22" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -4920,7 +4861,7 @@
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
@@ -4933,17 +4874,17 @@
         <v>36</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>43</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L3" s="22"/>
       <c r="M3" s="22" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -4951,36 +4892,36 @@
         <v>2</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L4" s="22"/>
       <c r="M4" s="22" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -4989,10 +4930,10 @@
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="42" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E5" s="43"/>
       <c r="F5" s="34"/>
@@ -5001,11 +4942,11 @@
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
       <c r="K5" s="34" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L5" s="34"/>
       <c r="M5" s="25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -5014,10 +4955,10 @@
       </c>
       <c r="B6" s="52"/>
       <c r="C6" s="52" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22" t="s">
@@ -5030,17 +4971,17 @@
         <v>36</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L6" s="22"/>
       <c r="M6" s="22" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -5050,7 +4991,7 @@
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="22" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22" t="s">
@@ -5067,11 +5008,11 @@
         <v>38</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="L7" s="22"/>
       <c r="M7" s="22" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -5081,30 +5022,30 @@
       <c r="B8" s="52"/>
       <c r="C8" s="52"/>
       <c r="D8" s="22" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L8" s="22"/>
       <c r="M8" s="22" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -5114,30 +5055,30 @@
       <c r="B9" s="52"/>
       <c r="C9" s="52"/>
       <c r="D9" s="22" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="L9" s="22"/>
       <c r="M9" s="22" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -5147,30 +5088,30 @@
       <c r="B10" s="52"/>
       <c r="C10" s="52"/>
       <c r="D10" s="22" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="L10" s="22"/>
       <c r="M10" s="22" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -5179,10 +5120,10 @@
       </c>
       <c r="B11" s="52"/>
       <c r="C11" s="39" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
@@ -5195,29 +5136,29 @@
         <v>36</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L11" s="22"/>
       <c r="M11" s="22" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B12" s="52"/>
       <c r="C12" s="42" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="34"/>
@@ -5226,11 +5167,11 @@
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L12" s="34"/>
       <c r="M12" s="25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5239,10 +5180,10 @@
       </c>
       <c r="B13" s="52"/>
       <c r="C13" s="51" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22" t="s">
@@ -5252,34 +5193,34 @@
         <v>35</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L13" s="22"/>
       <c r="M13" s="22" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>275</v>
+        <v>54</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>268</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="20"/>
@@ -5290,19 +5231,19 @@
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="53"/>
+        <v>54</v>
+      </c>
+      <c r="B15" s="54"/>
       <c r="C15" s="42" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E15" s="43"/>
       <c r="F15" s="34"/>
@@ -5311,23 +5252,23 @@
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
       <c r="K15" s="34" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L15" s="34"/>
       <c r="M15" s="25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="53"/>
+        <v>54</v>
+      </c>
+      <c r="B16" s="54"/>
       <c r="C16" s="44" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E16" s="43"/>
       <c r="F16" s="20"/>
@@ -5338,21 +5279,21 @@
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
       <c r="M16" s="25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E17" s="43"/>
       <c r="F17" s="34"/>
@@ -5361,25 +5302,25 @@
       <c r="I17" s="34"/>
       <c r="J17" s="34"/>
       <c r="K17" s="34" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="L17" s="34"/>
       <c r="M17" s="25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E18" s="43"/>
       <c r="F18" s="20"/>
@@ -5388,23 +5329,23 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="L18" s="20"/>
       <c r="M18" s="25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B19" s="52"/>
       <c r="C19" s="44" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E19" s="43"/>
       <c r="F19" s="20"/>
@@ -5415,7 +5356,7 @@
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
       <c r="M19" s="25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -5423,11 +5364,11 @@
         <v>2</v>
       </c>
       <c r="B20" s="52"/>
-      <c r="C20" s="53" t="s">
-        <v>287</v>
+      <c r="C20" s="54" t="s">
+        <v>280</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22" t="s">
@@ -5444,11 +5385,11 @@
         <v>38</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L20" s="22"/>
       <c r="M20" s="22" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -5456,9 +5397,9 @@
         <v>2</v>
       </c>
       <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="22" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="22" t="s">
@@ -5475,23 +5416,23 @@
         <v>38</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L21" s="22"/>
       <c r="M21" s="22" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B22" s="52"/>
       <c r="C22" s="44" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E22" s="43"/>
       <c r="F22" s="20"/>
@@ -5500,11 +5441,11 @@
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L22" s="20"/>
       <c r="M22" s="25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -5512,13 +5453,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="22" t="s">
@@ -5528,7 +5469,7 @@
         <v>35</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="I23" s="22" t="s">
         <v>37</v>
@@ -5537,7 +5478,7 @@
         <v>38</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -5546,10 +5487,10 @@
       </c>
       <c r="B24" s="52"/>
       <c r="C24" s="52" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="22" t="s">
@@ -5559,19 +5500,19 @@
         <v>17</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="J24" s="22" t="s">
         <v>43</v>
       </c>
       <c r="K24" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M24" s="22" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -5581,7 +5522,7 @@
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
       <c r="D25" s="22" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="22" t="s">
@@ -5591,10 +5532,10 @@
         <v>17</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="J25" s="22" t="s">
         <v>43</v>
@@ -5602,7 +5543,7 @@
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
       <c r="M25" s="22" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -5612,7 +5553,7 @@
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
       <c r="D26" s="22" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22" t="s">
@@ -5623,29 +5564,29 @@
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="J26" s="22" t="s">
         <v>43</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="L26" s="22"/>
       <c r="M26" s="22" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B27" s="52"/>
       <c r="C27" s="40" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22" t="s">
@@ -5662,23 +5603,23 @@
         <v>38</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="L27" s="22"/>
       <c r="M27" s="22" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B28" s="52"/>
       <c r="C28" s="42" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="34"/>
@@ -5689,7 +5630,7 @@
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
       <c r="M28" s="25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -5698,10 +5639,10 @@
       </c>
       <c r="B29" s="52"/>
       <c r="C29" s="52" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="22" t="s">
@@ -5711,7 +5652,7 @@
         <v>35</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="I29" s="22" t="s">
         <v>37</v>
@@ -5719,10 +5660,12 @@
       <c r="J29" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="22"/>
+      <c r="K29" s="22" t="s">
+        <v>308</v>
+      </c>
       <c r="L29" s="22"/>
       <c r="M29" s="22" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -5732,7 +5675,7 @@
       <c r="B30" s="52"/>
       <c r="C30" s="52"/>
       <c r="D30" s="22" t="s">
-        <v>316</v>
+        <v>501</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="22" t="s">
@@ -5742,7 +5685,7 @@
         <v>35</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="I30" s="22" t="s">
         <v>37</v>
@@ -5750,12 +5693,10 @@
       <c r="J30" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="22" t="s">
-        <v>317</v>
-      </c>
+      <c r="K30" s="22"/>
       <c r="L30" s="22"/>
       <c r="M30" s="22" t="s">
-        <v>318</v>
+        <v>502</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -5765,7 +5706,7 @@
       <c r="B31" s="52"/>
       <c r="C31" s="52"/>
       <c r="D31" s="22" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="22" t="s">
@@ -5775,7 +5716,7 @@
         <v>35</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="I31" s="22" t="s">
         <v>37</v>
@@ -5786,88 +5727,57 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
       <c r="M31" s="22" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="24">
-        <v>3</v>
+      <c r="A32" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="J32" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22" t="s">
-        <v>322</v>
+      <c r="C32" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="43"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="L32" s="20"/>
+      <c r="M32" s="25" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="38" t="s">
-        <v>323</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>315</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E33" s="43"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20" t="s">
-        <v>508</v>
-      </c>
-      <c r="L33" s="20"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
       <c r="M33" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>324</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>325</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5879,16 +5789,16 @@
     </sortState>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B33"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B23:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5964,85 +5874,85 @@
       <c r="A2" s="24">
         <v>3</v>
       </c>
-      <c r="B2" s="54" t="s">
-        <v>326</v>
+      <c r="B2" s="53" t="s">
+        <v>316</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="L2" s="22"/>
       <c r="M2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="28" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>35</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="K3" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="M3" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
@@ -6051,20 +5961,20 @@
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
       <c r="K4" s="34" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B5" s="55"/>
       <c r="C5" s="35" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
@@ -6077,14 +5987,14 @@
     </row>
     <row r="6" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B6" s="55"/>
       <c r="C6" s="35" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
@@ -6093,20 +6003,20 @@
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
       <c r="K6" s="34" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="L6" s="34"/>
     </row>
     <row r="7" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B7" s="55"/>
       <c r="C7" s="35" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -6115,7 +6025,7 @@
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
       <c r="K7" s="34" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="L7" s="34"/>
     </row>
@@ -6124,17 +6034,17 @@
         <v>2</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>35</v>
@@ -6143,31 +6053,31 @@
         <v>26</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L8" s="22"/>
       <c r="M8" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
@@ -6176,7 +6086,7 @@
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
       <c r="K9" s="34" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="L9" s="34"/>
     </row>
@@ -6185,13 +6095,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30" t="s">
@@ -6201,7 +6111,7 @@
         <v>17</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I10" s="22" t="s">
         <v>19</v>
@@ -6212,7 +6122,7 @@
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
       <c r="M10" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -6220,13 +6130,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
@@ -6236,7 +6146,7 @@
         <v>17</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>19</v>
@@ -6245,10 +6155,10 @@
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="M11" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -6257,10 +6167,10 @@
       </c>
       <c r="B12" s="52"/>
       <c r="C12" s="28" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22" t="s">
@@ -6270,7 +6180,7 @@
         <v>17</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>19</v>
@@ -6281,17 +6191,17 @@
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
       <c r="M12" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="B13" s="52"/>
       <c r="C13" s="42" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
@@ -6300,7 +6210,7 @@
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
       <c r="K13" s="34" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
@@ -6311,10 +6221,10 @@
       </c>
       <c r="B14" s="52"/>
       <c r="C14" s="52" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22" t="s">
@@ -6324,18 +6234,18 @@
         <v>17</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
       <c r="M14" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -6345,7 +6255,7 @@
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
       <c r="D15" s="22" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22" t="s">
@@ -6355,30 +6265,30 @@
         <v>17</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
       <c r="M15" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B16" s="52"/>
       <c r="C16" s="35" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
@@ -6387,22 +6297,22 @@
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
       <c r="K16" s="34" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="L16" s="34"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="35"/>
@@ -6411,7 +6321,7 @@
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
       <c r="K17" s="48" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="L17" s="35"/>
       <c r="M17" s="35"/>
@@ -6493,16 +6403,16 @@
     </row>
     <row r="2" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>380</v>
+        <v>54</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>370</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
@@ -6510,21 +6420,21 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
       <c r="J2" s="20" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="53"/>
+        <v>54</v>
+      </c>
+      <c r="B3" s="54"/>
       <c r="C3" s="38" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -6537,14 +6447,14 @@
     </row>
     <row r="4" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="53"/>
+        <v>54</v>
+      </c>
+      <c r="B4" s="54"/>
       <c r="C4" s="38" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -6557,14 +6467,14 @@
     </row>
     <row r="5" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="53"/>
+        <v>54</v>
+      </c>
+      <c r="B5" s="54"/>
       <c r="C5" s="38" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
@@ -6579,12 +6489,12 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53" t="s">
-        <v>386</v>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54" t="s">
+        <v>376</v>
       </c>
       <c r="D6" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -6593,7 +6503,7 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H6" t="s">
         <v>37</v>
@@ -6602,21 +6512,21 @@
         <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
       <c r="D7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -6625,7 +6535,7 @@
         <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H7" t="s">
         <v>37</v>
@@ -6634,23 +6544,23 @@
         <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="K7"/>
       <c r="L7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="53"/>
+        <v>54</v>
+      </c>
+      <c r="B8" s="54"/>
       <c r="C8" s="38" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -6658,21 +6568,21 @@
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="53"/>
+        <v>54</v>
+      </c>
+      <c r="B9" s="54"/>
       <c r="C9" s="38" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -6680,7 +6590,7 @@
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -6689,14 +6599,14 @@
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>394</v>
+      <c r="B10" s="54" t="s">
+        <v>384</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D10" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -6705,7 +6615,7 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H10" t="s">
         <v>19</v>
@@ -6714,23 +6624,23 @@
         <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="K10"/>
       <c r="L10" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="53"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="29" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D11" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -6739,7 +6649,7 @@
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
@@ -6750,19 +6660,19 @@
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="29" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D12" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -6771,7 +6681,7 @@
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H12" t="s">
         <v>19</v>
@@ -6782,19 +6692,19 @@
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="53"/>
+        <v>54</v>
+      </c>
+      <c r="B13" s="54"/>
       <c r="C13" s="38" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -6802,23 +6712,23 @@
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>407</v>
+        <v>54</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>397</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -6833,15 +6743,15 @@
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53" t="s">
-        <v>409</v>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54" t="s">
+        <v>399</v>
       </c>
       <c r="D15" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -6856,24 +6766,24 @@
         <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="K15"/>
       <c r="L15" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
       <c r="D16" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -6888,24 +6798,24 @@
         <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="K16"/>
       <c r="L16" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
       <c r="D17" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -6920,23 +6830,23 @@
         <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="K17"/>
       <c r="L17" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="53"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="38" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
@@ -6951,14 +6861,14 @@
       <c r="A19">
         <v>1</v>
       </c>
-      <c r="B19" s="53" t="s">
-        <v>418</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>419</v>
+      <c r="B19" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>409</v>
       </c>
       <c r="D19" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
@@ -6967,7 +6877,7 @@
         <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H19" t="s">
         <v>37</v>
@@ -6978,17 +6888,17 @@
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
       <c r="D20" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -6997,7 +6907,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H20" t="s">
         <v>37</v>
@@ -7008,19 +6918,19 @@
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="53"/>
+        <v>54</v>
+      </c>
+      <c r="B21" s="54"/>
       <c r="C21" s="38" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -7028,21 +6938,21 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
       <c r="J21" s="20" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
     </row>
     <row r="22" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="53"/>
+        <v>54</v>
+      </c>
+      <c r="B22" s="54"/>
       <c r="C22" s="38" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
@@ -7050,21 +6960,21 @@
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
     </row>
     <row r="23" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="53"/>
+        <v>54</v>
+      </c>
+      <c r="B23" s="54"/>
       <c r="C23" s="38" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
@@ -7072,21 +6982,21 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
     </row>
     <row r="24" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="53"/>
+        <v>54</v>
+      </c>
+      <c r="B24" s="54"/>
       <c r="C24" s="38" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
@@ -7094,21 +7004,21 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" s="20" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
     </row>
     <row r="25" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="53"/>
+        <v>54</v>
+      </c>
+      <c r="B25" s="54"/>
       <c r="C25" s="38" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
@@ -7116,7 +7026,7 @@
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
@@ -7125,14 +7035,14 @@
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="B26" s="53" t="s">
-        <v>431</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>432</v>
+      <c r="B26" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>422</v>
       </c>
       <c r="D26" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
@@ -7141,7 +7051,7 @@
         <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H26" t="s">
         <v>37</v>
@@ -7150,21 +7060,21 @@
         <v>38</v>
       </c>
       <c r="J26" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="K26"/>
       <c r="L26" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
       <c r="D27" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -7173,7 +7083,7 @@
         <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H27" t="s">
         <v>37</v>
@@ -7182,23 +7092,23 @@
         <v>38</v>
       </c>
       <c r="J27" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="K27"/>
       <c r="L27" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="53"/>
+        <v>54</v>
+      </c>
+      <c r="B28" s="54"/>
       <c r="C28" s="38" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -7211,14 +7121,14 @@
     </row>
     <row r="29" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="53"/>
+        <v>54</v>
+      </c>
+      <c r="B29" s="54"/>
       <c r="C29" s="38" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -7226,7 +7136,7 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
@@ -7235,17 +7145,17 @@
       <c r="A30" s="20">
         <v>2</v>
       </c>
-      <c r="B30" s="53"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="29" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D30" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H30" t="s">
         <v>42</v>
@@ -7254,11 +7164,11 @@
         <v>43</v>
       </c>
       <c r="J30" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="K30"/>
       <c r="L30" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -7345,88 +7255,88 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" s="67"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="56" t="s">
+        <v>437</v>
+      </c>
+      <c r="B3" s="57"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="56" t="s">
+        <v>438</v>
+      </c>
+      <c r="B5" s="57"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="60" t="s">
+        <v>439</v>
+      </c>
+      <c r="B6" s="61"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="56" t="s">
+        <v>440</v>
+      </c>
+      <c r="B8" s="57"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="B9" s="61"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="60"/>
+      <c r="B10" s="61"/>
+    </row>
+    <row r="11" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="62" t="s">
+        <v>442</v>
+      </c>
+      <c r="B11" s="63"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="64" t="s">
+        <v>443</v>
+      </c>
+      <c r="B12" s="57"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="65"/>
+      <c r="B13" s="57"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="B14" s="57"/>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="58" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
-        <v>446</v>
-      </c>
-      <c r="B2" s="59"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
-        <v>447</v>
-      </c>
-      <c r="B3" s="61"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="61"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="60" t="s">
-        <v>448</v>
-      </c>
-      <c r="B5" s="61"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
-        <v>449</v>
-      </c>
-      <c r="B6" s="57"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="56"/>
-      <c r="B7" s="57"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="60" t="s">
-        <v>450</v>
-      </c>
-      <c r="B8" s="61"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
-        <v>451</v>
-      </c>
-      <c r="B9" s="57"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
-    </row>
-    <row r="11" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="B11" s="65"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="66" t="s">
-        <v>453</v>
-      </c>
-      <c r="B12" s="61"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="67"/>
-      <c r="B13" s="61"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="60" t="s">
-        <v>454</v>
-      </c>
-      <c r="B14" s="61"/>
-    </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="62" t="s">
-        <v>455</v>
-      </c>
-      <c r="B15" s="63"/>
+      <c r="B15" s="59"/>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B17" s="2"/>
     </row>
@@ -7435,15 +7345,15 @@
         <v>11</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -7451,7 +7361,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -7459,7 +7369,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -7467,7 +7377,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -7475,7 +7385,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -7483,15 +7393,15 @@
         <v>7</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -7499,23 +7409,23 @@
         <v>0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -7524,42 +7434,42 @@
     </row>
     <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -7567,6 +7477,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A8:B8"/>
@@ -7575,12 +7491,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{A59DB292-A126-46C8-AAB0-2FF5AD1DDD57}"/>
@@ -7632,13 +7542,13 @@
         <v>6</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>8</v>
@@ -7652,7 +7562,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -7664,32 +7574,32 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C3" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="J3" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="C4" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -7698,10 +7608,10 @@
         <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="J4" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -7709,7 +7619,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -7720,27 +7630,27 @@
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C6" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="J6" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -7749,7 +7659,7 @@
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
@@ -7760,71 +7670,71 @@
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C8" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="J8" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B9" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="H9" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B10" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="H10" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B11" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G11" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="G12" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B13" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="G13" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>

--- a/2_clean/secondary_metrics.xlsx
+++ b/2_clean/secondary_metrics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdonov12\OneDrive - University of Vermont\Food Systems Research Center\Sustainability Metrics\Sustainability Metrics Manuscript\Metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/swalshda_uvm_edu/Documents/Food Systems Research Center/Sustainability Metrics/Sustainability Metrics Manuscript/Metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DF1908-CE30-4112-84EC-9B98DA2512CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{A8DF1908-CE30-4112-84EC-9B98DA2512CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{350D48EF-383E-453E-9B76-831A30264385}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1860" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Economics" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="516">
   <si>
     <t>quality</t>
   </si>
@@ -1578,6 +1578,24 @@
   </si>
   <si>
     <t>https://cfpub.epa.gov/ghgdata/inventoryexplorer/</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>stalled</t>
+  </si>
+  <si>
+    <t>in progress, switching to forest carbon dataset (Chris)</t>
+  </si>
+  <si>
+    <t>need new dataset</t>
+  </si>
+  <si>
+    <t>to do - get PRISM or SPEI data</t>
+  </si>
+  <si>
+    <t>to do - get SSURGO or other dataset</t>
   </si>
 </sst>
 </file>
@@ -2019,12 +2037,18 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2033,12 +2057,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3477,8 +3495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802AE4B4-391E-474A-9621-08E11B188749}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3488,8 +3506,7 @@
     <col min="4" max="4" width="36.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="69.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="28.109375" customWidth="1"/>
+    <col min="12" max="13" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -3565,7 +3582,9 @@
       <c r="K2" s="22" t="s">
         <v>508</v>
       </c>
-      <c r="L2" s="22"/>
+      <c r="L2" s="22" t="s">
+        <v>510</v>
+      </c>
       <c r="M2" s="22" t="s">
         <v>507</v>
       </c>
@@ -3595,6 +3614,9 @@
       <c r="J3" s="18" t="s">
         <v>509</v>
       </c>
+      <c r="L3" t="s">
+        <v>511</v>
+      </c>
       <c r="M3" s="22" t="s">
         <v>109</v>
       </c>
@@ -3624,6 +3646,9 @@
       <c r="J4" s="18" t="s">
         <v>509</v>
       </c>
+      <c r="L4" t="s">
+        <v>511</v>
+      </c>
       <c r="M4" s="22" t="s">
         <v>111</v>
       </c>
@@ -3653,6 +3678,9 @@
       <c r="J5" s="18" t="s">
         <v>509</v>
       </c>
+      <c r="L5" t="s">
+        <v>511</v>
+      </c>
       <c r="M5" s="22" t="s">
         <v>113</v>
       </c>
@@ -3686,6 +3714,9 @@
       </c>
       <c r="K6" t="s">
         <v>119</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>512</v>
       </c>
       <c r="M6" s="22" t="s">
         <v>120</v>
@@ -3719,6 +3750,9 @@
       <c r="K7" t="s">
         <v>119</v>
       </c>
+      <c r="L7" s="22" t="s">
+        <v>512</v>
+      </c>
       <c r="M7" s="22" t="s">
         <v>122</v>
       </c>
@@ -3751,6 +3785,9 @@
       <c r="K8" t="s">
         <v>119</v>
       </c>
+      <c r="L8" s="22" t="s">
+        <v>512</v>
+      </c>
       <c r="M8" s="22" t="s">
         <v>124</v>
       </c>
@@ -3783,7 +3820,9 @@
       <c r="K9" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="L9" s="22"/>
+      <c r="L9" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="M9" s="22" t="s">
         <v>129</v>
       </c>
@@ -3814,7 +3853,9 @@
       <c r="K10" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="L10" s="22"/>
+      <c r="L10" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="M10" s="22" t="s">
         <v>131</v>
       </c>
@@ -3845,7 +3886,9 @@
       <c r="K11" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="L11" s="22"/>
+      <c r="L11" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="M11" s="22" t="s">
         <v>133</v>
       </c>
@@ -3876,7 +3919,9 @@
       <c r="K12" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="L12" s="22"/>
+      <c r="L12" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="M12" s="22" t="s">
         <v>135</v>
       </c>
@@ -3903,7 +3948,9 @@
       <c r="K13" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="L13" s="34"/>
+      <c r="L13" s="34" t="s">
+        <v>512</v>
+      </c>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -3936,7 +3983,9 @@
       <c r="K14" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="L14" s="22"/>
+      <c r="L14" s="22" t="s">
+        <v>512</v>
+      </c>
       <c r="M14" s="22" t="s">
         <v>142</v>
       </c>
@@ -3969,7 +4018,9 @@
       <c r="K15" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="L15" s="22"/>
+      <c r="L15" s="22" t="s">
+        <v>512</v>
+      </c>
       <c r="M15" s="22" t="s">
         <v>144</v>
       </c>
@@ -4002,7 +4053,9 @@
       <c r="K16" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="L16" s="22"/>
+      <c r="L16" s="22" t="s">
+        <v>512</v>
+      </c>
       <c r="M16" s="22" t="s">
         <v>146</v>
       </c>
@@ -4035,7 +4088,9 @@
       <c r="K17" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="L17" s="22"/>
+      <c r="L17" s="22" t="s">
+        <v>512</v>
+      </c>
       <c r="M17" s="22" t="s">
         <v>148</v>
       </c>
@@ -4068,7 +4123,9 @@
       <c r="K18" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="L18" s="22"/>
+      <c r="L18" s="22" t="s">
+        <v>512</v>
+      </c>
       <c r="M18" s="22" t="s">
         <v>150</v>
       </c>
@@ -4102,7 +4159,9 @@
       <c r="K19" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="L19" s="22"/>
+      <c r="L19" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="M19" t="s">
         <v>157</v>
       </c>
@@ -4132,7 +4191,9 @@
       <c r="K20" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="L20" s="22"/>
+      <c r="L20" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="M20" t="s">
         <v>159</v>
       </c>
@@ -4162,7 +4223,9 @@
       <c r="K21" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="L21" s="22"/>
+      <c r="L21" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="M21" t="s">
         <v>161</v>
       </c>
@@ -4192,7 +4255,9 @@
       <c r="K22" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="L22" s="22"/>
+      <c r="L22" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="M22" t="s">
         <v>163</v>
       </c>
@@ -4220,7 +4285,9 @@
       <c r="K23" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="L23" s="22"/>
+      <c r="L23" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="M23" t="s">
         <v>165</v>
       </c>
@@ -4249,7 +4316,9 @@
       <c r="K24" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="L24" s="22"/>
+      <c r="L24" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="M24" s="22" t="s">
         <v>167</v>
       </c>
@@ -4278,7 +4347,9 @@
       <c r="K25" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="L25" s="22"/>
+      <c r="L25" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="M25" s="22" t="s">
         <v>169</v>
       </c>
@@ -4307,7 +4378,9 @@
       <c r="K26" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="L26" s="22"/>
+      <c r="L26" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="M26" s="22" t="s">
         <v>171</v>
       </c>
@@ -4342,7 +4415,9 @@
       <c r="K27" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="L27" s="22"/>
+      <c r="L27" s="22" t="s">
+        <v>510</v>
+      </c>
       <c r="M27" s="22" t="s">
         <v>178</v>
       </c>
@@ -4377,7 +4452,9 @@
       <c r="K28" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="L28" s="22"/>
+      <c r="L28" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="M28" s="22" t="s">
         <v>182</v>
       </c>
@@ -4412,7 +4489,9 @@
       <c r="K29" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="L29" s="22"/>
+      <c r="L29" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="M29" s="22" t="s">
         <v>189</v>
       </c>
@@ -4443,7 +4522,9 @@
       <c r="K30" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="L30" s="22"/>
+      <c r="L30" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="M30" s="22" t="s">
         <v>191</v>
       </c>
@@ -4474,7 +4555,9 @@
       <c r="K31" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="L31" s="22"/>
+      <c r="L31" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="M31" s="22" t="s">
         <v>193</v>
       </c>
@@ -4509,7 +4592,9 @@
       <c r="K32" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="L32" s="22"/>
+      <c r="L32" s="22" t="s">
+        <v>514</v>
+      </c>
       <c r="M32" s="22"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -4540,7 +4625,9 @@
       <c r="K33" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="L33" s="22"/>
+      <c r="L33" s="22" t="s">
+        <v>510</v>
+      </c>
       <c r="M33" s="22" t="s">
         <v>205</v>
       </c>
@@ -4577,6 +4664,9 @@
       <c r="K34" t="s">
         <v>213</v>
       </c>
+      <c r="L34" s="22" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
@@ -4607,6 +4697,9 @@
       </c>
       <c r="K35" t="s">
         <v>213</v>
+      </c>
+      <c r="L35" s="22" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -4637,6 +4730,9 @@
       <c r="K36" t="s">
         <v>213</v>
       </c>
+      <c r="L36" s="22" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
@@ -4666,6 +4762,9 @@
       <c r="K37" t="s">
         <v>213</v>
       </c>
+      <c r="L37" s="22" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
@@ -4696,6 +4795,9 @@
       </c>
       <c r="K38" t="s">
         <v>213</v>
+      </c>
+      <c r="L38" s="22" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -4725,6 +4827,9 @@
       </c>
       <c r="K39" t="s">
         <v>213</v>
+      </c>
+      <c r="L39" s="22" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -5789,16 +5894,16 @@
     </sortState>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B32"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7259,80 +7364,80 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="58" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="59"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="60" t="s">
         <v>437</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="61"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="60" t="s">
         <v>438</v>
       </c>
-      <c r="B5" s="57"/>
+      <c r="B5" s="61"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="56" t="s">
         <v>439</v>
       </c>
-      <c r="B6" s="61"/>
+      <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="60" t="s">
         <v>440</v>
       </c>
-      <c r="B8" s="57"/>
+      <c r="B8" s="61"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="56" t="s">
         <v>441</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="57"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
     </row>
     <row r="11" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="64" t="s">
         <v>442</v>
       </c>
-      <c r="B11" s="63"/>
+      <c r="B11" s="65"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="66" t="s">
         <v>443</v>
       </c>
-      <c r="B12" s="57"/>
+      <c r="B12" s="61"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="B13" s="57"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="61"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="60" t="s">
         <v>444</v>
       </c>
-      <c r="B14" s="57"/>
+      <c r="B14" s="61"/>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="62" t="s">
         <v>445</v>
       </c>
-      <c r="B15" s="59"/>
+      <c r="B15" s="63"/>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
@@ -7477,12 +7582,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A8:B8"/>
@@ -7491,6 +7590,12 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{A59DB292-A126-46C8-AAB0-2FF5AD1DDD57}"/>

--- a/2_clean/secondary_metrics.xlsx
+++ b/2_clean/secondary_metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/swalshda_uvm_edu/Documents/Food Systems Research Center/Sustainability Metrics/Sustainability Metrics Manuscript/Metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{A8DF1908-CE30-4112-84EC-9B98DA2512CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{350D48EF-383E-453E-9B76-831A30264385}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="13_ncr:1_{A8DF1908-CE30-4112-84EC-9B98DA2512CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E680F50-79C8-4955-8B36-A7F59753DCF6}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1860" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Economics" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="543">
   <si>
     <t>quality</t>
   </si>
@@ -392,12 +392,6 @@
     <t>N2OFromAg</t>
   </si>
   <si>
-    <t>above ground carbon stocks</t>
-  </si>
-  <si>
-    <t>Forest carbon - dead and down</t>
-  </si>
-  <si>
     <t>8 years</t>
   </si>
   <si>
@@ -407,24 +401,6 @@
     <t>https://data.fs.usda.gov/geodata/rastergateway/treemap/index.php</t>
   </si>
   <si>
-    <t>Slow (no) updates, and need more than just forests. Need a better source. Could try FEMC</t>
-  </si>
-  <si>
-    <t>forestCarbonDeadDown</t>
-  </si>
-  <si>
-    <t>Forest carbon - live standing</t>
-  </si>
-  <si>
-    <t>forestCarbonLive</t>
-  </si>
-  <si>
-    <t>Forest carbon - standing dead</t>
-  </si>
-  <si>
-    <t>forestCarbonDeadStanding</t>
-  </si>
-  <si>
     <t>embodied carbon</t>
   </si>
   <si>
@@ -464,9 +440,6 @@
     <t>forest complexity</t>
   </si>
   <si>
-    <t>TreeMap has some data, but old. FEMC is an option, but not great coverage</t>
-  </si>
-  <si>
     <t>forest health</t>
   </si>
   <si>
@@ -662,9 +635,6 @@
     <t>https://droughtmonitor.unl.edu/DmData/DataDownload.aspx</t>
   </si>
   <si>
-    <t>This is tabular pulled from API, but they also have rasters and vectors</t>
-  </si>
-  <si>
     <t>droughtNonConWeeksCat2</t>
   </si>
   <si>
@@ -1070,9 +1040,6 @@
     <t>https://www.nass.usda.gov/Research_and_Science/Cropland/SARS1a.php</t>
   </si>
   <si>
-    <t>Might not be great measure for NE states - could alternatively try it from NASS production stats</t>
-  </si>
-  <si>
     <t>cropDiversity</t>
   </si>
   <si>
@@ -1253,9 +1220,6 @@
     <t>Acres under conservation easements</t>
   </si>
   <si>
-    <t>state only, not available at county</t>
-  </si>
-  <si>
     <t>consEasementAcres</t>
   </si>
   <si>
@@ -1391,9 +1355,6 @@
     <t>Variables:</t>
   </si>
   <si>
-    <t>where we're at with data wrangling. Done = all ready to use. Rework = we have data, just need to transform it or do calculations. Find source = we want this but don't have it, and have no leads. Pull it = we have a source/lead, just have to pull and wrangle it</t>
-  </si>
-  <si>
     <t>dimension:metric</t>
   </si>
   <si>
@@ -1547,9 +1508,6 @@
     <t>Gender pay gap in agricultural sector</t>
   </si>
   <si>
-    <t>Proportion of womens' pay to mens' pay in agriculture sector (NAICS 11)</t>
-  </si>
-  <si>
     <t>Might like this better than general pay gap or income inequality. Could also consider sector 111? Maybe 112?</t>
   </si>
   <si>
@@ -1583,12 +1541,6 @@
     <t>done</t>
   </si>
   <si>
-    <t>stalled</t>
-  </si>
-  <si>
-    <t>in progress, switching to forest carbon dataset (Chris)</t>
-  </si>
-  <si>
     <t>need new dataset</t>
   </si>
   <si>
@@ -1596,6 +1548,135 @@
   </si>
   <si>
     <t>to do - get SSURGO or other dataset</t>
+  </si>
+  <si>
+    <t>to do - rework as distribution or diversity index</t>
+  </si>
+  <si>
+    <t>to do - calculate ratio</t>
+  </si>
+  <si>
+    <t>Ratio of womens' pay to mens' pay in agriculture sector (NAICS 11)</t>
+  </si>
+  <si>
+    <t>to do - wrangle this from NASS</t>
+  </si>
+  <si>
+    <t>in progress - switch these to NASS from FAME (Chris)</t>
+  </si>
+  <si>
+    <t>to do - get new dataset, leads from Gillian</t>
+  </si>
+  <si>
+    <t>done unless better dataset</t>
+  </si>
+  <si>
+    <t>in progress (Chris) - get this from source instead of FAME</t>
+  </si>
+  <si>
+    <t>done unless we want source rather than UW</t>
+  </si>
+  <si>
+    <t>done unless source rather than UW, but UW data looks cleaner than source</t>
+  </si>
+  <si>
+    <t>to do - pull from cdc eph or elsewhere. But eph data is very spotty.</t>
+  </si>
+  <si>
+    <t>in progress (Chris) - is this available at county level, or something similar?</t>
+  </si>
+  <si>
+    <t>in progress (Chris) - fix variable_name</t>
+  </si>
+  <si>
+    <t>in progress (Chris) - find this and fix name</t>
+  </si>
+  <si>
+    <t>need a plan here</t>
+  </si>
+  <si>
+    <t>done unless we want source instead of UW - but UW is cleaner</t>
+  </si>
+  <si>
+    <t>to do - calculate from NASS</t>
+  </si>
+  <si>
+    <t>in progress (Chris) - find this or calculate it again</t>
+  </si>
+  <si>
+    <t>to do - calculate Shannon from NASS</t>
+  </si>
+  <si>
+    <t>done unless we want source instead of UW</t>
+  </si>
+  <si>
+    <t>need dataset</t>
+  </si>
+  <si>
+    <t>done unless want source instead of UW</t>
+  </si>
+  <si>
+    <t>to do - calculate from census</t>
+  </si>
+  <si>
+    <t>carbon stocks</t>
+  </si>
+  <si>
+    <t>Aboveground biomass per acre</t>
+  </si>
+  <si>
+    <t>~10 years</t>
+  </si>
+  <si>
+    <t>USDA National Forest Carbon Monitoring System</t>
+  </si>
+  <si>
+    <t>https://www.fs.usda.gov/rds/archive/catalog/RDS-2025-0019</t>
+  </si>
+  <si>
+    <t>More recent data then TreeMap, but unclear on updates</t>
+  </si>
+  <si>
+    <t>Live biomass per acre</t>
+  </si>
+  <si>
+    <t>Soil carbon per acre</t>
+  </si>
+  <si>
+    <t>Total ecosystem carbon per acre</t>
+  </si>
+  <si>
+    <t>abovegroundBiomassPerAcre</t>
+  </si>
+  <si>
+    <t>liveBiomassPerAcre</t>
+  </si>
+  <si>
+    <t>soilCarbonPerAcre</t>
+  </si>
+  <si>
+    <t>totalEcosystemCarbonPerAcre</t>
+  </si>
+  <si>
+    <t>Forest type diversity</t>
+  </si>
+  <si>
+    <t>forestTypeDiversity</t>
+  </si>
+  <si>
+    <t>propForest</t>
+  </si>
+  <si>
+    <t>Proportion forested</t>
+  </si>
+  <si>
+    <t>where we're at with data wrangling</t>
+  </si>
+  <si>
+    <t>in progress (Chris) - switching to forest carbon dataset</t>
+  </si>
+  <si>
+    <t>This is tabular data pulled from API, but they also have rasters and vectors</t>
   </si>
 </sst>
 </file>
@@ -1906,7 +1987,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2057,6 +2138,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2526,8 +2610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D1AE80-3BFB-3B41-8518-A67336181549}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2539,7 +2623,7 @@
     <col min="9" max="9" width="33.33203125" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="64.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
     <col min="13" max="13" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2614,7 +2698,9 @@
         <v>20</v>
       </c>
       <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="L2" s="22" t="s">
+        <v>496</v>
+      </c>
       <c r="M2" s="22" t="s">
         <v>21</v>
       </c>
@@ -2647,7 +2733,9 @@
       <c r="K3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="22"/>
+      <c r="L3" s="22" t="s">
+        <v>496</v>
+      </c>
       <c r="M3" s="22" t="s">
         <v>24</v>
       </c>
@@ -2681,7 +2769,7 @@
         <v>27</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>28</v>
+        <v>500</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>29</v>
@@ -2716,7 +2804,7 @@
         <v>27</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>28</v>
+        <v>500</v>
       </c>
       <c r="M5" s="22" t="s">
         <v>31</v>
@@ -2754,7 +2842,9 @@
       <c r="K6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="22"/>
+      <c r="L6" s="22" t="s">
+        <v>496</v>
+      </c>
       <c r="M6" s="22" t="s">
         <v>40</v>
       </c>
@@ -2787,7 +2877,9 @@
       <c r="K7" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="22"/>
+      <c r="L7" s="22" t="s">
+        <v>496</v>
+      </c>
       <c r="M7" s="22" t="s">
         <v>45</v>
       </c>
@@ -2820,7 +2912,9 @@
       <c r="K8" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="22"/>
+      <c r="L8" s="22" t="s">
+        <v>496</v>
+      </c>
       <c r="M8" s="22" t="s">
         <v>48</v>
       </c>
@@ -2830,20 +2924,32 @@
       <c r="B9" s="52"/>
       <c r="C9" s="53"/>
       <c r="D9" s="22" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>499</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+        <v>502</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>20</v>
+      </c>
       <c r="K9" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="L9" s="22"/>
+        <v>486</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>501</v>
+      </c>
       <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -2855,7 +2961,7 @@
         <v>49</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22" t="s">
@@ -2874,9 +2980,11 @@
         <v>51</v>
       </c>
       <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="L10" s="22" t="s">
+        <v>496</v>
+      </c>
       <c r="M10" s="22" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -2936,7 +3044,9 @@
         <v>20</v>
       </c>
       <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="L12" s="22" t="s">
+        <v>503</v>
+      </c>
       <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -2965,7 +3075,9 @@
         <v>20</v>
       </c>
       <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
+      <c r="L13" s="22" t="s">
+        <v>496</v>
+      </c>
       <c r="M13" s="22" t="s">
         <v>61</v>
       </c>
@@ -2977,7 +3089,7 @@
       <c r="B14" s="52"/>
       <c r="C14" s="52"/>
       <c r="D14" s="22" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22" t="s">
@@ -2996,9 +3108,11 @@
         <v>51</v>
       </c>
       <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
+      <c r="L14" s="22" t="s">
+        <v>496</v>
+      </c>
       <c r="M14" s="22" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -3079,7 +3193,9 @@
         <v>68</v>
       </c>
       <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
+      <c r="L17" s="22" t="s">
+        <v>504</v>
+      </c>
       <c r="M17" s="22" t="s">
         <v>69</v>
       </c>
@@ -3110,7 +3226,9 @@
         <v>68</v>
       </c>
       <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+      <c r="L18" s="22" t="s">
+        <v>504</v>
+      </c>
       <c r="M18" s="22" t="s">
         <v>71</v>
       </c>
@@ -3141,7 +3259,9 @@
         <v>68</v>
       </c>
       <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
+      <c r="L19" s="22" t="s">
+        <v>504</v>
+      </c>
       <c r="M19" s="22" t="s">
         <v>73</v>
       </c>
@@ -3176,7 +3296,9 @@
       <c r="K20" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="L20" s="22"/>
+      <c r="L20" s="22" t="s">
+        <v>505</v>
+      </c>
       <c r="M20" t="s">
         <v>81</v>
       </c>
@@ -3209,7 +3331,9 @@
       <c r="K21" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="L21" s="22"/>
+      <c r="L21" s="22" t="s">
+        <v>505</v>
+      </c>
       <c r="M21" t="s">
         <v>83</v>
       </c>
@@ -3242,7 +3366,9 @@
       <c r="K22" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="L22" s="22"/>
+      <c r="L22" s="22" t="s">
+        <v>505</v>
+      </c>
       <c r="M22" t="s">
         <v>85</v>
       </c>
@@ -3275,7 +3401,9 @@
       <c r="K23" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="L23" s="22"/>
+      <c r="L23" s="22" t="s">
+        <v>505</v>
+      </c>
       <c r="M23" t="s">
         <v>87</v>
       </c>
@@ -3308,7 +3436,9 @@
       <c r="K24" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="L24" s="22"/>
+      <c r="L24" s="22" t="s">
+        <v>505</v>
+      </c>
       <c r="M24" t="s">
         <v>89</v>
       </c>
@@ -3341,7 +3471,9 @@
       <c r="K25" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="L25" s="22"/>
+      <c r="L25" s="22" t="s">
+        <v>505</v>
+      </c>
       <c r="M25" t="s">
         <v>91</v>
       </c>
@@ -3374,7 +3506,9 @@
       <c r="K26" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="L26" s="22"/>
+      <c r="L26" s="22" t="s">
+        <v>505</v>
+      </c>
       <c r="M26" t="s">
         <v>93</v>
       </c>
@@ -3493,10 +3627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802AE4B4-391E-474A-9621-08E11B188749}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3580,13 +3714,13 @@
         <v>106</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -3612,10 +3746,10 @@
         <v>108</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="L3" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M3" s="22" t="s">
         <v>109</v>
@@ -3644,10 +3778,10 @@
         <v>108</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="L4" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>111</v>
@@ -3676,155 +3810,155 @@
         <v>108</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="L5" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M5" s="22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="26">
-        <v>1</v>
+      <c r="A6" s="23">
+        <v>2</v>
       </c>
       <c r="B6" s="52"/>
       <c r="C6" s="52" t="s">
-        <v>114</v>
+        <v>523</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>115</v>
+        <v>524</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>116</v>
+        <v>525</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>117</v>
+        <v>526</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="K6" t="s">
-        <v>119</v>
+        <v>527</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>528</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>120</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="26">
-        <v>1</v>
+      <c r="A7" s="23">
+        <v>2</v>
       </c>
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="22" t="s">
-        <v>121</v>
+        <v>529</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>116</v>
+        <v>525</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>117</v>
+        <v>526</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="K7" t="s">
-        <v>119</v>
+        <v>527</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>528</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>122</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="26">
-        <v>1</v>
+      <c r="A8" s="23">
+        <v>2</v>
       </c>
       <c r="B8" s="52"/>
       <c r="C8" s="52"/>
       <c r="D8" s="22" t="s">
-        <v>123</v>
+        <v>530</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>116</v>
+        <v>525</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>117</v>
+        <v>526</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="K8" t="s">
-        <v>119</v>
+        <v>527</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>528</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>124</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="26">
-        <v>1</v>
+      <c r="A9" s="23">
+        <v>2</v>
       </c>
       <c r="B9" s="52"/>
-      <c r="C9" s="52" t="s">
-        <v>125</v>
-      </c>
+      <c r="C9" s="52"/>
       <c r="D9" s="22" t="s">
-        <v>126</v>
+        <v>531</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>127</v>
+        <v>525</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="22"/>
+        <v>526</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>527</v>
+      </c>
       <c r="K9" s="22" t="s">
-        <v>128</v>
+        <v>528</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>129</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -3832,9 +3966,11 @@
         <v>1</v>
       </c>
       <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
+      <c r="C10" s="52" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" s="22" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22" t="s">
@@ -3844,20 +3980,20 @@
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I10" s="22" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -3867,7 +4003,7 @@
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
       <c r="D11" s="22" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
@@ -3877,20 +4013,20 @@
         <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -3900,7 +4036,7 @@
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
       <c r="D12" s="22" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22" t="s">
@@ -3910,84 +4046,92 @@
         <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="26">
+        <v>1</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
+        <v>2</v>
+      </c>
+      <c r="B14" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="L12" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>512</v>
-      </c>
-      <c r="M13" s="34"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="26">
-        <v>1</v>
-      </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52" t="s">
-        <v>139</v>
+      <c r="C14" s="68" t="s">
+        <v>129</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>140</v>
+        <v>536</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>116</v>
+        <v>525</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>117</v>
+        <v>526</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>118</v>
+        <v>527</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>141</v>
+        <v>528</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>142</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -3995,34 +4139,36 @@
         <v>1</v>
       </c>
       <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
+      <c r="C15" s="52" t="s">
+        <v>130</v>
+      </c>
       <c r="D15" s="22" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -4032,32 +4178,32 @@
       <c r="B16" s="52"/>
       <c r="C16" s="52"/>
       <c r="D16" s="22" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -4067,32 +4213,32 @@
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
       <c r="D17" s="22" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -4102,68 +4248,67 @@
       <c r="B18" s="52"/>
       <c r="C18" s="52"/>
       <c r="D18" s="22" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
-        <v>2</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>152</v>
-      </c>
+      <c r="A19" s="26">
+        <v>1</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="22" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E19" s="22"/>
+      <c r="F19" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G19" s="22" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="M19" t="s">
-        <v>157</v>
+        <v>541</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -4173,41 +4318,51 @@
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
       <c r="D20" s="22" t="s">
-        <v>158</v>
+        <v>539</v>
       </c>
       <c r="E20" s="22"/>
+      <c r="F20" s="22" t="s">
+        <v>165</v>
+      </c>
       <c r="G20" s="22" t="s">
-        <v>35</v>
+        <v>525</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>154</v>
+        <v>526</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>155</v>
+        <v>527</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>156</v>
+        <v>528</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="M20" t="s">
-        <v>159</v>
+        <v>496</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>2</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
+      <c r="B21" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>143</v>
+      </c>
       <c r="D21" s="22" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E21" s="22"/>
+      <c r="F21" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="G21" s="22" t="s">
         <v>35</v>
       </c>
@@ -4215,19 +4370,19 @@
         <v>36</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="M21" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -4237,9 +4392,12 @@
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
       <c r="D22" s="22" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E22" s="22"/>
+      <c r="F22" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="G22" s="22" t="s">
         <v>35</v>
       </c>
@@ -4247,19 +4405,19 @@
         <v>36</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="M22" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -4269,27 +4427,32 @@
       <c r="B23" s="52"/>
       <c r="C23" s="52"/>
       <c r="D23" s="22" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="E23" s="22"/>
+      <c r="F23" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="G23" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="22"/>
+      <c r="H23" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="I23" s="22" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="M23" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -4299,28 +4462,32 @@
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
       <c r="D24" s="22" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="G24" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="22"/>
+      <c r="H24" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="I24" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="M24" t="s">
         <v>154</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="M24" s="22" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -4330,28 +4497,30 @@
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
       <c r="D25" s="22" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="G25" s="22" t="s">
         <v>35</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="K25" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="M25" t="s">
         <v>156</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="M25" s="22" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -4361,28 +4530,30 @@
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
       <c r="D26" s="22" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="G26" s="22" t="s">
         <v>35</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="M26" s="22" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -4390,36 +4561,32 @@
         <v>2</v>
       </c>
       <c r="B27" s="52"/>
-      <c r="C27" s="28" t="s">
-        <v>172</v>
-      </c>
+      <c r="C27" s="52"/>
       <c r="D27" s="22" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="22" t="s">
-        <v>36</v>
-      </c>
+      <c r="H27" s="22"/>
       <c r="I27" s="22" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="M27" s="22" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -4427,11 +4594,9 @@
         <v>2</v>
       </c>
       <c r="B28" s="52"/>
-      <c r="C28" s="28" t="s">
-        <v>179</v>
-      </c>
+      <c r="C28" s="52"/>
       <c r="D28" s="22" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="22" t="s">
@@ -4440,103 +4605,109 @@
       <c r="G28" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="22" t="s">
-        <v>36</v>
-      </c>
+      <c r="H28" s="22"/>
       <c r="I28" s="22" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="M28" s="22" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="26">
-        <v>1</v>
-      </c>
-      <c r="B29" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>184</v>
+      <c r="A29" s="23">
+        <v>2</v>
+      </c>
+      <c r="B29" s="52"/>
+      <c r="C29" s="28" t="s">
+        <v>163</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="22" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="22"/>
+        <v>35</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="I29" s="22" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="M29" s="22" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="26">
-        <v>1</v>
+      <c r="A30" s="23">
+        <v>2</v>
       </c>
       <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
+      <c r="C30" s="28" t="s">
+        <v>170</v>
+      </c>
       <c r="D30" s="22" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="22" t="s">
         <v>76</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="22"/>
+        <v>35</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="I30" s="22" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="M30" s="22" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="26">
         <v>1</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
+      <c r="B31" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>175</v>
+      </c>
       <c r="D31" s="22" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="22" t="s">
@@ -4547,191 +4718,191 @@
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="22" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="M31" s="22" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="23">
-        <v>2</v>
+      <c r="A32" s="26">
+        <v>1</v>
       </c>
       <c r="B32" s="52"/>
-      <c r="C32" s="52" t="s">
-        <v>194</v>
-      </c>
+      <c r="C32" s="52"/>
       <c r="D32" s="22" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="22" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>104</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H32" s="22"/>
       <c r="I32" s="22" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="M32" s="22"/>
+        <v>497</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
-        <v>2</v>
+      <c r="A33" s="26">
+        <v>1</v>
       </c>
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
       <c r="D33" s="22" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="22" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H33" s="22"/>
       <c r="I33" s="22" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="M33" s="22" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <v>2</v>
       </c>
-      <c r="B34" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>207</v>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52" t="s">
+        <v>185</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="E34" s="22"/>
-      <c r="F34" t="s">
-        <v>209</v>
+      <c r="F34" s="22" t="s">
+        <v>165</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" t="s">
-        <v>211</v>
-      </c>
-      <c r="J34" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="K34" t="s">
-        <v>213</v>
+        <v>104</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>190</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>515</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="M34" s="22"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>2</v>
       </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54" t="s">
-        <v>214</v>
-      </c>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="22" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E35" s="22"/>
-      <c r="F35" t="s">
-        <v>209</v>
+      <c r="F35" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I35" t="s">
-        <v>211</v>
-      </c>
-      <c r="J35" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="K35" t="s">
-        <v>213</v>
+        <v>36</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>542</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>515</v>
+        <v>496</v>
+      </c>
+      <c r="M35" s="22" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>2</v>
       </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
+      <c r="B36" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>197</v>
+      </c>
       <c r="D36" s="22" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" t="s">
-        <v>209</v>
-      </c>
-      <c r="G36" t="s">
-        <v>210</v>
+        <v>199</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="H36" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I36" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="J36" s="50" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="K36" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -4739,31 +4910,33 @@
         <v>2</v>
       </c>
       <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
+      <c r="C37" s="54" t="s">
+        <v>204</v>
+      </c>
       <c r="D37" s="22" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" t="s">
-        <v>209</v>
-      </c>
-      <c r="G37" t="s">
-        <v>210</v>
+        <v>199</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="H37" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I37" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="J37" s="50" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="K37" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -4771,33 +4944,31 @@
         <v>2</v>
       </c>
       <c r="B38" s="54"/>
-      <c r="C38" s="54" t="s">
-        <v>218</v>
-      </c>
+      <c r="C38" s="54"/>
       <c r="D38" s="22" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="G38" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H38" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I38" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="J38" s="50" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="K38" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -4807,55 +4978,121 @@
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
       <c r="D39" s="22" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="G39" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H39" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I39" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="J39" s="50" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="K39" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>515</v>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="23">
+        <v>2</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" t="s">
+        <v>199</v>
+      </c>
+      <c r="G40" t="s">
+        <v>200</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" t="s">
+        <v>201</v>
+      </c>
+      <c r="J40" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="K40" t="s">
+        <v>203</v>
+      </c>
+      <c r="L40" s="22" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="23">
+        <v>2</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" t="s">
+        <v>199</v>
+      </c>
+      <c r="G41" t="s">
+        <v>200</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" t="s">
+        <v>201</v>
+      </c>
+      <c r="J41" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="K41" t="s">
+        <v>203</v>
+      </c>
+      <c r="L41" s="22" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="B21:B30"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="B31:B35"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C6:C9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J34" r:id="rId1" xr:uid="{3D79DC03-4AD8-4138-BA78-16543353E812}"/>
-    <hyperlink ref="J36" r:id="rId2" xr:uid="{2C5D8387-C3E7-4558-8512-24776549ECBC}"/>
-    <hyperlink ref="J38" r:id="rId3" xr:uid="{74409AF7-44EC-4DDA-94CE-5CFE6B6EF45D}"/>
-    <hyperlink ref="J39" r:id="rId4" xr:uid="{C809E76F-A449-46AC-8602-30F16878D60F}"/>
-    <hyperlink ref="J35" r:id="rId5" xr:uid="{E454A5A6-3A9A-4343-AB97-574D153141D3}"/>
-    <hyperlink ref="J37" r:id="rId6" xr:uid="{A9860B9E-3E33-44F9-9771-16C1931572D4}"/>
+    <hyperlink ref="J36" r:id="rId1" xr:uid="{3D79DC03-4AD8-4138-BA78-16543353E812}"/>
+    <hyperlink ref="J38" r:id="rId2" xr:uid="{2C5D8387-C3E7-4558-8512-24776549ECBC}"/>
+    <hyperlink ref="J40" r:id="rId3" xr:uid="{74409AF7-44EC-4DDA-94CE-5CFE6B6EF45D}"/>
+    <hyperlink ref="J41" r:id="rId4" xr:uid="{C809E76F-A449-46AC-8602-30F16878D60F}"/>
+    <hyperlink ref="J37" r:id="rId5" xr:uid="{E454A5A6-3A9A-4343-AB97-574D153141D3}"/>
+    <hyperlink ref="J39" r:id="rId6" xr:uid="{A9860B9E-3E33-44F9-9771-16C1931572D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4865,19 +5102,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F95016-FFA1-D04E-AB0C-5DF6EE3EB4E3}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
     <col min="3" max="3" width="37.109375" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="73.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="37.5546875" customWidth="1"/>
+    <col min="12" max="12" width="25.109375" customWidth="1"/>
     <col min="13" max="13" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4927,13 +5164,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22" t="s">
@@ -4946,17 +5183,19 @@
         <v>36</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>43</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="L2" s="22"/>
+        <v>215</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>496</v>
+      </c>
       <c r="M2" s="22" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -4966,7 +5205,7 @@
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
@@ -4979,17 +5218,19 @@
         <v>36</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>43</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="L3" s="22"/>
+        <v>215</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>496</v>
+      </c>
       <c r="M3" s="22" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -4997,36 +5238,38 @@
         <v>2</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="22" t="s">
         <v>76</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="L4" s="22"/>
+        <v>226</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>506</v>
+      </c>
       <c r="M4" s="22" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -5035,7 +5278,7 @@
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="42" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D5" s="43" t="s">
         <v>54</v>
@@ -5047,7 +5290,7 @@
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
       <c r="K5" s="34" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L5" s="34"/>
       <c r="M5" s="25" t="s">
@@ -5060,10 +5303,10 @@
       </c>
       <c r="B6" s="52"/>
       <c r="C6" s="52" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22" t="s">
@@ -5076,17 +5319,19 @@
         <v>36</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="L6" s="22"/>
+        <v>215</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>507</v>
+      </c>
       <c r="M6" s="22" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -5096,7 +5341,7 @@
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="22" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22" t="s">
@@ -5113,11 +5358,13 @@
         <v>38</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="L7" s="22"/>
+        <v>235</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>507</v>
+      </c>
       <c r="M7" s="22" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -5127,30 +5374,32 @@
       <c r="B8" s="52"/>
       <c r="C8" s="52"/>
       <c r="D8" s="22" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
         <v>76</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="L8" s="22"/>
+        <v>215</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>506</v>
+      </c>
       <c r="M8" s="22" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -5160,30 +5409,32 @@
       <c r="B9" s="52"/>
       <c r="C9" s="52"/>
       <c r="D9" s="22" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
         <v>76</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="J9" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="K9" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="K9" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="L9" s="22"/>
+      <c r="L9" s="22" t="s">
+        <v>506</v>
+      </c>
       <c r="M9" s="22" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -5193,30 +5444,32 @@
       <c r="B10" s="52"/>
       <c r="C10" s="52"/>
       <c r="D10" s="22" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22" t="s">
         <v>76</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="J10" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="K10" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="K10" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="L10" s="22"/>
+      <c r="L10" s="22" t="s">
+        <v>506</v>
+      </c>
       <c r="M10" s="22" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -5225,10 +5478,10 @@
       </c>
       <c r="B11" s="52"/>
       <c r="C11" s="39" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
@@ -5241,17 +5494,19 @@
         <v>36</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="L11" s="22"/>
+        <v>247</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>496</v>
+      </c>
       <c r="M11" s="22" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -5260,7 +5515,7 @@
       </c>
       <c r="B12" s="52"/>
       <c r="C12" s="42" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D12" s="43" t="s">
         <v>54</v>
@@ -5272,7 +5527,7 @@
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="L12" s="34"/>
       <c r="M12" s="25" t="s">
@@ -5285,10 +5540,10 @@
       </c>
       <c r="B13" s="52"/>
       <c r="C13" s="51" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22" t="s">
@@ -5298,20 +5553,22 @@
         <v>35</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="L13" s="22"/>
+        <v>256</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>496</v>
+      </c>
       <c r="M13" s="22" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -5319,10 +5576,10 @@
         <v>54</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>54</v>
@@ -5345,7 +5602,7 @@
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="42" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D15" s="43" t="s">
         <v>54</v>
@@ -5357,7 +5614,7 @@
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
       <c r="K15" s="34" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="L15" s="34"/>
       <c r="M15" s="25" t="s">
@@ -5370,7 +5627,7 @@
       </c>
       <c r="B16" s="54"/>
       <c r="C16" s="44" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>54</v>
@@ -5392,10 +5649,10 @@
         <v>54</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D17" s="43" t="s">
         <v>54</v>
@@ -5407,7 +5664,7 @@
       <c r="I17" s="34"/>
       <c r="J17" s="34"/>
       <c r="K17" s="34" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="L17" s="34"/>
       <c r="M17" s="25" t="s">
@@ -5419,10 +5676,10 @@
         <v>54</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D18" s="43" t="s">
         <v>54</v>
@@ -5434,7 +5691,7 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="L18" s="20"/>
       <c r="M18" s="25" t="s">
@@ -5447,7 +5704,7 @@
       </c>
       <c r="B19" s="52"/>
       <c r="C19" s="44" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D19" s="43" t="s">
         <v>54</v>
@@ -5470,10 +5727,10 @@
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="54" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22" t="s">
@@ -5490,11 +5747,13 @@
         <v>38</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="L20" s="22"/>
+        <v>272</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>508</v>
+      </c>
       <c r="M20" s="22" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -5504,7 +5763,7 @@
       <c r="B21" s="52"/>
       <c r="C21" s="54"/>
       <c r="D21" s="22" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="22" t="s">
@@ -5521,11 +5780,13 @@
         <v>38</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="L21" s="22"/>
+        <v>272</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>508</v>
+      </c>
       <c r="M21" s="22" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -5534,7 +5795,7 @@
       </c>
       <c r="B22" s="52"/>
       <c r="C22" s="44" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D22" s="43" t="s">
         <v>54</v>
@@ -5546,7 +5807,7 @@
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="L22" s="20"/>
       <c r="M22" s="25" t="s">
@@ -5558,13 +5819,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="22" t="s">
@@ -5574,7 +5835,7 @@
         <v>35</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I23" s="22" t="s">
         <v>37</v>
@@ -5582,8 +5843,11 @@
       <c r="J23" s="22" t="s">
         <v>38</v>
       </c>
+      <c r="L23" s="22" t="s">
+        <v>508</v>
+      </c>
       <c r="M23" s="22" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -5592,10 +5856,10 @@
       </c>
       <c r="B24" s="52"/>
       <c r="C24" s="52" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="22" t="s">
@@ -5605,19 +5869,22 @@
         <v>17</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="J24" s="22" t="s">
         <v>43</v>
       </c>
       <c r="K24" t="s">
-        <v>295</v>
+        <v>285</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>506</v>
       </c>
       <c r="M24" s="22" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -5627,7 +5894,7 @@
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
       <c r="D25" s="22" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="22" t="s">
@@ -5637,18 +5904,20 @@
         <v>17</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="J25" s="22" t="s">
         <v>43</v>
       </c>
       <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
+      <c r="L25" s="22" t="s">
+        <v>496</v>
+      </c>
       <c r="M25" s="22" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -5658,7 +5927,7 @@
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
       <c r="D26" s="22" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22" t="s">
@@ -5669,17 +5938,19 @@
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="J26" s="22" t="s">
         <v>43</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="L26" s="22"/>
+        <v>290</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>496</v>
+      </c>
       <c r="M26" s="22" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -5688,10 +5959,10 @@
       </c>
       <c r="B27" s="52"/>
       <c r="C27" s="40" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22" t="s">
@@ -5708,11 +5979,13 @@
         <v>38</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="L27" s="22"/>
+        <v>235</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>508</v>
+      </c>
       <c r="M27" s="22" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -5721,7 +5994,7 @@
       </c>
       <c r="B28" s="52"/>
       <c r="C28" s="42" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D28" s="43" t="s">
         <v>54</v>
@@ -5744,10 +6017,10 @@
       </c>
       <c r="B29" s="52"/>
       <c r="C29" s="52" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="22" t="s">
@@ -5757,7 +6030,7 @@
         <v>35</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I29" s="22" t="s">
         <v>37</v>
@@ -5766,11 +6039,13 @@
         <v>38</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="L29" s="22"/>
+        <v>298</v>
+      </c>
+      <c r="L29" s="22" t="s">
+        <v>496</v>
+      </c>
       <c r="M29" s="22" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -5780,7 +6055,7 @@
       <c r="B30" s="52"/>
       <c r="C30" s="52"/>
       <c r="D30" s="22" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="22" t="s">
@@ -5790,7 +6065,7 @@
         <v>35</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I30" s="22" t="s">
         <v>37</v>
@@ -5799,9 +6074,11 @@
         <v>38</v>
       </c>
       <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
+      <c r="L30" s="22" t="s">
+        <v>496</v>
+      </c>
       <c r="M30" s="22" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -5811,7 +6088,7 @@
       <c r="B31" s="52"/>
       <c r="C31" s="52"/>
       <c r="D31" s="22" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="22" t="s">
@@ -5821,7 +6098,7 @@
         <v>35</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I31" s="22" t="s">
         <v>37</v>
@@ -5830,9 +6107,11 @@
         <v>38</v>
       </c>
       <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
+      <c r="L31" s="22" t="s">
+        <v>509</v>
+      </c>
       <c r="M31" s="22" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -5841,7 +6120,7 @@
       </c>
       <c r="B32" s="52"/>
       <c r="C32" s="38" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D32" s="43" t="s">
         <v>54</v>
@@ -5853,9 +6132,11 @@
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
       <c r="K32" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="L32" s="20"/>
+        <v>303</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>510</v>
+      </c>
       <c r="M32" s="25" t="s">
         <v>54</v>
       </c>
@@ -5865,10 +6146,10 @@
         <v>54</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D33" s="43" t="s">
         <v>54</v>
@@ -5914,8 +6195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345648BA-9C58-4148-8A4E-841344F5CF5C}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5923,14 +6204,14 @@
     <col min="1" max="1" width="8.88671875" style="31"/>
     <col min="2" max="2" width="23.33203125" style="29" customWidth="1"/>
     <col min="3" max="3" width="37.88671875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="52.44140625" customWidth="1"/>
+    <col min="4" max="4" width="46.88671875" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" customWidth="1"/>
     <col min="8" max="8" width="6.88671875" customWidth="1"/>
     <col min="9" max="9" width="7.5546875" customWidth="1"/>
     <col min="10" max="10" width="7.33203125" customWidth="1"/>
-    <col min="11" max="11" width="70.33203125" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="54.109375" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5980,13 +6261,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22" t="s">
@@ -5999,17 +6280,19 @@
         <v>77</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="L2" s="22"/>
+        <v>311</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>506</v>
+      </c>
       <c r="M2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -6018,10 +6301,10 @@
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="28" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
@@ -6034,16 +6317,19 @@
         <v>77</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="K3" t="s">
-        <v>326</v>
+        <v>316</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>506</v>
       </c>
       <c r="M3" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -6051,10 +6337,10 @@
         <v>54</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>54</v>
@@ -6066,7 +6352,7 @@
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
       <c r="K4" s="34" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="L4" s="34"/>
     </row>
@@ -6076,7 +6362,7 @@
       </c>
       <c r="B5" s="55"/>
       <c r="C5" s="35" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>54</v>
@@ -6096,7 +6382,7 @@
       </c>
       <c r="B6" s="55"/>
       <c r="C6" s="35" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>54</v>
@@ -6108,7 +6394,7 @@
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
       <c r="K6" s="34" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="L6" s="34"/>
     </row>
@@ -6118,7 +6404,7 @@
       </c>
       <c r="B7" s="55"/>
       <c r="C7" s="35" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>54</v>
@@ -6130,7 +6416,7 @@
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
       <c r="K7" s="34" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="L7" s="34"/>
     </row>
@@ -6139,17 +6425,17 @@
         <v>2</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>35</v>
@@ -6158,17 +6444,17 @@
         <v>26</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="L8" s="22"/>
+        <v>329</v>
+      </c>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22" t="s">
+        <v>496</v>
+      </c>
       <c r="M8" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -6176,10 +6462,10 @@
         <v>54</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>54</v>
@@ -6191,7 +6477,7 @@
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
       <c r="K9" s="34" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="L9" s="34"/>
     </row>
@@ -6200,13 +6486,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30" t="s">
@@ -6225,9 +6511,11 @@
         <v>20</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
+      <c r="L10" s="30" t="s">
+        <v>511</v>
+      </c>
       <c r="M10" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -6235,13 +6523,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
@@ -6260,10 +6548,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>352</v>
+        <v>341</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>512</v>
       </c>
       <c r="M11" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -6272,10 +6563,10 @@
       </c>
       <c r="B12" s="52"/>
       <c r="C12" s="28" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22" t="s">
@@ -6294,16 +6585,18 @@
         <v>20</v>
       </c>
       <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="L12" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="M12" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="B13" s="52"/>
       <c r="C13" s="42" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>54</v>
@@ -6315,7 +6608,7 @@
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
       <c r="K13" s="34" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
@@ -6326,10 +6619,10 @@
       </c>
       <c r="B14" s="52"/>
       <c r="C14" s="52" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22" t="s">
@@ -6339,7 +6632,7 @@
         <v>17</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>67</v>
@@ -6348,9 +6641,11 @@
         <v>68</v>
       </c>
       <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
+      <c r="L14" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="M14" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -6360,7 +6655,7 @@
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
       <c r="D15" s="22" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22" t="s">
@@ -6370,7 +6665,7 @@
         <v>17</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>67</v>
@@ -6379,9 +6674,11 @@
         <v>68</v>
       </c>
       <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
+      <c r="L15" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="M15" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -6390,7 +6687,7 @@
       </c>
       <c r="B16" s="52"/>
       <c r="C16" s="35" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>54</v>
@@ -6402,19 +6699,21 @@
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
       <c r="K16" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="L16" s="34"/>
+        <v>355</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D17" s="48" t="s">
         <v>54</v>
@@ -6426,7 +6725,7 @@
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
       <c r="K17" s="48" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="L17" s="35"/>
       <c r="M17" s="35"/>
@@ -6451,9 +6750,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB29AFA-0DDE-5049-B8DC-113E6F66B101}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6463,8 +6762,8 @@
     <col min="3" max="3" width="29" style="29" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="10" max="10" width="69.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="58.109375" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" customWidth="1"/>
     <col min="12" max="12" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6511,10 +6810,10 @@
         <v>54</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
@@ -6525,7 +6824,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
       <c r="J2" s="20" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
@@ -6536,7 +6835,7 @@
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="38" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
@@ -6556,7 +6855,7 @@
       </c>
       <c r="B4" s="54"/>
       <c r="C4" s="38" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="D4" t="s">
         <v>54</v>
@@ -6576,7 +6875,7 @@
       </c>
       <c r="B5" s="54"/>
       <c r="C5" s="38" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D5" t="s">
         <v>54</v>
@@ -6596,10 +6895,10 @@
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="54" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="D6" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -6608,7 +6907,7 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H6" t="s">
         <v>37</v>
@@ -6617,11 +6916,13 @@
         <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>378</v>
-      </c>
-      <c r="K6"/>
+        <v>367</v>
+      </c>
+      <c r="K6" t="s">
+        <v>515</v>
+      </c>
       <c r="L6" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6631,7 +6932,7 @@
       <c r="B7" s="54"/>
       <c r="C7" s="54"/>
       <c r="D7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -6640,7 +6941,7 @@
         <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H7" t="s">
         <v>37</v>
@@ -6649,11 +6950,13 @@
         <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>378</v>
-      </c>
-      <c r="K7"/>
+        <v>367</v>
+      </c>
+      <c r="K7" t="s">
+        <v>515</v>
+      </c>
       <c r="L7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6662,7 +6965,7 @@
       </c>
       <c r="B8" s="54"/>
       <c r="C8" s="38" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
@@ -6673,7 +6976,7 @@
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
@@ -6684,7 +6987,7 @@
       </c>
       <c r="B9" s="54"/>
       <c r="C9" s="38" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
@@ -6695,7 +6998,7 @@
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -6705,13 +7008,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D10" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -6720,7 +7023,7 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H10" t="s">
         <v>19</v>
@@ -6729,11 +7032,13 @@
         <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>387</v>
-      </c>
-      <c r="K10"/>
+        <v>376</v>
+      </c>
+      <c r="K10" t="s">
+        <v>516</v>
+      </c>
       <c r="L10" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6742,10 +7047,10 @@
       </c>
       <c r="B11" s="54"/>
       <c r="C11" s="29" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="D11" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -6754,7 +7059,7 @@
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
@@ -6763,9 +7068,11 @@
         <v>20</v>
       </c>
       <c r="J11"/>
-      <c r="K11"/>
+      <c r="K11" t="s">
+        <v>517</v>
+      </c>
       <c r="L11" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6774,10 +7081,10 @@
       </c>
       <c r="B12" s="54"/>
       <c r="C12" s="29" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="D12" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -6786,7 +7093,7 @@
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H12" t="s">
         <v>19</v>
@@ -6795,9 +7102,11 @@
         <v>20</v>
       </c>
       <c r="J12"/>
-      <c r="K12"/>
+      <c r="K12" t="s">
+        <v>518</v>
+      </c>
       <c r="L12" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6806,7 +7115,7 @@
       </c>
       <c r="B13" s="54"/>
       <c r="C13" s="38" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -6817,7 +7126,7 @@
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
@@ -6827,10 +7136,10 @@
         <v>54</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>54</v>
@@ -6850,13 +7159,13 @@
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="54" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="D15" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -6870,12 +7179,12 @@
       <c r="I15" t="s">
         <v>20</v>
       </c>
-      <c r="J15" t="s">
-        <v>401</v>
-      </c>
-      <c r="K15"/>
+      <c r="J15"/>
+      <c r="K15" t="s">
+        <v>496</v>
+      </c>
       <c r="L15" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6885,10 +7194,10 @@
       <c r="B16" s="54"/>
       <c r="C16" s="54"/>
       <c r="D16" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -6902,12 +7211,12 @@
       <c r="I16" t="s">
         <v>20</v>
       </c>
-      <c r="J16" t="s">
-        <v>401</v>
-      </c>
-      <c r="K16"/>
+      <c r="J16"/>
+      <c r="K16" t="s">
+        <v>496</v>
+      </c>
       <c r="L16" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6917,10 +7226,10 @@
       <c r="B17" s="54"/>
       <c r="C17" s="54"/>
       <c r="D17" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -6934,12 +7243,12 @@
       <c r="I17" t="s">
         <v>20</v>
       </c>
-      <c r="J17" t="s">
-        <v>401</v>
-      </c>
-      <c r="K17"/>
+      <c r="J17"/>
+      <c r="K17" t="s">
+        <v>496</v>
+      </c>
       <c r="L17" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6948,7 +7257,7 @@
       </c>
       <c r="B18" s="54"/>
       <c r="C18" s="38" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>54</v>
@@ -6967,13 +7276,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D19" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
@@ -6982,7 +7291,7 @@
         <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H19" t="s">
         <v>37</v>
@@ -6991,9 +7300,11 @@
         <v>38</v>
       </c>
       <c r="J19"/>
-      <c r="K19"/>
+      <c r="K19" t="s">
+        <v>519</v>
+      </c>
       <c r="L19" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7003,7 +7314,7 @@
       <c r="B20" s="54"/>
       <c r="C20" s="54"/>
       <c r="D20" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -7012,7 +7323,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H20" t="s">
         <v>37</v>
@@ -7021,9 +7332,11 @@
         <v>38</v>
       </c>
       <c r="J20"/>
-      <c r="K20"/>
+      <c r="K20" t="s">
+        <v>519</v>
+      </c>
       <c r="L20" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7032,7 +7345,7 @@
       </c>
       <c r="B21" s="54"/>
       <c r="C21" s="38" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>54</v>
@@ -7043,7 +7356,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
       <c r="J21" s="20" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
@@ -7054,7 +7367,7 @@
       </c>
       <c r="B22" s="54"/>
       <c r="C22" s="38" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>54</v>
@@ -7065,7 +7378,7 @@
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
@@ -7076,7 +7389,7 @@
       </c>
       <c r="B23" s="54"/>
       <c r="C23" s="38" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>54</v>
@@ -7087,7 +7400,7 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
@@ -7098,7 +7411,7 @@
       </c>
       <c r="B24" s="54"/>
       <c r="C24" s="38" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>54</v>
@@ -7109,7 +7422,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" s="20" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
@@ -7120,7 +7433,7 @@
       </c>
       <c r="B25" s="54"/>
       <c r="C25" s="38" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>54</v>
@@ -7131,9 +7444,11 @@
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="K25" s="20"/>
+        <v>408</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>520</v>
+      </c>
       <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7141,13 +7456,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="D26" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
@@ -7156,7 +7471,7 @@
         <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H26" t="s">
         <v>37</v>
@@ -7165,11 +7480,13 @@
         <v>38</v>
       </c>
       <c r="J26" t="s">
-        <v>424</v>
-      </c>
-      <c r="K26"/>
+        <v>412</v>
+      </c>
+      <c r="K26" t="s">
+        <v>521</v>
+      </c>
       <c r="L26" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7179,7 +7496,7 @@
       <c r="B27" s="54"/>
       <c r="C27" s="54"/>
       <c r="D27" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -7188,7 +7505,7 @@
         <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H27" t="s">
         <v>37</v>
@@ -7197,11 +7514,13 @@
         <v>38</v>
       </c>
       <c r="J27" t="s">
-        <v>424</v>
-      </c>
-      <c r="K27"/>
+        <v>412</v>
+      </c>
+      <c r="K27" t="s">
+        <v>521</v>
+      </c>
       <c r="L27" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7210,7 +7529,7 @@
       </c>
       <c r="B28" s="54"/>
       <c r="C28" s="38" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="D28" t="s">
         <v>54</v>
@@ -7230,7 +7549,7 @@
       </c>
       <c r="B29" s="54"/>
       <c r="C29" s="38" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="D29" t="s">
         <v>54</v>
@@ -7241,7 +7560,7 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
@@ -7252,15 +7571,15 @@
       </c>
       <c r="B30" s="54"/>
       <c r="C30" s="29" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="D30" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H30" t="s">
         <v>42</v>
@@ -7269,11 +7588,13 @@
         <v>43</v>
       </c>
       <c r="J30" t="s">
-        <v>433</v>
-      </c>
-      <c r="K30"/>
+        <v>421</v>
+      </c>
+      <c r="K30" t="s">
+        <v>522</v>
+      </c>
       <c r="L30" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -7348,8 +7669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514DD47A-AE44-4647-A357-A220BC698A77}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7360,18 +7681,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B2" s="59"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B3" s="61"/>
     </row>
@@ -7381,13 +7702,13 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="B5" s="61"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="56" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="B6" s="57"/>
     </row>
@@ -7397,13 +7718,13 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B8" s="61"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B9" s="57"/>
     </row>
@@ -7413,13 +7734,13 @@
     </row>
     <row r="11" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="64" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="B11" s="65"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="66" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B12" s="61"/>
     </row>
@@ -7429,36 +7750,36 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B14" s="61"/>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="62" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B15" s="63"/>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>447</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -7466,7 +7787,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -7474,7 +7795,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -7482,7 +7803,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -7490,7 +7811,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -7498,15 +7819,15 @@
         <v>7</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -7514,23 +7835,23 @@
         <v>0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -7539,16 +7860,16 @@
     </row>
     <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -7556,25 +7877,25 @@
         <v>54</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -7647,13 +7968,13 @@
         <v>6</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>8</v>
@@ -7667,7 +7988,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -7679,32 +8000,32 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="C3" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="J3" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="C4" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -7713,10 +8034,10 @@
         <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="J4" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -7724,7 +8045,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -7735,27 +8056,27 @@
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="C6" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="J6" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="C7" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -7764,7 +8085,7 @@
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
@@ -7775,71 +8096,71 @@
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="C8" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="J8" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B9" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="H9" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B10" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="H10" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B11" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="G11" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="G12" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B13" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="G13" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/2_clean/secondary_metrics.xlsx
+++ b/2_clean/secondary_metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/swalshda_uvm_edu/Documents/Food Systems Research Center/Sustainability Metrics/Sustainability Metrics Manuscript/Metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="235" documentId="13_ncr:1_{A8DF1908-CE30-4112-84EC-9B98DA2512CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E680F50-79C8-4955-8B36-A7F59753DCF6}"/>
+  <xr:revisionPtr revIDLastSave="363" documentId="13_ncr:1_{A8DF1908-CE30-4112-84EC-9B98DA2512CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6B0EA4E-CA92-4F97-B225-6E96FDB76634}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1860" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Economics" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="554">
   <si>
     <t>quality</t>
   </si>
@@ -152,9 +152,6 @@
     <t>wealth/income distribution</t>
   </si>
   <si>
-    <t>Gender pay gap</t>
-  </si>
-  <si>
     <t>annual</t>
   </si>
   <si>
@@ -167,12 +164,6 @@
     <t>https://www.countyhealthrankings.org/health-data/methodology-and-sources/data-documentation</t>
   </si>
   <si>
-    <t>rework this from source. Consider reworking with income distribution in food business</t>
-  </si>
-  <si>
-    <t>genderPayGap</t>
-  </si>
-  <si>
     <t>Gini Index</t>
   </si>
   <si>
@@ -248,30 +239,12 @@
     <t>operations diversification</t>
   </si>
   <si>
-    <t>Agritourism, sales as a percent of all farm sales</t>
-  </si>
-  <si>
     <t>U.S. Department of Agriculture, National Agricultural Statistical Survey, Census of Agriculture</t>
   </si>
   <si>
     <t>https://www.nass.usda.gov/datasets/</t>
   </si>
   <si>
-    <t>agTourSalesPerc</t>
-  </si>
-  <si>
-    <t>Farms, direct-to-consumer sales as a percent of all farm sales</t>
-  </si>
-  <si>
-    <t>d2cSalesPerc</t>
-  </si>
-  <si>
-    <t>Farms, local marketing channel sales as a percent of all farm sales</t>
-  </si>
-  <si>
-    <t>localSalesPerc</t>
-  </si>
-  <si>
     <t>use of ag/farm/crop insurance</t>
   </si>
   <si>
@@ -1097,21 +1070,9 @@
     <t>value added market</t>
   </si>
   <si>
-    <t>Farms, percent of all farms with value-added sales</t>
-  </si>
-  <si>
     <t>gdp from ag?</t>
   </si>
   <si>
-    <t>valueAddedFarmsPerc</t>
-  </si>
-  <si>
-    <t>Farms, value-added sales as a percent of all farm sales</t>
-  </si>
-  <si>
-    <t>valueAddedSalesPerc</t>
-  </si>
-  <si>
     <t>yield</t>
   </si>
   <si>
@@ -1562,9 +1523,6 @@
     <t>to do - wrangle this from NASS</t>
   </si>
   <si>
-    <t>in progress - switch these to NASS from FAME (Chris)</t>
-  </si>
-  <si>
     <t>to do - get new dataset, leads from Gillian</t>
   </si>
   <si>
@@ -1673,10 +1631,85 @@
     <t>where we're at with data wrangling</t>
   </si>
   <si>
-    <t>in progress (Chris) - switching to forest carbon dataset</t>
-  </si>
-  <si>
     <t>This is tabular data pulled from API, but they also have rasters and vectors</t>
+  </si>
+  <si>
+    <t>to do - pull from NASS</t>
+  </si>
+  <si>
+    <t>only have one year wrangled currently, out of ~3 every 4 years or so. But it is a humungous hassle to deal with this, variables change over the years, and it is still only at state level. Ditching this for now?</t>
+  </si>
+  <si>
+    <t>done, but probably ditch? Maybe just pick one</t>
+  </si>
+  <si>
+    <t>More recent data than TreeMap, but unclear on updates</t>
+  </si>
+  <si>
+    <t>need new dataset - see state datasets that are coming in. Consider buffers around riparian areas?</t>
+  </si>
+  <si>
+    <t>Social capital</t>
+  </si>
+  <si>
+    <t>to do - check out FDA recalls</t>
+  </si>
+  <si>
+    <t>need new dataset, perhaps iNaturalist, eBird, other leads from Gillian</t>
+  </si>
+  <si>
+    <t>incomeAgTourismRecPropTotal</t>
+  </si>
+  <si>
+    <t>Income from agritourism and recreation</t>
+  </si>
+  <si>
+    <t>Income from agritourism and recreation as a proportion of total income.</t>
+  </si>
+  <si>
+    <t>Sales from value-added retail</t>
+  </si>
+  <si>
+    <t>Sales from value-added, direct marketed retail as a proportion of total sales</t>
+  </si>
+  <si>
+    <t>salesValueAddedDirectPropTotal</t>
+  </si>
+  <si>
+    <t>incomeCropAnimalInsurancePropTotal</t>
+  </si>
+  <si>
+    <t>Income from crop and animal insurance</t>
+  </si>
+  <si>
+    <t>Income from crop and animal insurance payments as a proportion of total income</t>
+  </si>
+  <si>
+    <t>Sales from value-added direct marketed products</t>
+  </si>
+  <si>
+    <t>Sales from value-added wholesale products</t>
+  </si>
+  <si>
+    <t>Proportion of commodity sales through direct-marketing channels to total commodity sales</t>
+  </si>
+  <si>
+    <t>Proportion of commodity sales through wholesale channels to total commodity sales</t>
+  </si>
+  <si>
+    <t>salesValueAddedWholesalePropTotal</t>
+  </si>
+  <si>
+    <t>fuelExpensePropTotalExpense</t>
+  </si>
+  <si>
+    <t>Fuel expenses</t>
+  </si>
+  <si>
+    <t>Fuel and lubricant expenses as a proportion of total expenses</t>
+  </si>
+  <si>
+    <t>done, unless we want source, but UW is better than source somehow</t>
   </si>
 </sst>
 </file>
@@ -1987,7 +2020,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2118,18 +2151,12 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2138,8 +2165,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2608,10 +2638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D1AE80-3BFB-3B41-8518-A67336181549}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2699,7 +2729,7 @@
       </c>
       <c r="K2" s="22"/>
       <c r="L2" s="22" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M2" s="22" t="s">
         <v>21</v>
@@ -2734,7 +2764,7 @@
         <v>23</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M3" s="22" t="s">
         <v>24</v>
@@ -2769,7 +2799,7 @@
         <v>27</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>29</v>
@@ -2804,7 +2834,7 @@
         <v>27</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="M5" s="22" t="s">
         <v>31</v>
@@ -2821,32 +2851,32 @@
         <v>33</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="22" t="s">
-        <v>36</v>
-      </c>
       <c r="I6" s="22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -2856,29 +2886,29 @@
       <c r="B7" s="52"/>
       <c r="C7" s="53"/>
       <c r="D7" s="22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="22" t="s">
-        <v>42</v>
-      </c>
       <c r="J7" s="22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K7" s="22" t="s">
         <v>44</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M7" s="22" t="s">
         <v>45</v>
@@ -2891,141 +2921,139 @@
       <c r="B8" s="52"/>
       <c r="C8" s="53"/>
       <c r="D8" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="22"/>
+        <v>472</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>489</v>
+      </c>
       <c r="F8" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>47</v>
+        <v>473</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>48</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="24">
+        <v>3</v>
+      </c>
       <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
+      <c r="C9" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="D9" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>502</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>253</v>
+        <v>35</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>486</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="K9" s="22"/>
       <c r="L9" s="22" t="s">
-        <v>501</v>
-      </c>
-      <c r="M9" s="22"/>
+        <v>483</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <v>3</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="28" t="s">
+      <c r="B10" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="22" t="s">
+      <c r="C10" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>491</v>
+      <c r="D10" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>3</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="35" t="s">
+      <c r="B11" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="C11" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34" t="s">
+      <c r="D11" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34" t="s">
-        <v>54</v>
-      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>3</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="22" t="s">
         <v>56</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>58</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22" t="s">
@@ -3035,7 +3063,7 @@
         <v>17</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>19</v>
@@ -3045,9 +3073,11 @@
       </c>
       <c r="K12" s="22"/>
       <c r="L12" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="M12" s="22"/>
+        <v>483</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
@@ -3056,75 +3086,67 @@
       <c r="B13" s="52"/>
       <c r="C13" s="52"/>
       <c r="D13" s="22" t="s">
-        <v>59</v>
+        <v>476</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="K13" s="22"/>
       <c r="L13" s="22" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>61</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
-        <v>3</v>
+      <c r="A14" s="33" t="s">
+        <v>51</v>
       </c>
       <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="22" t="s">
-        <v>489</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>490</v>
+      <c r="C14" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B15" s="52"/>
       <c r="C15" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="34"/>
@@ -3133,36 +3155,48 @@
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
       <c r="K15" s="34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L15" s="34"/>
       <c r="M15" s="34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
-        <v>54</v>
+      <c r="A16" s="24">
+        <v>3</v>
       </c>
       <c r="B16" s="52"/>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34" t="s">
-        <v>54</v>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -3170,13 +3204,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="52"/>
-      <c r="C17" s="52" t="s">
-        <v>65</v>
-      </c>
+      <c r="C17" s="52"/>
       <c r="D17" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="22"/>
+        <v>539</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>540</v>
+      </c>
       <c r="F17" s="22" t="s">
         <v>16</v>
       </c>
@@ -3184,86 +3218,92 @@
         <v>17</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K17" s="22"/>
       <c r="L17" s="22" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>69</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
-        <v>3</v>
+      <c r="A18" s="23">
+        <v>2</v>
       </c>
       <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
+      <c r="C18" s="52" t="s">
+        <v>65</v>
+      </c>
       <c r="D18" s="22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="K18" s="22"/>
+        <v>70</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="L18" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="M18" s="22" t="s">
-        <v>71</v>
+        <v>491</v>
+      </c>
+      <c r="M18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
-        <v>3</v>
+      <c r="A19" s="23">
+        <v>2</v>
       </c>
       <c r="B19" s="52"/>
       <c r="C19" s="52"/>
       <c r="D19" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="22" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="K19" s="22"/>
+        <v>70</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="L19" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="M19" s="22" t="s">
-        <v>73</v>
+        <v>491</v>
+      </c>
+      <c r="M19" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -3271,36 +3311,34 @@
         <v>2</v>
       </c>
       <c r="B20" s="52"/>
-      <c r="C20" s="52" t="s">
-        <v>74</v>
-      </c>
+      <c r="C20" s="52"/>
       <c r="D20" s="22" t="s">
         <v>75</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="M20" t="s">
         <v>76</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="M20" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -3310,32 +3348,32 @@
       <c r="B21" s="52"/>
       <c r="C21" s="52"/>
       <c r="D21" s="22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I21" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="M21" t="s">
         <v>78</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="M21" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -3345,32 +3383,32 @@
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
       <c r="D22" s="22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K22" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="M22" t="s">
         <v>80</v>
-      </c>
-      <c r="L22" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="M22" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -3380,32 +3418,32 @@
       <c r="B23" s="52"/>
       <c r="C23" s="52"/>
       <c r="D23" s="22" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="M23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -3415,116 +3453,106 @@
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
       <c r="D24" s="22" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="M24" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="23">
-        <v>2</v>
+      <c r="A25" s="24">
+        <v>3</v>
       </c>
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
       <c r="D25" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="22"/>
+        <v>543</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>544</v>
+      </c>
       <c r="F25" s="22" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="G25" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="22" t="s">
-        <v>77</v>
-      </c>
       <c r="I25" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>80</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K25" s="22"/>
       <c r="L25" s="22" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="M25" t="s">
-        <v>91</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="23">
-        <v>2</v>
-      </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="L26" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="M26" t="s">
-        <v>93</v>
+      <c r="A26" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="52" t="s">
-        <v>94</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B27" s="52"/>
       <c r="C27" s="35" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="34"/>
@@ -3533,63 +3561,38 @@
       <c r="I27" s="34"/>
       <c r="J27" s="34"/>
       <c r="K27" s="34" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="L27" s="34"/>
       <c r="M27" s="34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="52"/>
+        <v>51</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="C28" s="35" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="34"/>
-      <c r="K28" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="L28" s="34"/>
+      <c r="K28" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="L28" s="20"/>
       <c r="M28" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="L29" s="20"/>
-      <c r="M29" s="34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3598,24 +3601,24 @@
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M29">
-    <sortCondition ref="B2:B29"/>
-    <sortCondition ref="C2:C29"/>
-    <sortCondition ref="D2:D29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M28">
+    <sortCondition ref="B2:B28"/>
+    <sortCondition ref="C2:C28"/>
+    <sortCondition ref="D2:D28"/>
   </sortState>
   <dataConsolidate/>
   <mergeCells count="9">
-    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B12:B26"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B11:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B9"/>
   </mergeCells>
-  <conditionalFormatting sqref="M20:M26">
+  <conditionalFormatting sqref="M18:M25">
     <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
@@ -3627,10 +3630,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802AE4B4-391E-474A-9621-08E11B188749}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3640,7 +3643,8 @@
     <col min="4" max="4" width="36.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="69.6640625" customWidth="1"/>
-    <col min="12" max="13" width="28.109375" customWidth="1"/>
+    <col min="12" max="12" width="31.88671875" customWidth="1"/>
+    <col min="13" max="13" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -3689,38 +3693,38 @@
         <v>3</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -3730,29 +3734,29 @@
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="L3" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -3762,29 +3766,29 @@
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="L4" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -3794,29 +3798,29 @@
       <c r="B5" s="52"/>
       <c r="C5" s="52"/>
       <c r="D5" s="22" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="L5" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -3825,35 +3829,35 @@
       </c>
       <c r="B6" s="52"/>
       <c r="C6" s="52" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -3863,32 +3867,32 @@
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="22" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -3898,32 +3902,32 @@
       <c r="B8" s="52"/>
       <c r="C8" s="52"/>
       <c r="D8" s="22" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -3933,32 +3937,32 @@
       <c r="B9" s="52"/>
       <c r="C9" s="52"/>
       <c r="D9" s="22" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -3967,33 +3971,33 @@
       </c>
       <c r="B10" s="52"/>
       <c r="C10" s="52" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I10" s="22" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -4003,30 +4007,30 @@
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
       <c r="D11" s="22" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -4036,30 +4040,30 @@
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
       <c r="D12" s="22" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G12" s="22" t="s">
         <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="22" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -4069,106 +4073,102 @@
       <c r="B13" s="52"/>
       <c r="C13" s="52"/>
       <c r="D13" s="22" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G13" s="22" t="s">
         <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>2</v>
       </c>
-      <c r="B14" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>129</v>
-      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="22" t="s">
-        <v>536</v>
-      </c>
-      <c r="E14" s="22"/>
+        <v>551</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>552</v>
+      </c>
       <c r="F14" s="22" t="s">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>525</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>104</v>
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>110</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>526</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>527</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>528</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
       <c r="L14" s="22" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="26">
-        <v>1</v>
-      </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52" t="s">
-        <v>130</v>
+      <c r="A15" s="23">
+        <v>2</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>120</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>131</v>
+        <v>522</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>114</v>
+        <v>511</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>115</v>
+        <v>512</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>116</v>
+        <v>513</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>132</v>
+        <v>514</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>541</v>
+        <v>483</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>133</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -4176,34 +4176,36 @@
         <v>1</v>
       </c>
       <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
+      <c r="C16" s="52" t="s">
+        <v>121</v>
+      </c>
       <c r="D16" s="22" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -4213,32 +4215,32 @@
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
       <c r="D17" s="22" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -4248,32 +4250,32 @@
       <c r="B18" s="52"/>
       <c r="C18" s="52"/>
       <c r="D18" s="22" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -4283,141 +4285,141 @@
       <c r="B19" s="52"/>
       <c r="C19" s="52"/>
       <c r="D19" s="22" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
-        <v>2</v>
+      <c r="A20" s="26">
+        <v>1</v>
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
       <c r="D20" s="22" t="s">
-        <v>539</v>
+        <v>131</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22" t="s">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>525</v>
+        <v>105</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>526</v>
+        <v>106</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>527</v>
+        <v>107</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>528</v>
+        <v>123</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>496</v>
+        <v>530</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>538</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>2</v>
       </c>
-      <c r="B21" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>143</v>
-      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="22" t="s">
-        <v>144</v>
+        <v>525</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="22" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="G21" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="H21" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="22" t="s">
-        <v>36</v>
-      </c>
       <c r="I21" s="22" t="s">
-        <v>145</v>
+        <v>512</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>146</v>
+        <v>513</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>147</v>
+        <v>514</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="M21" t="s">
-        <v>148</v>
+        <v>483</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>2</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
+      <c r="B22" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="D22" s="22" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G22" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="22" t="s">
-        <v>36</v>
-      </c>
       <c r="I22" s="22" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>497</v>
+        <v>535</v>
       </c>
       <c r="M22" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -4427,32 +4429,32 @@
       <c r="B23" s="52"/>
       <c r="C23" s="52"/>
       <c r="D23" s="22" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G23" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="22" t="s">
-        <v>36</v>
-      </c>
       <c r="I23" s="22" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>497</v>
+        <v>535</v>
       </c>
       <c r="M23" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -4462,32 +4464,32 @@
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
       <c r="D24" s="22" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G24" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="22" t="s">
-        <v>36</v>
-      </c>
       <c r="I24" s="22" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>497</v>
+        <v>535</v>
       </c>
       <c r="M24" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -4497,30 +4499,32 @@
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
       <c r="D25" s="22" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G25" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="22"/>
       <c r="I25" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="M25" t="s">
         <v>145</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="M25" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -4530,30 +4534,30 @@
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
       <c r="D26" s="22" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K26" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="M26" t="s">
         <v>147</v>
-      </c>
-      <c r="L26" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="M26" s="22" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -4563,30 +4567,30 @@
       <c r="B27" s="52"/>
       <c r="C27" s="52"/>
       <c r="D27" s="22" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>497</v>
+        <v>535</v>
       </c>
       <c r="M27" s="22" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -4596,30 +4600,30 @@
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
       <c r="D28" s="22" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="22" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>497</v>
+        <v>535</v>
       </c>
       <c r="M28" s="22" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -4627,36 +4631,32 @@
         <v>2</v>
       </c>
       <c r="B29" s="52"/>
-      <c r="C29" s="28" t="s">
-        <v>163</v>
-      </c>
+      <c r="C29" s="52"/>
       <c r="D29" s="22" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="22" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H29" s="22"/>
       <c r="I29" s="22" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>496</v>
+        <v>535</v>
       </c>
       <c r="M29" s="22" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -4665,105 +4665,109 @@
       </c>
       <c r="B30" s="52"/>
       <c r="C30" s="28" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="22" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="G30" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="22" t="s">
-        <v>36</v>
-      </c>
       <c r="I30" s="22" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="M30" s="22" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="26">
-        <v>1</v>
-      </c>
-      <c r="B31" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>175</v>
+      <c r="A31" s="23">
+        <v>2</v>
+      </c>
+      <c r="B31" s="52"/>
+      <c r="C31" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="22"/>
+        <v>34</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="I31" s="22" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="M31" s="22" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="26">
         <v>1</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
+      <c r="B32" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>166</v>
+      </c>
       <c r="D32" s="22" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G32" s="22" t="s">
         <v>17</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="22" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>497</v>
+        <v>532</v>
       </c>
       <c r="M32" s="22" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -4773,170 +4777,169 @@
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
       <c r="D33" s="22" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G33" s="22" t="s">
         <v>17</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="22" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>497</v>
+        <v>532</v>
       </c>
       <c r="M33" s="22" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="23">
-        <v>2</v>
+      <c r="A34" s="26">
+        <v>1</v>
       </c>
       <c r="B34" s="52"/>
-      <c r="C34" s="52" t="s">
-        <v>185</v>
-      </c>
+      <c r="C34" s="52"/>
       <c r="D34" s="22" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="22" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>104</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H34" s="22"/>
       <c r="I34" s="22" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="M34" s="22"/>
+        <v>532</v>
+      </c>
+      <c r="M34" s="22" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>2</v>
       </c>
       <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
+      <c r="C35" s="52" t="s">
+        <v>176</v>
+      </c>
       <c r="D35" s="22" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="22" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>542</v>
+        <v>181</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="M35" s="22" t="s">
-        <v>195</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="M35" s="22"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>2</v>
       </c>
-      <c r="B36" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>197</v>
-      </c>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
       <c r="D36" s="22" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="E36" s="22"/>
-      <c r="F36" t="s">
-        <v>199</v>
+      <c r="F36" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36" t="s">
-        <v>201</v>
-      </c>
-      <c r="J36" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="K36" t="s">
-        <v>203</v>
+        <v>35</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>527</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>499</v>
+        <v>483</v>
+      </c>
+      <c r="M36" s="22" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>2</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54" t="s">
-        <v>204</v>
+      <c r="B37" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>188</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H37" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I37" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="J37" s="50" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="K37" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -4944,31 +4947,33 @@
         <v>2</v>
       </c>
       <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
+      <c r="C38" s="54" t="s">
+        <v>195</v>
+      </c>
       <c r="D38" s="22" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" t="s">
-        <v>199</v>
-      </c>
-      <c r="G38" t="s">
-        <v>200</v>
+        <v>190</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="H38" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I38" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="J38" s="50" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="K38" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -4978,29 +4983,29 @@
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
       <c r="D39" s="22" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G39" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H39" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I39" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="J39" s="50" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="K39" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -5008,33 +5013,31 @@
         <v>2</v>
       </c>
       <c r="B40" s="54"/>
-      <c r="C40" s="54" t="s">
-        <v>208</v>
-      </c>
+      <c r="C40" s="54"/>
       <c r="D40" s="22" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G40" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H40" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I40" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="J40" s="50" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="K40" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -5042,57 +5045,91 @@
         <v>2</v>
       </c>
       <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
+      <c r="C41" s="54" t="s">
+        <v>199</v>
+      </c>
       <c r="D41" s="22" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E41" s="22"/>
       <c r="F41" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G41" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H41" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I41" t="s">
+        <v>192</v>
+      </c>
+      <c r="J41" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="K41" t="s">
+        <v>194</v>
+      </c>
+      <c r="L41" s="22" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="23">
+        <v>2</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="J41" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="K41" t="s">
-        <v>203</v>
-      </c>
-      <c r="L41" s="22" t="s">
-        <v>499</v>
+      <c r="E42" s="22"/>
+      <c r="F42" t="s">
+        <v>190</v>
+      </c>
+      <c r="G42" t="s">
+        <v>191</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" t="s">
+        <v>192</v>
+      </c>
+      <c r="J42" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="K42" t="s">
+        <v>194</v>
+      </c>
+      <c r="L42" s="22" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="B21:B30"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="B31:B35"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C32:C34"/>
     <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="B32:B36"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J36" r:id="rId1" xr:uid="{3D79DC03-4AD8-4138-BA78-16543353E812}"/>
-    <hyperlink ref="J38" r:id="rId2" xr:uid="{2C5D8387-C3E7-4558-8512-24776549ECBC}"/>
-    <hyperlink ref="J40" r:id="rId3" xr:uid="{74409AF7-44EC-4DDA-94CE-5CFE6B6EF45D}"/>
-    <hyperlink ref="J41" r:id="rId4" xr:uid="{C809E76F-A449-46AC-8602-30F16878D60F}"/>
-    <hyperlink ref="J37" r:id="rId5" xr:uid="{E454A5A6-3A9A-4343-AB97-574D153141D3}"/>
-    <hyperlink ref="J39" r:id="rId6" xr:uid="{A9860B9E-3E33-44F9-9771-16C1931572D4}"/>
+    <hyperlink ref="J37" r:id="rId1" xr:uid="{3D79DC03-4AD8-4138-BA78-16543353E812}"/>
+    <hyperlink ref="J39" r:id="rId2" xr:uid="{2C5D8387-C3E7-4558-8512-24776549ECBC}"/>
+    <hyperlink ref="J41" r:id="rId3" xr:uid="{74409AF7-44EC-4DDA-94CE-5CFE6B6EF45D}"/>
+    <hyperlink ref="J42" r:id="rId4" xr:uid="{C809E76F-A449-46AC-8602-30F16878D60F}"/>
+    <hyperlink ref="J38" r:id="rId5" xr:uid="{E454A5A6-3A9A-4343-AB97-574D153141D3}"/>
+    <hyperlink ref="J40" r:id="rId6" xr:uid="{A9860B9E-3E33-44F9-9771-16C1931572D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5102,9 +5139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F95016-FFA1-D04E-AB0C-5DF6EE3EB4E3}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5164,13 +5201,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22" t="s">
@@ -5180,22 +5217,22 @@
         <v>17</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -5205,7 +5242,7 @@
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
@@ -5215,22 +5252,22 @@
         <v>17</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -5238,38 +5275,38 @@
         <v>2</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -5278,10 +5315,10 @@
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="42" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E5" s="43"/>
       <c r="F5" s="34"/>
@@ -5290,11 +5327,11 @@
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
       <c r="K5" s="34" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="L5" s="34"/>
       <c r="M5" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -5303,10 +5340,10 @@
       </c>
       <c r="B6" s="52"/>
       <c r="C6" s="52" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22" t="s">
@@ -5316,22 +5353,22 @@
         <v>17</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -5341,30 +5378,30 @@
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="22" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="22" t="s">
-        <v>38</v>
-      </c>
       <c r="K7" s="22" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -5374,32 +5411,32 @@
       <c r="B8" s="52"/>
       <c r="C8" s="52"/>
       <c r="D8" s="22" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -5409,32 +5446,32 @@
       <c r="B9" s="52"/>
       <c r="C9" s="52"/>
       <c r="D9" s="22" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -5444,32 +5481,32 @@
       <c r="B10" s="52"/>
       <c r="C10" s="52"/>
       <c r="D10" s="22" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -5478,47 +5515,47 @@
       </c>
       <c r="B11" s="52"/>
       <c r="C11" s="39" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="22" t="s">
-        <v>36</v>
-      </c>
       <c r="I11" s="22" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B12" s="52"/>
       <c r="C12" s="42" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="34"/>
@@ -5527,11 +5564,11 @@
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="L12" s="34"/>
       <c r="M12" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5540,49 +5577,49 @@
       </c>
       <c r="B13" s="52"/>
       <c r="C13" s="51" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="20"/>
@@ -5593,19 +5630,19 @@
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="42" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E15" s="43"/>
       <c r="F15" s="34"/>
@@ -5614,23 +5651,23 @@
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
       <c r="K15" s="34" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="L15" s="34"/>
       <c r="M15" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" s="54"/>
       <c r="C16" s="44" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E16" s="43"/>
       <c r="F16" s="20"/>
@@ -5641,21 +5678,21 @@
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
       <c r="M16" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E17" s="43"/>
       <c r="F17" s="34"/>
@@ -5664,25 +5701,25 @@
       <c r="I17" s="34"/>
       <c r="J17" s="34"/>
       <c r="K17" s="34" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="L17" s="34"/>
       <c r="M17" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E18" s="43"/>
       <c r="F18" s="20"/>
@@ -5691,23 +5728,23 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="L18" s="20"/>
       <c r="M18" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B19" s="52"/>
       <c r="C19" s="44" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E19" s="43"/>
       <c r="F19" s="20"/>
@@ -5718,7 +5755,7 @@
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
       <c r="M19" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -5727,33 +5764,33 @@
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="54" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="22" t="s">
-        <v>38</v>
-      </c>
       <c r="K20" s="22" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -5763,42 +5800,42 @@
       <c r="B21" s="52"/>
       <c r="C21" s="54"/>
       <c r="D21" s="22" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="22" t="s">
-        <v>38</v>
-      </c>
       <c r="K21" s="22" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B22" s="52"/>
       <c r="C22" s="44" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E22" s="43"/>
       <c r="F22" s="20"/>
@@ -5807,11 +5844,11 @@
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="L22" s="20"/>
       <c r="M22" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -5819,35 +5856,35 @@
         <v>3</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="I23" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J23" s="22" t="s">
-        <v>38</v>
-      </c>
       <c r="L23" s="22" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -5856,10 +5893,10 @@
       </c>
       <c r="B24" s="52"/>
       <c r="C24" s="52" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="22" t="s">
@@ -5869,22 +5906,22 @@
         <v>17</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="M24" s="22" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -5894,7 +5931,7 @@
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
       <c r="D25" s="22" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="22" t="s">
@@ -5904,20 +5941,20 @@
         <v>17</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K25" s="22"/>
       <c r="L25" s="22" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M25" s="22" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -5927,7 +5964,7 @@
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
       <c r="D26" s="22" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22" t="s">
@@ -5938,66 +5975,66 @@
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M26" s="22" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B27" s="52"/>
       <c r="C27" s="40" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J27" s="22" t="s">
-        <v>38</v>
-      </c>
       <c r="K27" s="22" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="M27" s="22" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B28" s="52"/>
       <c r="C28" s="42" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="34"/>
@@ -6008,7 +6045,7 @@
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
       <c r="M28" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -6017,35 +6054,35 @@
       </c>
       <c r="B29" s="52"/>
       <c r="C29" s="52" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="I29" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J29" s="22" t="s">
-        <v>38</v>
-      </c>
       <c r="K29" s="22" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M29" s="22" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -6055,30 +6092,30 @@
       <c r="B30" s="52"/>
       <c r="C30" s="52"/>
       <c r="D30" s="22" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="I30" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>38</v>
       </c>
       <c r="K30" s="22"/>
       <c r="L30" s="22" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M30" s="22" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -6088,42 +6125,42 @@
       <c r="B31" s="52"/>
       <c r="C31" s="52"/>
       <c r="D31" s="22" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="I31" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="J31" s="22" t="s">
-        <v>38</v>
       </c>
       <c r="K31" s="22"/>
       <c r="L31" s="22" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="M31" s="22" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B32" s="52"/>
       <c r="C32" s="38" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E32" s="43"/>
       <c r="F32" s="20"/>
@@ -6132,27 +6169,27 @@
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
       <c r="K32" s="20" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="L32" s="20" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="M32" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="34"/>
@@ -6163,7 +6200,7 @@
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
       <c r="M33" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -6175,16 +6212,16 @@
     </sortState>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="B23:B32"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C20:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6261,38 +6298,38 @@
         <v>3</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="M2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -6301,49 +6338,49 @@
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="28" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K3" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="M3" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
@@ -6352,20 +6389,22 @@
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
       <c r="K4" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="L4" s="34"/>
+        <v>311</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="5" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B5" s="55"/>
       <c r="C5" s="35" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
@@ -6378,14 +6417,14 @@
     </row>
     <row r="6" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B6" s="55"/>
       <c r="C6" s="35" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
@@ -6394,20 +6433,19 @@
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
       <c r="K6" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="L6" s="34"/>
+        <v>314</v>
+      </c>
     </row>
     <row r="7" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" s="55"/>
       <c r="C7" s="35" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -6416,59 +6454,61 @@
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
       <c r="K7" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="L7" s="34"/>
+        <v>314</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>2</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="K8" s="22"/>
       <c r="L8" s="22" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M8" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
@@ -6477,7 +6517,7 @@
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
       <c r="K9" s="34" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="L9" s="34"/>
     </row>
@@ -6486,13 +6526,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30" t="s">
@@ -6502,7 +6542,7 @@
         <v>17</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I10" s="22" t="s">
         <v>19</v>
@@ -6512,10 +6552,10 @@
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="30" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="M10" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -6523,13 +6563,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
@@ -6539,7 +6579,7 @@
         <v>17</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>19</v>
@@ -6548,13 +6588,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="M11" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -6563,10 +6603,10 @@
       </c>
       <c r="B12" s="52"/>
       <c r="C12" s="28" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22" t="s">
@@ -6576,7 +6616,7 @@
         <v>17</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>19</v>
@@ -6586,20 +6626,20 @@
       </c>
       <c r="K12" s="22"/>
       <c r="L12" s="22" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="M12" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="B13" s="52"/>
       <c r="C13" s="42" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
@@ -6608,7 +6648,7 @@
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
       <c r="K13" s="34" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
@@ -6619,12 +6659,14 @@
       </c>
       <c r="B14" s="52"/>
       <c r="C14" s="52" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="E14" s="22"/>
+        <v>545</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>547</v>
+      </c>
       <c r="F14" s="22" t="s">
         <v>16</v>
       </c>
@@ -6632,20 +6674,20 @@
         <v>17</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K14" s="22"/>
       <c r="L14" s="22" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="M14" t="s">
-        <v>351</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -6655,9 +6697,11 @@
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
       <c r="D15" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="E15" s="22"/>
+        <v>546</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>548</v>
+      </c>
       <c r="F15" s="22" t="s">
         <v>16</v>
       </c>
@@ -6665,32 +6709,32 @@
         <v>17</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K15" s="22"/>
       <c r="L15" s="22" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="M15" t="s">
-        <v>353</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" s="52"/>
       <c r="C16" s="35" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
@@ -6699,24 +6743,24 @@
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
       <c r="K16" s="34" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="L16" s="34" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="35"/>
@@ -6725,7 +6769,7 @@
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
       <c r="K17" s="48" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="L17" s="35"/>
       <c r="M17" s="35"/>
@@ -6748,11 +6792,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB29AFA-0DDE-5049-B8DC-113E6F66B101}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6807,16 +6851,16 @@
     </row>
     <row r="2" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
@@ -6824,21 +6868,21 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
       <c r="J2" s="20" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="38" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -6851,14 +6895,14 @@
     </row>
     <row r="4" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="54"/>
       <c r="C4" s="38" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -6871,14 +6915,14 @@
     </row>
     <row r="5" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B5" s="54"/>
       <c r="C5" s="38" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
@@ -6895,34 +6939,34 @@
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="54" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D6" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
         <v>37</v>
       </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
       <c r="J6" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="K6" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="L6" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6932,65 +6976,61 @@
       <c r="B7" s="54"/>
       <c r="C7" s="54"/>
       <c r="D7" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
         <v>37</v>
       </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
       <c r="J7" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="K7" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="L7" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>54</v>
+      <c r="A8">
+        <v>2</v>
       </c>
       <c r="B8" s="54"/>
-      <c r="C8" s="38" t="s">
-        <v>371</v>
-      </c>
+      <c r="C8" s="54"/>
       <c r="D8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
+        <v>533</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
     </row>
     <row r="9" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B9" s="54"/>
       <c r="C9" s="38" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -6998,68 +7038,54 @@
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
     </row>
     <row r="10" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>373</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>374</v>
+      <c r="A10" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="38" t="s">
+        <v>359</v>
       </c>
       <c r="D10" t="s">
-        <v>375</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>253</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>376</v>
-      </c>
-      <c r="K10" t="s">
-        <v>516</v>
-      </c>
-      <c r="L10" t="s">
-        <v>377</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" s="54"/>
+        <v>2</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>360</v>
+      </c>
       <c r="C11" s="29" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="D11" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
@@ -7067,12 +7093,14 @@
       <c r="I11" t="s">
         <v>20</v>
       </c>
-      <c r="J11"/>
+      <c r="J11" t="s">
+        <v>363</v>
+      </c>
       <c r="K11" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="L11" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7081,10 +7109,10 @@
       </c>
       <c r="B12" s="54"/>
       <c r="C12" s="29" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="D12" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -7093,7 +7121,7 @@
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="H12" t="s">
         <v>19</v>
@@ -7103,98 +7131,100 @@
       </c>
       <c r="J12"/>
       <c r="K12" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="L12" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
-        <v>54</v>
+      <c r="A13">
+        <v>3</v>
       </c>
       <c r="B13" s="54"/>
-      <c r="C13" s="38" t="s">
-        <v>384</v>
+      <c r="C13" s="29" t="s">
+        <v>368</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
+        <v>369</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>244</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13" t="s">
+        <v>504</v>
+      </c>
+      <c r="L13" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="14" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="54" t="s">
-        <v>386</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="J14" s="20" t="s">
+        <v>372</v>
+      </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54" t="s">
-        <v>388</v>
-      </c>
-      <c r="D15" t="s">
-        <v>389</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15"/>
-      <c r="K15" t="s">
-        <v>496</v>
-      </c>
-      <c r="L15" t="s">
-        <v>390</v>
-      </c>
+      <c r="A15" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>373</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
     </row>
     <row r="16" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
+      <c r="C16" s="54" t="s">
+        <v>375</v>
+      </c>
       <c r="D16" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -7213,10 +7243,10 @@
       </c>
       <c r="J16"/>
       <c r="K16" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="L16" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7226,7 +7256,7 @@
       <c r="B17" s="54"/>
       <c r="C17" s="54"/>
       <c r="D17" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
@@ -7245,10 +7275,10 @@
       </c>
       <c r="J17"/>
       <c r="K17" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="L17" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7256,121 +7286,131 @@
         <v>2</v>
       </c>
       <c r="B18" s="54"/>
-      <c r="C18" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="C18" s="54"/>
+      <c r="D18" t="s">
+        <v>380</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18" t="s">
+        <v>483</v>
+      </c>
+      <c r="L18" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="19" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>396</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>397</v>
-      </c>
-      <c r="D19" t="s">
-        <v>398</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" t="s">
-        <v>253</v>
-      </c>
-      <c r="H19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19"/>
-      <c r="K19" t="s">
-        <v>519</v>
-      </c>
-      <c r="L19" t="s">
-        <v>399</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
+      <c r="B20" s="54" t="s">
+        <v>383</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>384</v>
+      </c>
       <c r="D20" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s">
         <v>37</v>
-      </c>
-      <c r="I20" t="s">
-        <v>38</v>
       </c>
       <c r="J20"/>
       <c r="K20" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="L20" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
-        <v>54</v>
+      <c r="A21">
+        <v>1</v>
       </c>
       <c r="B21" s="54"/>
-      <c r="C21" s="38" t="s">
-        <v>402</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
+      <c r="C21" s="54"/>
+      <c r="D21" t="s">
+        <v>387</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>244</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21" t="s">
+        <v>505</v>
+      </c>
+      <c r="L21" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="22" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B22" s="54"/>
       <c r="C22" s="38" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
@@ -7378,21 +7418,21 @@
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
     </row>
     <row r="23" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B23" s="54"/>
       <c r="C23" s="38" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
@@ -7400,21 +7440,21 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
     </row>
     <row r="24" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B24" s="54"/>
       <c r="C24" s="38" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
@@ -7422,21 +7462,21 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" s="20" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
     </row>
     <row r="25" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B25" s="54"/>
       <c r="C25" s="38" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
@@ -7444,174 +7484,196 @@
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="K25" s="20" t="s">
-        <v>520</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="K25" s="20"/>
       <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>410</v>
-      </c>
-      <c r="D26" t="s">
-        <v>411</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>253</v>
-      </c>
-      <c r="H26" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J26" t="s">
-        <v>412</v>
-      </c>
-      <c r="K26" t="s">
-        <v>521</v>
-      </c>
-      <c r="L26" t="s">
-        <v>413</v>
-      </c>
+      <c r="A26" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="L26" s="20"/>
     </row>
     <row r="27" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
+      <c r="B27" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>397</v>
+      </c>
       <c r="D27" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="H27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s">
         <v>37</v>
       </c>
-      <c r="I27" t="s">
-        <v>38</v>
-      </c>
       <c r="J27" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="K27" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="L27" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33" t="s">
-        <v>54</v>
+      <c r="A28">
+        <v>1</v>
       </c>
       <c r="B28" s="54"/>
-      <c r="C28" s="38" t="s">
-        <v>416</v>
-      </c>
+      <c r="C28" s="54"/>
       <c r="D28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
+        <v>401</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s">
+        <v>244</v>
+      </c>
+      <c r="H28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" t="s">
+        <v>399</v>
+      </c>
+      <c r="K28" t="s">
+        <v>507</v>
+      </c>
+      <c r="L28" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="29" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B29" s="54"/>
       <c r="C29" s="38" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
-      <c r="J29" s="20" t="s">
-        <v>418</v>
-      </c>
+      <c r="J29" s="20"/>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
     </row>
     <row r="30" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20">
+      <c r="A30" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20">
         <v>2</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="29" t="s">
-        <v>419</v>
-      </c>
-      <c r="D30" t="s">
-        <v>420</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30" t="s">
-        <v>253</v>
-      </c>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" t="s">
-        <v>43</v>
-      </c>
-      <c r="J30" t="s">
-        <v>421</v>
-      </c>
-      <c r="K30" t="s">
-        <v>522</v>
-      </c>
-      <c r="L30" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="D31" t="s">
+        <v>407</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31" t="s">
+        <v>244</v>
+      </c>
+      <c r="H31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" t="s">
+        <v>408</v>
+      </c>
+      <c r="K31" t="s">
+        <v>508</v>
+      </c>
+      <c r="L31" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{9FB29AFA-0DDE-5049-B8DC-113E6F66B101}"/>
   <mergeCells count="9">
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <conditionalFormatting sqref="A1">
     <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
@@ -7630,7 +7692,7 @@
       <formula>"rework"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A7 A10:A12 A15:A20 A26:A27 A30">
+  <conditionalFormatting sqref="A6:A8 A11:A13 A16:A21 A27:A28 A31">
     <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -7641,22 +7703,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D13">
+  <conditionalFormatting sqref="D1:D14">
     <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D30">
+  <conditionalFormatting sqref="D16:D31">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7 E22:E23">
+  <conditionalFormatting sqref="E7:E8 E23:E24">
     <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L13 C14:L14 L15:L17 L19:L30">
+  <conditionalFormatting sqref="L2:L14 C15:L15 L16:L18 L20:L31">
     <cfRule type="cellIs" dxfId="9" priority="21" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
@@ -7681,88 +7743,88 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
-        <v>424</v>
-      </c>
-      <c r="B2" s="59"/>
+      <c r="A2" s="66" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" s="67"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
-        <v>425</v>
-      </c>
-      <c r="B3" s="61"/>
+      <c r="A3" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="B3" s="57"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="61"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="60" t="s">
-        <v>426</v>
-      </c>
-      <c r="B5" s="61"/>
+      <c r="A5" s="56" t="s">
+        <v>413</v>
+      </c>
+      <c r="B5" s="57"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
-        <v>427</v>
-      </c>
-      <c r="B6" s="57"/>
+      <c r="A6" s="60" t="s">
+        <v>414</v>
+      </c>
+      <c r="B6" s="61"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="56"/>
-      <c r="B7" s="57"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="60" t="s">
-        <v>428</v>
-      </c>
-      <c r="B8" s="61"/>
+      <c r="A8" s="56" t="s">
+        <v>415</v>
+      </c>
+      <c r="B8" s="57"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="B9" s="57"/>
+      <c r="A9" s="60" t="s">
+        <v>416</v>
+      </c>
+      <c r="B9" s="61"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="61"/>
     </row>
     <row r="11" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="64" t="s">
-        <v>430</v>
-      </c>
-      <c r="B11" s="65"/>
+      <c r="A11" s="62" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" s="63"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="66" t="s">
-        <v>431</v>
-      </c>
-      <c r="B12" s="61"/>
+      <c r="A12" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="B12" s="57"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="67"/>
-      <c r="B13" s="61"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="57"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="60" t="s">
-        <v>432</v>
-      </c>
-      <c r="B14" s="61"/>
+      <c r="A14" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" s="57"/>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="62" t="s">
-        <v>433</v>
-      </c>
-      <c r="B15" s="63"/>
+      <c r="A15" s="58" t="s">
+        <v>420</v>
+      </c>
+      <c r="B15" s="59"/>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="B17" s="2"/>
     </row>
@@ -7771,15 +7833,15 @@
         <v>11</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -7787,7 +7849,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -7795,7 +7857,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -7803,7 +7865,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -7811,7 +7873,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -7819,15 +7881,15 @@
         <v>7</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -7835,23 +7897,23 @@
         <v>0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -7860,42 +7922,42 @@
     </row>
     <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -7903,6 +7965,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A8:B8"/>
@@ -7911,12 +7979,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{A59DB292-A126-46C8-AAB0-2FF5AD1DDD57}"/>
@@ -7934,7 +7996,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7968,13 +8030,13 @@
         <v>6</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>8</v>
@@ -7988,56 +8050,56 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C3" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="J3" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="C4" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="J4" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -8045,38 +8107,38 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="J6" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C7" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -8085,7 +8147,7 @@
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
@@ -8096,71 +8158,71 @@
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C8" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="J8" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="B9" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="H9" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="B10" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="H10" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="B11" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="G11" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="G12" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="B13" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="G13" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/2_clean/secondary_metrics.xlsx
+++ b/2_clean/secondary_metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/swalshda_uvm_edu/Documents/Food Systems Research Center/Sustainability Metrics/Sustainability Metrics Manuscript/Metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1127" documentId="13_ncr:1_{A8DF1908-CE30-4112-84EC-9B98DA2512CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F58EBAFA-D5C5-40C4-BD94-94D77806D574}"/>
+  <xr:revisionPtr revIDLastSave="1236" documentId="13_ncr:1_{A8DF1908-CE30-4112-84EC-9B98DA2512CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20DA56E3-342B-4836-B382-C1C123BDF8C2}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14592" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1860" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Economics" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Economics!$A$1:$O$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Health!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Social!$A$1:$O$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">utilities!$A$1:$I$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">utilities!$A$1:$I$26</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="592">
   <si>
     <t>quality</t>
   </si>
@@ -260,9 +260,6 @@
     <t>diversity of farm types</t>
   </si>
   <si>
-    <t>What does this mean in relation to value from rural landscape? We can get production variety from NASS, but more categorical distinctions might be farm level only</t>
-  </si>
-  <si>
     <t>carbon, ghg, nutrients</t>
   </si>
   <si>
@@ -467,9 +464,6 @@
     <t>https://www.prism.oregonstate.edu/recent/</t>
   </si>
   <si>
-    <t>Not sure if this is necessary. Could use SPEI?</t>
-  </si>
-  <si>
     <t>Weeks of extreme drought</t>
   </si>
   <si>
@@ -737,9 +731,6 @@
     <t>Median housing age</t>
   </si>
   <si>
-    <t>housing stock? Maybe population</t>
-  </si>
-  <si>
     <t>Liberties - more than just infrastructure</t>
   </si>
   <si>
@@ -959,9 +950,6 @@
     <t>Disconnected youth</t>
   </si>
   <si>
-    <t>See Rupasingha 2006 - BLS lists establishments by NAICS code, weight by population</t>
-  </si>
-  <si>
     <t>disconnectedYouth</t>
   </si>
   <si>
@@ -1271,12 +1259,6 @@
     <t>done</t>
   </si>
   <si>
-    <t>need new dataset</t>
-  </si>
-  <si>
-    <t>to do - get SSURGO or other dataset</t>
-  </si>
-  <si>
     <t>to do - rework as distribution or diversity index</t>
   </si>
   <si>
@@ -1292,9 +1274,6 @@
     <t>done unless better dataset</t>
   </si>
   <si>
-    <t>in progress (Chris) - get this from source instead of FAME</t>
-  </si>
-  <si>
     <t>done unless we want source rather than UW</t>
   </si>
   <si>
@@ -1304,9 +1283,6 @@
     <t>to do - pull from cdc eph or elsewhere. But eph data is very spotty.</t>
   </si>
   <si>
-    <t>need a plan here</t>
-  </si>
-  <si>
     <t>done unless we want source instead of UW - but UW is cleaner</t>
   </si>
   <si>
@@ -1382,9 +1358,6 @@
     <t>only have one year wrangled currently, out of ~3 every 4 years or so. But it is a humungous hassle to deal with this, variables change over the years, and it is still only at state level. Ditching this for now?</t>
   </si>
   <si>
-    <t>done, but probably ditch? Maybe just pick one</t>
-  </si>
-  <si>
     <t>More recent data than TreeMap, but unclear on updates</t>
   </si>
   <si>
@@ -1631,9 +1604,6 @@
     <t>lower? Ideally not needed, but if needed, ideally used</t>
   </si>
   <si>
-    <t>done but hinky</t>
-  </si>
-  <si>
     <t>higher?</t>
   </si>
   <si>
@@ -1667,9 +1637,6 @@
     <t>to do - check UW variables</t>
   </si>
   <si>
-    <t>need new dataset - see state datasets Isabella pulled. Consider buffers around riparian areas?</t>
-  </si>
-  <si>
     <t>to do - check NASS for precision ag</t>
   </si>
   <si>
@@ -1754,9 +1721,6 @@
     <t>species and habitat</t>
   </si>
   <si>
-    <t>1-year sample is done. Need to adjust for bias. If we like it, expand to all years</t>
-  </si>
-  <si>
     <t>Total indemnities</t>
   </si>
   <si>
@@ -1784,9 +1748,6 @@
     <t>target? How to account for extreme events</t>
   </si>
   <si>
-    <t>done unless we want SPEI</t>
-  </si>
-  <si>
     <t>daily</t>
   </si>
   <si>
@@ -1800,6 +1761,69 @@
   </si>
   <si>
     <t>foodInsecurityRate</t>
+  </si>
+  <si>
+    <t>done, but probably ditch</t>
+  </si>
+  <si>
+    <t>done but hinky - figures don't line up</t>
+  </si>
+  <si>
+    <t>done, but probably ditch?</t>
+  </si>
+  <si>
+    <t>done unless we want SPEI instead</t>
+  </si>
+  <si>
+    <t>to do - get SSURGO data</t>
+  </si>
+  <si>
+    <t>1-year sample is done. Need to adjust for bias, possible filter by ag parcels. If we like it, expand to all years</t>
+  </si>
+  <si>
+    <t>get this from source instead of FAME</t>
+  </si>
+  <si>
+    <t>Housing stock</t>
+  </si>
+  <si>
+    <t>Housing Stock</t>
+  </si>
+  <si>
+    <t>For median housing age - see if we will use it</t>
+  </si>
+  <si>
+    <t>ACS1/ACS5</t>
+  </si>
+  <si>
+    <t>Farm to School Survey</t>
+  </si>
+  <si>
+    <t>Not terrible but state level only. Consider buffers around riparian areas?</t>
+  </si>
+  <si>
+    <t>See Rupasingha 2006, social capital index. BLS lists establishments by NAICS code, weight by population</t>
+  </si>
+  <si>
+    <t>to do - see if natural capital index would work</t>
+  </si>
+  <si>
+    <t>Either Shannon index on distribution of farm sizes from NASS or a certain skew/kurtosis of distribution?</t>
+  </si>
+  <si>
+    <t>rework as distribution, ditch this</t>
+  </si>
+  <si>
+    <t>population/sector if filtered to ag land?</t>
+  </si>
+  <si>
+    <t>What does this mean in relation to value from rural landscape? We can get production variety from NASS, but more categorical distinctions might be farm level only. Consider natural capital index to match index?</t>
+  </si>
+  <si>
+    <t>to do - check Chris P's modeling methods</t>
+  </si>
+  <si>
+    <t>check methods on this one</t>
   </si>
 </sst>
 </file>
@@ -2844,18 +2868,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D1AE80-3BFB-3B41-8518-A67336181549}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.44140625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="46" customWidth="1"/>
     <col min="3" max="3" width="34" style="46" customWidth="1"/>
-    <col min="4" max="4" width="30.21875" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="40.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" customWidth="1"/>
     <col min="11" max="11" width="17.109375" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="24.88671875" customWidth="1"/>
@@ -2877,7 +2902,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>4</v>
@@ -2892,7 +2917,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>8</v>
@@ -2924,7 +2949,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22" t="s">
@@ -2934,10 +2959,10 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>18</v>
@@ -2947,7 +2972,7 @@
       </c>
       <c r="M2" s="22"/>
       <c r="N2" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O2" s="22" t="s">
         <v>20</v>
@@ -2963,7 +2988,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22" t="s">
@@ -2973,10 +2998,10 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>18</v>
@@ -2988,7 +3013,7 @@
         <v>22</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O3" s="22" t="s">
         <v>23</v>
@@ -3004,7 +3029,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22" t="s">
@@ -3014,7 +3039,7 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="K4" s="22" t="s">
         <v>18</v>
@@ -3023,10 +3048,10 @@
         <v>19</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>25</v>
+        <v>587</v>
       </c>
       <c r="N4" s="52" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="O4" s="22" t="s">
         <v>26</v>
@@ -3042,7 +3067,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22" t="s">
@@ -3052,7 +3077,7 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>18</v>
@@ -3061,10 +3086,10 @@
         <v>19</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>25</v>
+        <v>587</v>
       </c>
       <c r="N5" s="52" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="O5" s="22" t="s">
         <v>28</v>
@@ -3077,16 +3102,18 @@
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
       <c r="D6" s="22" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>548</v>
-      </c>
-      <c r="F6" s="22"/>
+        <v>537</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>586</v>
+      </c>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="J6" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>18</v>
@@ -3098,7 +3125,7 @@
         <v>25</v>
       </c>
       <c r="N6" s="52" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="O6" s="22"/>
     </row>
@@ -3116,7 +3143,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>549</v>
+        <v>197</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22" t="s">
@@ -3126,10 +3153,10 @@
         <v>17</v>
       </c>
       <c r="I7" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="J7" s="22" t="s">
         <v>510</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>519</v>
       </c>
       <c r="K7" s="22" t="s">
         <v>36</v>
@@ -3141,7 +3168,7 @@
         <v>38</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O7" s="22" t="s">
         <v>39</v>
@@ -3157,7 +3184,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>549</v>
+        <v>197</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22" t="s">
@@ -3167,10 +3194,10 @@
         <v>31</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K8" s="22" t="s">
         <v>33</v>
@@ -3182,7 +3209,7 @@
         <v>41</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O8" s="22" t="s">
         <v>42</v>
@@ -3195,13 +3222,13 @@
       <c r="B9" s="55"/>
       <c r="C9" s="56"/>
       <c r="D9" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>16</v>
@@ -3210,10 +3237,10 @@
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>18</v>
@@ -3222,10 +3249,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="O9" s="22"/>
     </row>
@@ -3236,10 +3263,10 @@
       <c r="B10" s="55"/>
       <c r="C10" s="56"/>
       <c r="D10" s="22" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22" t="s">
@@ -3249,7 +3276,7 @@
         <v>31</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>44</v>
@@ -3259,10 +3286,10 @@
       </c>
       <c r="M10" s="22"/>
       <c r="N10" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -3274,10 +3301,10 @@
         <v>43</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22" t="s">
@@ -3290,7 +3317,7 @@
         <v>32</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>44</v>
@@ -3300,10 +3327,10 @@
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -3349,7 +3376,7 @@
         <v>52</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22" t="s">
@@ -3362,7 +3389,7 @@
         <v>32</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="K13" s="22" t="s">
         <v>18</v>
@@ -3372,7 +3399,7 @@
       </c>
       <c r="M13" s="22"/>
       <c r="N13" s="52" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="O13" s="22"/>
     </row>
@@ -3386,7 +3413,7 @@
         <v>53</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22" t="s">
@@ -3396,10 +3423,10 @@
         <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="K14" s="22" t="s">
         <v>18</v>
@@ -3409,7 +3436,7 @@
       </c>
       <c r="M14" s="22"/>
       <c r="N14" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O14" s="22" t="s">
         <v>55</v>
@@ -3422,10 +3449,10 @@
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
       <c r="D15" s="22" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22" t="s">
@@ -3438,7 +3465,7 @@
         <v>32</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K15" s="22" t="s">
         <v>44</v>
@@ -3448,10 +3475,10 @@
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -3517,13 +3544,13 @@
         <v>59</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>16</v>
@@ -3535,7 +3562,7 @@
         <v>32</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K18" s="22" t="s">
         <v>60</v>
@@ -3545,10 +3572,10 @@
       </c>
       <c r="M18" s="22"/>
       <c r="N18" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -3558,13 +3585,13 @@
       <c r="B19" s="55"/>
       <c r="C19" s="55"/>
       <c r="D19" s="22" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G19" s="22" t="s">
         <v>16</v>
@@ -3576,7 +3603,7 @@
         <v>32</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K19" s="22" t="s">
         <v>60</v>
@@ -3586,10 +3613,10 @@
       </c>
       <c r="M19" s="22"/>
       <c r="N19" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -3601,13 +3628,13 @@
         <v>62</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G20" s="22" t="s">
         <v>16</v>
@@ -3616,10 +3643,10 @@
         <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="K20" s="22" t="s">
         <v>60</v>
@@ -3629,10 +3656,10 @@
       </c>
       <c r="M20" s="22"/>
       <c r="N20" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O20" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -3642,13 +3669,13 @@
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
       <c r="D21" s="22" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>16</v>
@@ -3657,23 +3684,23 @@
         <v>31</v>
       </c>
       <c r="I21" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="M21" s="22"/>
       <c r="N21" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -3754,7 +3781,7 @@
       <c r="K24" s="20"/>
       <c r="L24" s="34"/>
       <c r="M24" s="20" t="s">
-        <v>70</v>
+        <v>589</v>
       </c>
       <c r="N24" s="20"/>
       <c r="O24" s="34" t="s">
@@ -3808,8 +3835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802AE4B4-391E-474A-9621-08E11B188749}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3840,7 +3867,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>4</v>
@@ -3855,7 +3882,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>8</v>
@@ -3878,16 +3905,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="D2" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="E2" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22" t="s">
@@ -3897,25 +3924,25 @@
         <v>31</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K2" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="22" t="s">
-        <v>75</v>
-      </c>
       <c r="M2" s="22" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -3925,10 +3952,10 @@
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22" t="s">
@@ -3938,25 +3965,25 @@
         <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K3" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="N3" t="s">
+        <v>407</v>
+      </c>
+      <c r="O3" s="22" t="s">
         <v>77</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="N3" t="s">
-        <v>413</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -3966,10 +3993,10 @@
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22" t="s">
@@ -3979,22 +4006,22 @@
         <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="N4" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -4004,10 +4031,10 @@
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
       <c r="D5" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22" t="s">
@@ -4017,25 +4044,25 @@
         <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="N5" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -4044,41 +4071,41 @@
       </c>
       <c r="B6" s="55"/>
       <c r="C6" s="55" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="I6" s="22" t="s">
         <v>32</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -4088,38 +4115,38 @@
       <c r="B7" s="55"/>
       <c r="C7" s="55"/>
       <c r="D7" s="22" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="I7" s="22" t="s">
         <v>32</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -4129,38 +4156,38 @@
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
       <c r="D8" s="22" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="I8" s="22" t="s">
         <v>32</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K8" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="O8" s="22" t="s">
         <v>427</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>469</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -4170,38 +4197,38 @@
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
       <c r="D9" s="22" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="I9" s="22" t="s">
         <v>32</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="L9" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="O9" s="22" t="s">
         <v>428</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -4210,13 +4237,13 @@
       </c>
       <c r="B10" s="55"/>
       <c r="C10" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>87</v>
-      </c>
       <c r="E10" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22" t="s">
@@ -4226,23 +4253,23 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="22"/>
       <c r="M10" s="22" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>406</v>
+        <v>571</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -4252,10 +4279,10 @@
       <c r="B11" s="55"/>
       <c r="C11" s="55"/>
       <c r="D11" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22" t="s">
@@ -4265,23 +4292,23 @@
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="22"/>
       <c r="M11" s="22" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>406</v>
+        <v>571</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -4291,10 +4318,10 @@
       <c r="B12" s="55"/>
       <c r="C12" s="55"/>
       <c r="D12" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22" t="s">
@@ -4304,23 +4331,23 @@
         <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K12" s="22" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="22"/>
       <c r="M12" s="22" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>406</v>
+        <v>571</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -4330,10 +4357,10 @@
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
       <c r="D13" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22" t="s">
@@ -4343,23 +4370,23 @@
         <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K13" s="22" t="s">
         <v>18</v>
       </c>
       <c r="L13" s="22"/>
       <c r="M13" s="22" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>406</v>
+        <v>571</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -4369,13 +4396,13 @@
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
       <c r="D14" s="22" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>16</v>
@@ -4384,21 +4411,21 @@
         <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K14" s="22" t="s">
         <v>18</v>
       </c>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
-      <c r="N14" s="22" t="s">
-        <v>527</v>
+      <c r="N14" s="53" t="s">
+        <v>572</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -4406,44 +4433,44 @@
         <v>2</v>
       </c>
       <c r="B15" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>96</v>
-      </c>
       <c r="D15" s="22" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -4452,39 +4479,39 @@
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>98</v>
-      </c>
       <c r="E16" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="L16" s="22" t="s">
-        <v>85</v>
-      </c>
       <c r="M16" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="O16" s="22" t="s">
         <v>99</v>
-      </c>
-      <c r="N16" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="O16" s="22" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -4494,36 +4521,36 @@
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
       <c r="D17" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22" t="s">
         <v>16</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="L17" s="22" t="s">
-        <v>85</v>
-      </c>
       <c r="M17" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>444</v>
+        <v>573</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -4533,38 +4560,38 @@
       <c r="B18" s="55"/>
       <c r="C18" s="55"/>
       <c r="D18" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="K18" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>528</v>
-      </c>
-      <c r="K18" s="22" t="s">
+      <c r="L18" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="L18" s="22" t="s">
-        <v>85</v>
-      </c>
       <c r="M18" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N18" s="22" t="s">
-        <v>444</v>
+        <v>573</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -4574,38 +4601,38 @@
       <c r="B19" s="55"/>
       <c r="C19" s="55"/>
       <c r="D19" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="K19" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="I19" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="K19" s="22" t="s">
+      <c r="L19" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="L19" s="22" t="s">
-        <v>85</v>
-      </c>
       <c r="M19" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N19" s="22" t="s">
-        <v>444</v>
+        <v>573</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -4615,38 +4642,38 @@
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
       <c r="D20" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="K20" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>528</v>
-      </c>
-      <c r="K20" s="22" t="s">
+      <c r="L20" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="L20" s="22" t="s">
-        <v>85</v>
-      </c>
       <c r="M20" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>444</v>
+        <v>573</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -4656,38 +4683,38 @@
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
       <c r="D21" s="22" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -4695,42 +4722,42 @@
         <v>2</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>199</v>
+        <v>588</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="L22" s="22"/>
       <c r="M22" s="22" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="N22" s="53" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="O22" s="22" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -4740,36 +4767,36 @@
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
       <c r="D23" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>199</v>
+        <v>588</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="L23" s="22"/>
       <c r="M23" s="22" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="N23" s="53" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="O23" s="22" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -4779,38 +4806,38 @@
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
       <c r="D24" s="22" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>199</v>
+        <v>588</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="L24" s="22"/>
       <c r="M24" s="22" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="N24" s="53" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -4820,38 +4847,38 @@
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
       <c r="D25" s="22" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>199</v>
+        <v>588</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="G25" s="22" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="L25" s="22"/>
       <c r="M25" s="22" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="N25" s="53" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="O25" s="22" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -4861,38 +4888,38 @@
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="22" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>199</v>
+        <v>588</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="G26" s="22" t="s">
         <v>16</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="L26" s="22"/>
       <c r="M26" s="22" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="N26" s="53" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -4902,38 +4929,38 @@
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
       <c r="D27" s="22" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>199</v>
+        <v>588</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="L27" s="22"/>
       <c r="M27" s="22" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="N27" s="53" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="O27" s="22" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -4942,41 +4969,41 @@
       </c>
       <c r="B28" s="55"/>
       <c r="C28" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>115</v>
-      </c>
       <c r="E28" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>31</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K28" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="L28" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="L28" s="22" t="s">
+      <c r="M28" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="M28" s="22" t="s">
+      <c r="N28" s="53" t="s">
+        <v>576</v>
+      </c>
+      <c r="O28" s="22" t="s">
         <v>119</v>
-      </c>
-      <c r="N28" s="53" t="s">
-        <v>568</v>
-      </c>
-      <c r="O28" s="22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -4985,13 +5012,13 @@
       </c>
       <c r="B29" s="55"/>
       <c r="C29" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>122</v>
-      </c>
       <c r="E29" s="22" t="s">
-        <v>199</v>
+        <v>588</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22" t="s">
@@ -5001,25 +5028,25 @@
         <v>31</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K29" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="L29" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="L29" s="22" t="s">
-        <v>111</v>
-      </c>
       <c r="M29" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="N29" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="O29" s="22" t="s">
         <v>123</v>
-      </c>
-      <c r="N29" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="O29" s="22" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -5027,16 +5054,16 @@
         <v>1</v>
       </c>
       <c r="B30" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="D30" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="E30" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22" t="s">
@@ -5047,22 +5074,22 @@
       </c>
       <c r="I30" s="22"/>
       <c r="J30" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K30" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="L30" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="L30" s="22" t="s">
+      <c r="M30" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="M30" s="22" t="s">
+      <c r="N30" s="53" t="s">
+        <v>583</v>
+      </c>
+      <c r="O30" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="N30" s="52" t="s">
-        <v>539</v>
-      </c>
-      <c r="O30" s="22" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -5072,10 +5099,10 @@
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
       <c r="D31" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22" t="s">
@@ -5086,22 +5113,22 @@
       </c>
       <c r="I31" s="22"/>
       <c r="J31" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K31" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="L31" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="L31" s="22" t="s">
+      <c r="M31" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="M31" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="N31" s="52" t="s">
-        <v>539</v>
+      <c r="N31" s="53" t="s">
+        <v>583</v>
       </c>
       <c r="O31" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -5111,10 +5138,10 @@
       <c r="B32" s="55"/>
       <c r="C32" s="55"/>
       <c r="D32" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22" t="s">
@@ -5125,22 +5152,22 @@
       </c>
       <c r="I32" s="22"/>
       <c r="J32" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K32" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="L32" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="L32" s="22" t="s">
+      <c r="M32" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="M32" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="N32" s="52" t="s">
-        <v>539</v>
+      <c r="N32" s="53" t="s">
+        <v>583</v>
       </c>
       <c r="O32" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -5149,43 +5176,41 @@
       </c>
       <c r="B33" s="55"/>
       <c r="C33" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="K33" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="L33" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="M33" s="22"/>
+      <c r="N33" s="54" t="s">
         <v>574</v>
       </c>
-      <c r="E33" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>575</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>576</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>579</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="J33" s="22" t="s">
-        <v>577</v>
-      </c>
-      <c r="K33" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="M33" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="N33" s="54" t="s">
-        <v>578</v>
-      </c>
       <c r="O33" s="22" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -5195,38 +5220,38 @@
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
       <c r="D34" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22" t="s">
         <v>16</v>
       </c>
       <c r="H34" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="L34" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="I34" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>519</v>
-      </c>
-      <c r="K34" s="22" t="s">
+      <c r="M34" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="N34" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="O34" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="L34" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="M34" s="22" t="s">
-        <v>442</v>
-      </c>
-      <c r="N34" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="O34" s="22" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -5234,41 +5259,41 @@
         <v>2</v>
       </c>
       <c r="B35" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C35" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>147</v>
-      </c>
       <c r="E35" s="22" t="s">
-        <v>199</v>
+        <v>588</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" t="s">
+        <v>146</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I35" t="s">
+        <v>485</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="K35" t="s">
         <v>148</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="L35" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="I35" t="s">
-        <v>494</v>
-      </c>
-      <c r="J35" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="M35" t="s">
         <v>150</v>
       </c>
-      <c r="L35" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="M35" t="s">
-        <v>152</v>
-      </c>
       <c r="N35" s="52" t="s">
-        <v>408</v>
+        <v>575</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -5277,38 +5302,38 @@
       </c>
       <c r="B36" s="57"/>
       <c r="C36" s="57" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>199</v>
+        <v>588</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" t="s">
+        <v>146</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I36" t="s">
+        <v>485</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="K36" t="s">
         <v>148</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="L36" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="I36" t="s">
-        <v>494</v>
-      </c>
-      <c r="J36" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="M36" t="s">
         <v>150</v>
       </c>
-      <c r="L36" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="M36" t="s">
-        <v>152</v>
-      </c>
       <c r="N36" s="52" t="s">
-        <v>408</v>
+        <v>575</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -5318,35 +5343,35 @@
       <c r="B37" s="57"/>
       <c r="C37" s="57"/>
       <c r="D37" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>199</v>
+        <v>588</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37" t="s">
+        <v>147</v>
+      </c>
+      <c r="I37" t="s">
+        <v>485</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="K37" t="s">
         <v>148</v>
       </c>
-      <c r="H37" t="s">
+      <c r="L37" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="I37" t="s">
-        <v>494</v>
-      </c>
-      <c r="J37" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="M37" t="s">
         <v>150</v>
       </c>
-      <c r="L37" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="M37" t="s">
-        <v>152</v>
-      </c>
       <c r="N37" s="52" t="s">
-        <v>408</v>
+        <v>575</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -5356,35 +5381,35 @@
       <c r="B38" s="57"/>
       <c r="C38" s="57"/>
       <c r="D38" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>199</v>
+        <v>588</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" t="s">
+        <v>146</v>
+      </c>
+      <c r="H38" t="s">
+        <v>147</v>
+      </c>
+      <c r="I38" t="s">
+        <v>485</v>
+      </c>
+      <c r="J38" t="s">
+        <v>508</v>
+      </c>
+      <c r="K38" t="s">
         <v>148</v>
       </c>
-      <c r="H38" t="s">
+      <c r="L38" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="I38" t="s">
-        <v>494</v>
-      </c>
-      <c r="J38" t="s">
-        <v>517</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="M38" t="s">
         <v>150</v>
       </c>
-      <c r="L38" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="M38" t="s">
-        <v>152</v>
-      </c>
       <c r="N38" s="52" t="s">
-        <v>408</v>
+        <v>575</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -5393,36 +5418,36 @@
       </c>
       <c r="B39" s="57"/>
       <c r="C39" s="57" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>199</v>
+        <v>588</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I39" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="J39" s="22"/>
       <c r="K39" t="s">
+        <v>148</v>
+      </c>
+      <c r="L39" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="M39" t="s">
         <v>150</v>
       </c>
-      <c r="L39" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="M39" t="s">
-        <v>152</v>
-      </c>
       <c r="N39" s="52" t="s">
-        <v>408</v>
+        <v>575</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -5432,33 +5457,33 @@
       <c r="B40" s="57"/>
       <c r="C40" s="57"/>
       <c r="D40" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>199</v>
+        <v>588</v>
       </c>
       <c r="F40" s="22"/>
       <c r="G40" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I40" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="J40" s="22"/>
       <c r="K40" t="s">
+        <v>148</v>
+      </c>
+      <c r="L40" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="M40" t="s">
         <v>150</v>
       </c>
-      <c r="L40" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="M40" t="s">
-        <v>152</v>
-      </c>
       <c r="N40" s="52" t="s">
-        <v>408</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -5509,15 +5534,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F95016-FFA1-D04E-AB0C-5DF6EE3EB4E3}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.88671875" customWidth="1"/>
     <col min="4" max="4" width="30.77734375" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
@@ -5541,7 +5566,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>4</v>
@@ -5556,7 +5581,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>8</v>
@@ -5579,16 +5604,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>162</v>
-      </c>
       <c r="E2" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22" t="s">
@@ -5598,25 +5623,25 @@
         <v>17</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L2" s="22" t="s">
         <v>37</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -5626,10 +5651,10 @@
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22" t="s">
@@ -5639,25 +5664,25 @@
         <v>17</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L3" s="22" t="s">
         <v>37</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -5665,44 +5690,44 @@
         <v>2</v>
       </c>
       <c r="B4" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>170</v>
-      </c>
       <c r="E4" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22" t="s">
         <v>63</v>
       </c>
       <c r="H4" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4" t="s">
+        <v>391</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="I4" t="s">
-        <v>395</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="K4" s="22" t="s">
+      <c r="M4" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="N4" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="O4" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -5711,7 +5736,7 @@
       </c>
       <c r="B5" s="55"/>
       <c r="C5" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D5" s="43" t="s">
         <v>48</v>
@@ -5725,7 +5750,7 @@
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
       <c r="M5" s="34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N5" s="34"/>
       <c r="O5" s="25" t="s">
@@ -5738,13 +5763,13 @@
       </c>
       <c r="B6" s="55"/>
       <c r="C6" s="55" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22" t="s">
@@ -5757,22 +5782,22 @@
         <v>32</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K6" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="N6" s="53" t="s">
+        <v>577</v>
+      </c>
+      <c r="O6" s="22" t="s">
         <v>179</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="N6" s="52" t="s">
-        <v>414</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -5782,10 +5807,10 @@
       <c r="B7" s="55"/>
       <c r="C7" s="55"/>
       <c r="D7" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22" t="s">
@@ -5796,7 +5821,7 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="22" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K7" s="22" t="s">
         <v>33</v>
@@ -5805,13 +5830,13 @@
         <v>34</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="N7" s="52" t="s">
-        <v>414</v>
+        <v>591</v>
+      </c>
+      <c r="N7" s="53" t="s">
+        <v>577</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -5821,38 +5846,38 @@
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
       <c r="D8" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22" t="s">
         <v>63</v>
       </c>
       <c r="H8" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I8" t="s">
+        <v>391</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="L8" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="I8" t="s">
-        <v>395</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>173</v>
-      </c>
       <c r="M8" s="22" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -5862,38 +5887,38 @@
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
       <c r="D9" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22" t="s">
         <v>63</v>
       </c>
       <c r="H9" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I9" t="s">
+        <v>391</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="L9" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="I9" t="s">
-        <v>395</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>173</v>
-      </c>
       <c r="M9" s="22" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -5903,38 +5928,38 @@
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
       <c r="D10" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22" t="s">
         <v>63</v>
       </c>
       <c r="H10" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I10" t="s">
+        <v>391</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="L10" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="I10" t="s">
-        <v>395</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>173</v>
-      </c>
       <c r="M10" s="22" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -5943,13 +5968,13 @@
       </c>
       <c r="B11" s="55"/>
       <c r="C11" s="39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22" t="s">
@@ -5959,23 +5984,23 @@
         <v>31</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -5984,7 +6009,7 @@
       </c>
       <c r="B12" s="55"/>
       <c r="C12" s="42" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D12" s="43" t="s">
         <v>48</v>
@@ -5998,7 +6023,7 @@
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
       <c r="M12" s="34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N12" s="34"/>
       <c r="O12" s="25" t="s">
@@ -6011,13 +6036,13 @@
       </c>
       <c r="B13" s="55"/>
       <c r="C13" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>197</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>199</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22" t="s">
@@ -6027,25 +6052,25 @@
         <v>31</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K13" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="M13" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="L13" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>202</v>
-      </c>
       <c r="N13" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -6053,10 +6078,10 @@
         <v>48</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>48</v>
@@ -6081,7 +6106,7 @@
       </c>
       <c r="B15" s="57"/>
       <c r="C15" s="42" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D15" s="43" t="s">
         <v>48</v>
@@ -6095,10 +6120,10 @@
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
       <c r="M15" s="34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N15" s="33" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="O15" s="25" t="s">
         <v>48</v>
@@ -6110,7 +6135,7 @@
       </c>
       <c r="B16" s="57"/>
       <c r="C16" s="44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>48</v>
@@ -6134,10 +6159,10 @@
         <v>48</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D17" s="43" t="s">
         <v>48</v>
@@ -6151,7 +6176,7 @@
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
       <c r="M17" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N17" s="34"/>
       <c r="O17" s="25" t="s">
@@ -6163,10 +6188,10 @@
         <v>48</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D18" s="43" t="s">
         <v>48</v>
@@ -6180,10 +6205,10 @@
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
       <c r="M18" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="O18" s="25" t="s">
         <v>48</v>
@@ -6195,7 +6220,7 @@
       </c>
       <c r="B19" s="55"/>
       <c r="C19" s="44" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D19" s="43" t="s">
         <v>48</v>
@@ -6220,13 +6245,13 @@
       </c>
       <c r="B20" s="55"/>
       <c r="C20" s="57" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22" t="s">
@@ -6236,10 +6261,10 @@
         <v>31</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K20" s="22" t="s">
         <v>33</v>
@@ -6248,13 +6273,13 @@
         <v>34</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -6264,10 +6289,10 @@
       <c r="B21" s="55"/>
       <c r="C21" s="57"/>
       <c r="D21" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22" t="s">
@@ -6277,10 +6302,10 @@
         <v>31</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K21" s="22" t="s">
         <v>33</v>
@@ -6289,13 +6314,13 @@
         <v>34</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -6304,7 +6329,7 @@
       </c>
       <c r="B22" s="55"/>
       <c r="C22" s="44" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D22" s="43" t="s">
         <v>48</v>
@@ -6318,7 +6343,7 @@
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
       <c r="M22" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N22" s="20"/>
       <c r="O22" s="25" t="s">
@@ -6330,16 +6355,16 @@
         <v>3</v>
       </c>
       <c r="B23" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="C23" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>225</v>
-      </c>
       <c r="E23" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22" t="s">
@@ -6349,10 +6374,10 @@
         <v>31</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K23" s="22" t="s">
         <v>33</v>
@@ -6361,10 +6386,10 @@
         <v>34</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="O23" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -6373,13 +6398,13 @@
       </c>
       <c r="B24" s="55"/>
       <c r="C24" s="55" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="22" t="s">
@@ -6389,25 +6414,25 @@
         <v>17</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>229</v>
+        <v>578</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L24" s="22" t="s">
         <v>37</v>
       </c>
       <c r="M24" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="N24" s="22" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -6417,10 +6442,10 @@
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
       <c r="D25" s="22" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="22" t="s">
@@ -6430,23 +6455,23 @@
         <v>17</v>
       </c>
       <c r="I25" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="J25" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="J25" s="22" t="s">
-        <v>519</v>
-      </c>
       <c r="K25" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L25" s="22" t="s">
         <v>37</v>
       </c>
       <c r="M25" s="22"/>
       <c r="N25" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O25" s="22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -6456,10 +6481,10 @@
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="22" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="22" t="s">
@@ -6470,22 +6495,22 @@
       </c>
       <c r="I26" s="22"/>
       <c r="J26" s="22" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L26" s="22" t="s">
         <v>37</v>
       </c>
       <c r="M26" s="22" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N26" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -6494,13 +6519,13 @@
       </c>
       <c r="B27" s="55"/>
       <c r="C27" s="40" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22" t="s">
@@ -6510,10 +6535,10 @@
         <v>31</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K27" s="22" t="s">
         <v>33</v>
@@ -6522,13 +6547,13 @@
         <v>34</v>
       </c>
       <c r="M27" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N27" s="22" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="O27" s="22" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -6537,7 +6562,7 @@
       </c>
       <c r="B28" s="55"/>
       <c r="C28" s="42" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D28" s="43" t="s">
         <v>48</v>
@@ -6562,13 +6587,13 @@
       </c>
       <c r="B29" s="55"/>
       <c r="C29" s="55" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22" t="s">
@@ -6578,10 +6603,10 @@
         <v>31</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K29" s="22" t="s">
         <v>33</v>
@@ -6590,13 +6615,13 @@
         <v>34</v>
       </c>
       <c r="M29" s="22" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N29" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O29" s="22" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -6606,10 +6631,10 @@
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
       <c r="D30" s="22" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22" t="s">
@@ -6619,10 +6644,10 @@
         <v>31</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K30" s="22" t="s">
         <v>33</v>
@@ -6632,10 +6657,10 @@
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O30" s="22" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -6645,10 +6670,10 @@
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
       <c r="D31" s="22" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22" t="s">
@@ -6658,10 +6683,10 @@
         <v>31</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K31" s="22" t="s">
         <v>33</v>
@@ -6671,10 +6696,10 @@
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="22" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="O31" s="22" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -6683,7 +6708,7 @@
       </c>
       <c r="B32" s="55"/>
       <c r="C32" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D32" s="43" t="s">
         <v>48</v>
@@ -6697,10 +6722,10 @@
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="N32" s="20" t="s">
-        <v>417</v>
+        <v>245</v>
+      </c>
+      <c r="N32" s="33" t="s">
+        <v>410</v>
       </c>
       <c r="O32" s="25" t="s">
         <v>48</v>
@@ -6711,10 +6736,10 @@
         <v>48</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D33" s="43" t="s">
         <v>48</v>
@@ -6772,8 +6797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345648BA-9C58-4148-8A4E-841344F5CF5C}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6808,7 +6833,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>4</v>
@@ -6823,7 +6848,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>8</v>
@@ -6846,16 +6871,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22" t="s">
@@ -6865,25 +6890,25 @@
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="K2" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="O2" t="s">
         <v>253</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="O2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -6892,13 +6917,13 @@
       </c>
       <c r="B3" s="56"/>
       <c r="C3" s="28" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22" t="s">
@@ -6908,25 +6933,25 @@
         <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="O3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -6934,10 +6959,10 @@
         <v>48</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>48</v>
@@ -6951,10 +6976,10 @@
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
       <c r="M4" s="34" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -6963,7 +6988,7 @@
       </c>
       <c r="B5" s="58"/>
       <c r="C5" s="35" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>48</v>
@@ -6985,7 +7010,7 @@
       </c>
       <c r="B6" s="58"/>
       <c r="C6" s="35" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>48</v>
@@ -6999,10 +7024,10 @@
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
       <c r="M6" s="34" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -7011,7 +7036,7 @@
       </c>
       <c r="B7" s="58"/>
       <c r="C7" s="35" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>48</v>
@@ -7025,10 +7050,10 @@
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
       <c r="M7" s="34" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -7036,42 +7061,42 @@
         <v>2</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M8" s="22"/>
       <c r="N8" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -7079,10 +7104,10 @@
         <v>48</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>48</v>
@@ -7096,10 +7121,10 @@
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="34" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7107,16 +7132,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="30" t="s">
@@ -7126,10 +7151,10 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>18</v>
@@ -7139,10 +7164,10 @@
       </c>
       <c r="M10" s="30"/>
       <c r="N10" s="30" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -7150,16 +7175,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22" t="s">
@@ -7169,10 +7194,10 @@
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>18</v>
@@ -7181,13 +7206,13 @@
         <v>19</v>
       </c>
       <c r="M11" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="O11" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -7196,13 +7221,13 @@
       </c>
       <c r="B12" s="55"/>
       <c r="C12" s="28" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22" t="s">
@@ -7212,10 +7237,10 @@
         <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K12" s="22" t="s">
         <v>18</v>
@@ -7225,17 +7250,17 @@
       </c>
       <c r="M12" s="22"/>
       <c r="N12" s="52" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="O12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="B13" s="55"/>
       <c r="C13" s="42" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>48</v>
@@ -7249,7 +7274,7 @@
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
       <c r="M13" s="34" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="N13" s="34"/>
       <c r="O13" s="34"/>
@@ -7260,16 +7285,16 @@
       </c>
       <c r="B14" s="55"/>
       <c r="C14" s="55" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>16</v>
@@ -7278,10 +7303,10 @@
         <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K14" s="22" t="s">
         <v>60</v>
@@ -7291,10 +7316,10 @@
       </c>
       <c r="M14" s="22"/>
       <c r="N14" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O14" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -7304,13 +7329,13 @@
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
       <c r="D15" s="22" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>16</v>
@@ -7319,10 +7344,10 @@
         <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K15" s="22" t="s">
         <v>60</v>
@@ -7332,10 +7357,10 @@
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O15" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -7344,7 +7369,7 @@
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="35" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>48</v>
@@ -7358,10 +7383,10 @@
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
       <c r="M16" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="N16" s="34" t="s">
-        <v>418</v>
+        <v>288</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -7369,10 +7394,10 @@
         <v>48</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D17" s="48" t="s">
         <v>48</v>
@@ -7386,7 +7411,7 @@
       <c r="K17" s="35"/>
       <c r="L17" s="35"/>
       <c r="M17" s="48" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N17" s="35"/>
       <c r="O17" s="35"/>
@@ -7433,7 +7458,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,7 +7490,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>4</v>
@@ -7480,7 +7505,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="K1" s="17" t="s">
         <v>8</v>
@@ -7503,10 +7528,10 @@
         <v>48</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>48</v>
@@ -7520,7 +7545,7 @@
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
       <c r="M2" s="20" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
@@ -7531,7 +7556,7 @@
       </c>
       <c r="B3" s="57"/>
       <c r="C3" s="38" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>48</v>
@@ -7554,7 +7579,7 @@
       </c>
       <c r="B4" s="57"/>
       <c r="C4" s="38" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>48</v>
@@ -7577,7 +7602,7 @@
       </c>
       <c r="B5" s="57"/>
       <c r="C5" s="38" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>48</v>
@@ -7600,13 +7625,13 @@
       </c>
       <c r="B6" s="57"/>
       <c r="C6" s="57" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="s">
@@ -7616,10 +7641,10 @@
         <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="J6" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K6" t="s">
         <v>33</v>
@@ -7628,13 +7653,13 @@
         <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>303</v>
+        <v>584</v>
       </c>
       <c r="N6" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="O6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7644,10 +7669,10 @@
       <c r="B7" s="57"/>
       <c r="C7" s="57"/>
       <c r="D7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
@@ -7657,10 +7682,10 @@
         <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="J7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K7" t="s">
         <v>33</v>
@@ -7669,13 +7694,13 @@
         <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>303</v>
+        <v>584</v>
       </c>
       <c r="N7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="O7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7685,27 +7710,27 @@
       <c r="B8" s="57"/>
       <c r="C8" s="57"/>
       <c r="D8" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="E8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="J8" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="N8" s="53" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="O8"/>
     </row>
@@ -7715,7 +7740,7 @@
       </c>
       <c r="B9" s="57"/>
       <c r="C9" s="38" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
@@ -7729,7 +7754,7 @@
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
@@ -7740,7 +7765,7 @@
       </c>
       <c r="B10" s="57"/>
       <c r="C10" s="38" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D10" t="s">
         <v>48</v>
@@ -7754,7 +7779,7 @@
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
@@ -7764,16 +7789,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E11" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
@@ -7783,10 +7808,10 @@
         <v>31</v>
       </c>
       <c r="I11" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="J11" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K11" t="s">
         <v>18</v>
@@ -7795,13 +7820,13 @@
         <v>19</v>
       </c>
       <c r="M11" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N11" s="52" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="O11" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7810,13 +7835,13 @@
       </c>
       <c r="B12" s="57"/>
       <c r="C12" s="29" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D12" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E12" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="s">
@@ -7826,10 +7851,10 @@
         <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="J12" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="K12" t="s">
         <v>18</v>
@@ -7839,10 +7864,10 @@
       </c>
       <c r="M12"/>
       <c r="N12" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O12" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7851,13 +7876,13 @@
       </c>
       <c r="B13" s="57"/>
       <c r="C13" s="29" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D13" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E13" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="s">
@@ -7867,10 +7892,10 @@
         <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="J13" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K13" t="s">
         <v>18</v>
@@ -7880,10 +7905,10 @@
       </c>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O13" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7892,7 +7917,7 @@
       </c>
       <c r="B14" s="57"/>
       <c r="C14" s="38" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
@@ -7906,7 +7931,7 @@
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
@@ -7916,10 +7941,10 @@
         <v>48</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>48</v>
@@ -7942,13 +7967,13 @@
       </c>
       <c r="B16" s="57"/>
       <c r="C16" s="57" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E16" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="s">
@@ -7958,10 +7983,10 @@
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="J16" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K16" t="s">
         <v>18</v>
@@ -7971,10 +7996,10 @@
       </c>
       <c r="M16"/>
       <c r="N16" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O16" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7984,10 +8009,10 @@
       <c r="B17" s="57"/>
       <c r="C17" s="57"/>
       <c r="D17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E17" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F17"/>
       <c r="G17" t="s">
@@ -7997,10 +8022,10 @@
         <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="J17" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K17" t="s">
         <v>18</v>
@@ -8010,10 +8035,10 @@
       </c>
       <c r="M17"/>
       <c r="N17" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O17" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -8023,10 +8048,10 @@
       <c r="B18" s="57"/>
       <c r="C18" s="57"/>
       <c r="D18" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E18" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F18"/>
       <c r="G18" t="s">
@@ -8036,10 +8061,10 @@
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="J18" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K18" t="s">
         <v>18</v>
@@ -8049,10 +8074,10 @@
       </c>
       <c r="M18"/>
       <c r="N18" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O18" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -8061,7 +8086,7 @@
       </c>
       <c r="B19" s="57"/>
       <c r="C19" s="38" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>48</v>
@@ -8083,16 +8108,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F20"/>
       <c r="G20" t="s">
@@ -8102,10 +8127,10 @@
         <v>31</v>
       </c>
       <c r="I20" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="J20" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K20" t="s">
         <v>33</v>
@@ -8115,10 +8140,10 @@
       </c>
       <c r="M20"/>
       <c r="N20" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -8128,10 +8153,10 @@
       <c r="B21" s="57"/>
       <c r="C21" s="57"/>
       <c r="D21" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F21"/>
       <c r="G21" t="s">
@@ -8141,10 +8166,10 @@
         <v>31</v>
       </c>
       <c r="I21" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="J21" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K21" t="s">
         <v>33</v>
@@ -8154,10 +8179,10 @@
       </c>
       <c r="M21"/>
       <c r="N21" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O21" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -8166,7 +8191,7 @@
       </c>
       <c r="B22" s="57"/>
       <c r="C22" s="38" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>48</v>
@@ -8180,7 +8205,7 @@
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
       <c r="M22" s="20" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
@@ -8191,7 +8216,7 @@
       </c>
       <c r="B23" s="57"/>
       <c r="C23" s="38" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>48</v>
@@ -8205,7 +8230,7 @@
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
       <c r="M23" s="20" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
@@ -8216,7 +8241,7 @@
       </c>
       <c r="B24" s="57"/>
       <c r="C24" s="38" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>48</v>
@@ -8230,7 +8255,7 @@
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
       <c r="M24" s="20" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N24" s="20"/>
       <c r="O24" s="20"/>
@@ -8241,7 +8266,7 @@
       </c>
       <c r="B25" s="57"/>
       <c r="C25" s="38" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>48</v>
@@ -8255,7 +8280,7 @@
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
       <c r="M25" s="20" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N25" s="20"/>
       <c r="O25" s="20"/>
@@ -8266,7 +8291,7 @@
       </c>
       <c r="B26" s="57"/>
       <c r="C26" s="38" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>48</v>
@@ -8280,10 +8305,10 @@
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
       <c r="M26" s="20" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="N26" s="33" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="O26" s="20"/>
     </row>
@@ -8292,16 +8317,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D27" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F27"/>
       <c r="G27" t="s">
@@ -8311,10 +8336,10 @@
         <v>31</v>
       </c>
       <c r="I27" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="J27" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K27" t="s">
         <v>33</v>
@@ -8323,13 +8348,13 @@
         <v>34</v>
       </c>
       <c r="M27" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="N27" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="O27" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -8339,10 +8364,10 @@
       <c r="B28" s="57"/>
       <c r="C28" s="57"/>
       <c r="D28" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F28"/>
       <c r="G28" t="s">
@@ -8352,10 +8377,10 @@
         <v>31</v>
       </c>
       <c r="I28" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="J28" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K28" t="s">
         <v>33</v>
@@ -8364,13 +8389,13 @@
         <v>34</v>
       </c>
       <c r="M28" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="N28" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="O28" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -8379,7 +8404,7 @@
       </c>
       <c r="B29" s="57"/>
       <c r="C29" s="38" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D29" t="s">
         <v>48</v>
@@ -8402,7 +8427,7 @@
       </c>
       <c r="B30" s="57"/>
       <c r="C30" s="38" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D30" t="s">
         <v>48</v>
@@ -8416,9 +8441,11 @@
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
       <c r="M30" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="N30" s="20"/>
+        <v>349</v>
+      </c>
+      <c r="N30" s="33" t="s">
+        <v>585</v>
+      </c>
       <c r="O30" s="20"/>
     </row>
     <row r="31" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -8427,22 +8454,22 @@
       </c>
       <c r="B31" s="57"/>
       <c r="C31" s="29" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D31" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="J31" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="K31" t="s">
         <v>36</v>
@@ -8451,10 +8478,10 @@
         <v>37</v>
       </c>
       <c r="M31" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="N31" s="52" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="O31"/>
     </row>
@@ -8546,7 +8573,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8557,18 +8584,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B2" s="70"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B3" s="60"/>
     </row>
@@ -8578,13 +8605,13 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B5" s="60"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="63" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B6" s="64"/>
     </row>
@@ -8594,13 +8621,13 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B8" s="60"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B9" s="64"/>
     </row>
@@ -8610,13 +8637,13 @@
     </row>
     <row r="11" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="65" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B11" s="66"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B12" s="60"/>
     </row>
@@ -8626,19 +8653,19 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="59" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B14" s="60"/>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="61" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B15" s="62"/>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B17" s="2"/>
     </row>
@@ -8647,23 +8674,23 @@
         <v>11</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -8671,7 +8698,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -8679,7 +8706,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -8687,7 +8714,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -8695,7 +8722,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -8703,23 +8730,23 @@
         <v>7</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -8727,23 +8754,23 @@
         <v>0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -8752,16 +8779,16 @@
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -8769,25 +8796,25 @@
         <v>48</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -8822,11 +8849,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E65C56-A834-4ED4-A193-64A017DCA518}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8862,7 +8889,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>8</v>
@@ -8873,10 +8900,10 @@
     </row>
     <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B2" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C2" t="s">
         <v>54</v>
@@ -8888,21 +8915,21 @@
         <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="I2" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -8911,21 +8938,21 @@
         <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="I3" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C4" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -8934,7 +8961,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
@@ -8945,13 +8972,13 @@
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B5" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C5" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -8959,16 +8986,22 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B6" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C6" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -8977,21 +9010,21 @@
         <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="H6" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -9000,84 +9033,84 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B8" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C8" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="D8" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="E8" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="H8" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B9" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C9" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="D9" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="E9" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="H9" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B10" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C10" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
         <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H10" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B11" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C11" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -9086,21 +9119,21 @@
         <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="H11" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B12" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C12" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -9109,21 +9142,24 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="H12" t="s">
         <v>18</v>
       </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B13" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C13" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -9132,18 +9168,24 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>498</v>
+        <v>489</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B14" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C14" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -9152,18 +9194,24 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>498</v>
+        <v>489</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B15" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C15" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -9172,18 +9220,24 @@
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>498</v>
+        <v>489</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B16" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C16" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -9191,16 +9245,22 @@
       <c r="E16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C17" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -9208,20 +9268,43 @@
       <c r="E17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B18" t="s">
-        <v>395</v>
+        <v>579</v>
       </c>
       <c r="F18" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.3"/>
+        <v>580</v>
+      </c>
+      <c r="G18" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B19" t="s">
+        <v>391</v>
+      </c>
+      <c r="F19" t="s">
+        <v>493</v>
+      </c>
+      <c r="G19" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:9" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:I7" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A1:A1048576">

--- a/2_clean/secondary_metrics.xlsx
+++ b/2_clean/secondary_metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/swalshda_uvm_edu/Documents/Food Systems Research Center/Sustainability Metrics/Sustainability Metrics Manuscript/Metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1236" documentId="13_ncr:1_{A8DF1908-CE30-4112-84EC-9B98DA2512CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20DA56E3-342B-4836-B382-C1C123BDF8C2}"/>
+  <xr:revisionPtr revIDLastSave="1362" documentId="13_ncr:1_{A8DF1908-CE30-4112-84EC-9B98DA2512CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC98A026-01BB-45E0-B5B7-622A88874C05}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1860" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14592" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Economics" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="607">
   <si>
     <t>quality</t>
   </si>
@@ -830,9 +830,6 @@
     <t>certificates of assurance</t>
   </si>
   <si>
-    <t>Need clarity on how this would be measured. Might be NASS data here - organic, GAP certifications</t>
-  </si>
-  <si>
     <t>nutrition</t>
   </si>
   <si>
@@ -869,9 +866,6 @@
     <t>technology adoption</t>
   </si>
   <si>
-    <t>NASS has n farms with precision agriculture - need to check whether the data are complete in NE</t>
-  </si>
-  <si>
     <t>production index tbd</t>
   </si>
   <si>
@@ -896,12 +890,6 @@
     <t>total quantity forest products</t>
   </si>
   <si>
-    <t>Total forest product income</t>
-  </si>
-  <si>
-    <t>incForestProducts</t>
-  </si>
-  <si>
     <t>total quantity non-food ag products</t>
   </si>
   <si>
@@ -914,9 +902,6 @@
     <t>yield</t>
   </si>
   <si>
-    <t>Plenty of data, but figuring out a clean way to aggregate. FSCI splits into 5 categories: cereals, fruit, beef, dairy, vegetables, weights by area harvested or animals slaughtered or number of producing animals</t>
-  </si>
-  <si>
     <t>waste and losses</t>
   </si>
   <si>
@@ -974,9 +959,6 @@
     <t>Producer age diversity</t>
   </si>
   <si>
-    <t>Shannon index. NASS has producer, not farmworker. Maybe BLS has this?</t>
-  </si>
-  <si>
     <t>producerAgeDiversity</t>
   </si>
   <si>
@@ -1286,9 +1268,6 @@
     <t>done unless we want source instead of UW - but UW is cleaner</t>
   </si>
   <si>
-    <t>to do - calculate from NASS</t>
-  </si>
-  <si>
     <t>done unless we want source instead of UW</t>
   </si>
   <si>
@@ -1637,24 +1616,15 @@
     <t>to do - check UW variables</t>
   </si>
   <si>
-    <t>to do - check NASS for precision ag</t>
-  </si>
-  <si>
     <t>how to aggregate without using dollars?</t>
   </si>
   <si>
     <t>level_of_analysis</t>
   </si>
   <si>
-    <t>to do - check nass for organics, other certifications</t>
-  </si>
-  <si>
     <t>done, but we could rework to just total sales if we're doing dollar amounts</t>
   </si>
   <si>
-    <t>in progress (Chris) - find this and fix variable name</t>
-  </si>
-  <si>
     <t>to do - find dataset</t>
   </si>
   <si>
@@ -1766,9 +1736,6 @@
     <t>done, but probably ditch</t>
   </si>
   <si>
-    <t>done but hinky - figures don't line up</t>
-  </si>
-  <si>
     <t>done, but probably ditch?</t>
   </si>
   <si>
@@ -1820,10 +1787,88 @@
     <t>What does this mean in relation to value from rural landscape? We can get production variety from NASS, but more categorical distinctions might be farm level only. Consider natural capital index to match index?</t>
   </si>
   <si>
-    <t>to do - check Chris P's modeling methods</t>
-  </si>
-  <si>
     <t>check methods on this one</t>
+  </si>
+  <si>
+    <t>Proportion of organic operations</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
+  </si>
+  <si>
+    <t>Proportion of operations using precision agriculture</t>
+  </si>
+  <si>
+    <t>Only started collecting data in 2022</t>
+  </si>
+  <si>
+    <t>propOpsOrganic</t>
+  </si>
+  <si>
+    <t>propOpsPrecision</t>
+  </si>
+  <si>
+    <t>Proportion of organic operations (number of organic operations divided by total operations)</t>
+  </si>
+  <si>
+    <t>Proportion of operations with precision agriculture (number of precision ag operations divided by total operations)</t>
+  </si>
+  <si>
+    <t>Total value of all forest products</t>
+  </si>
+  <si>
+    <t>Cash receipts value, forest products, all</t>
+  </si>
+  <si>
+    <t>This is state only. NASS has similar data, but seems to also be state only</t>
+  </si>
+  <si>
+    <t>receiptsAllForestProducts</t>
+  </si>
+  <si>
+    <t>Producer age skew</t>
+  </si>
+  <si>
+    <t>Shannon diversity index of producer age groups (LT25, 25 to 34, 35 to 44, 45 to 54, 55 to 64, 65 to 75, GT75)</t>
+  </si>
+  <si>
+    <t>Skewness of distribution of producer age groups (LT25, 25 to 34, 35 to 44, 45 to 54, 55 to 64, 65 to 75, GT75)</t>
+  </si>
+  <si>
+    <t>derived</t>
+  </si>
+  <si>
+    <t>producerAgeSkew</t>
+  </si>
+  <si>
+    <t>hayYieldMeasuredInTonsAcre</t>
+  </si>
+  <si>
+    <t>Hay yield</t>
+  </si>
+  <si>
+    <t>Maple yield</t>
+  </si>
+  <si>
+    <t>mapleSyrupYieldMeasuredInGallonsTap</t>
+  </si>
+  <si>
+    <t>yieldMilk</t>
+  </si>
+  <si>
+    <t>Milk yield</t>
+  </si>
+  <si>
+    <t>Hay yield measured in tons per acre</t>
+  </si>
+  <si>
+    <t>Maple yield measured in gallons per tap</t>
+  </si>
+  <si>
+    <t>Milk yield measured in pounds per head</t>
+  </si>
+  <si>
+    <t>U.S. Department of Agriculture, National Agricultural Statistical Survey, Survey of Agriculture</t>
   </si>
 </sst>
 </file>
@@ -2147,7 +2192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2281,12 +2326,18 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2295,11 +2346,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2869,13 +2919,13 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27.88671875" style="46" customWidth="1"/>
-    <col min="3" max="3" width="34" style="46" customWidth="1"/>
+    <col min="3" max="3" width="41.5546875" style="46" customWidth="1"/>
     <col min="4" max="4" width="40.88671875" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="17.109375" customWidth="1"/>
@@ -2884,7 +2934,7 @@
     <col min="11" max="11" width="17.109375" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="24.88671875" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
     <col min="15" max="15" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2902,7 +2952,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>4</v>
@@ -2917,7 +2967,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>8</v>
@@ -2949,7 +2999,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22" t="s">
@@ -2959,10 +3009,10 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>18</v>
@@ -2972,7 +3022,7 @@
       </c>
       <c r="M2" s="22"/>
       <c r="N2" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O2" s="22" t="s">
         <v>20</v>
@@ -2988,7 +3038,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22" t="s">
@@ -2998,10 +3048,10 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>18</v>
@@ -3013,7 +3063,7 @@
         <v>22</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O3" s="22" t="s">
         <v>23</v>
@@ -3029,7 +3079,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22" t="s">
@@ -3039,7 +3089,7 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="K4" s="22" t="s">
         <v>18</v>
@@ -3048,10 +3098,10 @@
         <v>19</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="N4" s="52" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="O4" s="22" t="s">
         <v>26</v>
@@ -3067,7 +3117,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22" t="s">
@@ -3077,7 +3127,7 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>18</v>
@@ -3086,10 +3136,10 @@
         <v>19</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="N5" s="52" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="O5" s="22" t="s">
         <v>28</v>
@@ -3102,18 +3152,18 @@
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
       <c r="D6" s="22" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="J6" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>18</v>
@@ -3125,7 +3175,7 @@
         <v>25</v>
       </c>
       <c r="N6" s="52" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="O6" s="22"/>
     </row>
@@ -3153,10 +3203,10 @@
         <v>17</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K7" s="22" t="s">
         <v>36</v>
@@ -3168,7 +3218,7 @@
         <v>38</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O7" s="22" t="s">
         <v>39</v>
@@ -3194,10 +3244,10 @@
         <v>31</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K8" s="22" t="s">
         <v>33</v>
@@ -3209,7 +3259,7 @@
         <v>41</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O8" s="22" t="s">
         <v>42</v>
@@ -3222,13 +3272,13 @@
       <c r="B9" s="55"/>
       <c r="C9" s="56"/>
       <c r="D9" s="22" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>16</v>
@@ -3237,10 +3287,10 @@
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>18</v>
@@ -3249,10 +3299,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="O9" s="22"/>
     </row>
@@ -3263,10 +3313,10 @@
       <c r="B10" s="55"/>
       <c r="C10" s="56"/>
       <c r="D10" s="22" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22" t="s">
@@ -3276,7 +3326,7 @@
         <v>31</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>44</v>
@@ -3286,10 +3336,10 @@
       </c>
       <c r="M10" s="22"/>
       <c r="N10" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -3301,10 +3351,10 @@
         <v>43</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22" t="s">
@@ -3317,7 +3367,7 @@
         <v>32</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>44</v>
@@ -3327,10 +3377,10 @@
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -3376,7 +3426,7 @@
         <v>52</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22" t="s">
@@ -3389,7 +3439,7 @@
         <v>32</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="K13" s="22" t="s">
         <v>18</v>
@@ -3399,7 +3449,7 @@
       </c>
       <c r="M13" s="22"/>
       <c r="N13" s="52" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="O13" s="22"/>
     </row>
@@ -3413,7 +3463,7 @@
         <v>53</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22" t="s">
@@ -3423,10 +3473,10 @@
         <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="K14" s="22" t="s">
         <v>18</v>
@@ -3436,7 +3486,7 @@
       </c>
       <c r="M14" s="22"/>
       <c r="N14" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O14" s="22" t="s">
         <v>55</v>
@@ -3449,10 +3499,10 @@
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
       <c r="D15" s="22" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22" t="s">
@@ -3465,7 +3515,7 @@
         <v>32</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K15" s="22" t="s">
         <v>44</v>
@@ -3475,10 +3525,10 @@
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -3544,13 +3594,13 @@
         <v>59</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>16</v>
@@ -3562,7 +3612,7 @@
         <v>32</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K18" s="22" t="s">
         <v>60</v>
@@ -3572,10 +3622,10 @@
       </c>
       <c r="M18" s="22"/>
       <c r="N18" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -3585,13 +3635,13 @@
       <c r="B19" s="55"/>
       <c r="C19" s="55"/>
       <c r="D19" s="22" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="G19" s="22" t="s">
         <v>16</v>
@@ -3603,7 +3653,7 @@
         <v>32</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K19" s="22" t="s">
         <v>60</v>
@@ -3613,10 +3663,10 @@
       </c>
       <c r="M19" s="22"/>
       <c r="N19" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -3628,13 +3678,13 @@
         <v>62</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G20" s="22" t="s">
         <v>16</v>
@@ -3643,10 +3693,10 @@
         <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="K20" s="22" t="s">
         <v>60</v>
@@ -3656,10 +3706,10 @@
       </c>
       <c r="M20" s="22"/>
       <c r="N20" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O20" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -3669,13 +3719,13 @@
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
       <c r="D21" s="22" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>16</v>
@@ -3684,23 +3734,23 @@
         <v>31</v>
       </c>
       <c r="I21" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="M21" s="22"/>
       <c r="N21" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -3781,7 +3831,7 @@
       <c r="K24" s="20"/>
       <c r="L24" s="34"/>
       <c r="M24" s="20" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="N24" s="20"/>
       <c r="O24" s="34" t="s">
@@ -3836,13 +3886,13 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="29" customWidth="1"/>
     <col min="4" max="4" width="29.88671875" customWidth="1"/>
     <col min="5" max="5" width="18.109375" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
@@ -3867,7 +3917,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>4</v>
@@ -3882,7 +3932,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>8</v>
@@ -3924,10 +3974,10 @@
         <v>31</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>73</v>
@@ -3936,13 +3986,13 @@
         <v>74</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -3955,7 +4005,7 @@
         <v>75</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22" t="s">
@@ -3965,22 +4015,22 @@
         <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>76</v>
       </c>
       <c r="L3" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="N3" t="s">
         <v>401</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>457</v>
-      </c>
-      <c r="N3" t="s">
-        <v>407</v>
       </c>
       <c r="O3" s="22" t="s">
         <v>77</v>
@@ -3996,7 +4046,7 @@
         <v>78</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22" t="s">
@@ -4006,19 +4056,19 @@
         <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K4" s="22" t="s">
         <v>76</v>
       </c>
       <c r="L4" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="N4" t="s">
         <v>401</v>
-      </c>
-      <c r="N4" t="s">
-        <v>407</v>
       </c>
       <c r="O4" s="22" t="s">
         <v>79</v>
@@ -4034,7 +4084,7 @@
         <v>80</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22" t="s">
@@ -4044,22 +4094,22 @@
         <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>76</v>
       </c>
       <c r="L5" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="N5" t="s">
         <v>401</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>457</v>
-      </c>
-      <c r="N5" t="s">
-        <v>407</v>
       </c>
       <c r="O5" s="22" t="s">
         <v>81</v>
@@ -4071,10 +4121,10 @@
       </c>
       <c r="B6" s="55"/>
       <c r="C6" s="55" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>197</v>
@@ -4084,28 +4134,28 @@
         <v>115</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="I6" s="22" t="s">
         <v>32</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -4115,7 +4165,7 @@
       <c r="B7" s="55"/>
       <c r="C7" s="55"/>
       <c r="D7" s="22" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>197</v>
@@ -4125,28 +4175,28 @@
         <v>115</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="I7" s="22" t="s">
         <v>32</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K7" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="O7" s="22" t="s">
         <v>419</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>460</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -4156,7 +4206,7 @@
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
       <c r="D8" s="22" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>197</v>
@@ -4166,28 +4216,28 @@
         <v>115</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="I8" s="22" t="s">
         <v>32</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="L8" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="O8" s="22" t="s">
         <v>420</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>460</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -4197,7 +4247,7 @@
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
       <c r="D9" s="22" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>197</v>
@@ -4207,28 +4257,28 @@
         <v>115</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="I9" s="22" t="s">
         <v>32</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -4243,7 +4293,7 @@
         <v>86</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22" t="s">
@@ -4253,20 +4303,20 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="22"/>
       <c r="M10" s="22" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="O10" s="22" t="s">
         <v>87</v>
@@ -4282,7 +4332,7 @@
         <v>88</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22" t="s">
@@ -4292,20 +4342,20 @@
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="22"/>
       <c r="M11" s="22" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="O11" s="22" t="s">
         <v>89</v>
@@ -4321,7 +4371,7 @@
         <v>90</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22" t="s">
@@ -4331,20 +4381,20 @@
         <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K12" s="22" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="22"/>
       <c r="M12" s="22" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="O12" s="22" t="s">
         <v>91</v>
@@ -4360,7 +4410,7 @@
         <v>92</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22" t="s">
@@ -4370,20 +4420,20 @@
         <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K13" s="22" t="s">
         <v>18</v>
       </c>
       <c r="L13" s="22"/>
       <c r="M13" s="22" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="O13" s="22" t="s">
         <v>93</v>
@@ -4396,13 +4446,13 @@
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
       <c r="D14" s="22" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>16</v>
@@ -4411,21 +4461,21 @@
         <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K14" s="22" t="s">
         <v>18</v>
       </c>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
-      <c r="N14" s="53" t="s">
-        <v>572</v>
+      <c r="N14" s="22" t="s">
+        <v>396</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -4439,7 +4489,7 @@
         <v>95</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>197</v>
@@ -4449,28 +4499,28 @@
         <v>115</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -4495,7 +4545,7 @@
         <v>82</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22" t="s">
@@ -4508,7 +4558,7 @@
         <v>98</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="O16" s="22" t="s">
         <v>99</v>
@@ -4534,7 +4584,7 @@
         <v>82</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="22" t="s">
@@ -4547,7 +4597,7 @@
         <v>98</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="O17" s="22" t="s">
         <v>101</v>
@@ -4573,10 +4623,10 @@
         <v>82</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="K18" s="22" t="s">
         <v>83</v>
@@ -4588,7 +4638,7 @@
         <v>98</v>
       </c>
       <c r="N18" s="22" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="O18" s="22" t="s">
         <v>103</v>
@@ -4614,10 +4664,10 @@
         <v>82</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K19" s="22" t="s">
         <v>83</v>
@@ -4629,7 +4679,7 @@
         <v>98</v>
       </c>
       <c r="N19" s="22" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="O19" s="22" t="s">
         <v>105</v>
@@ -4655,10 +4705,10 @@
         <v>82</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="K20" s="22" t="s">
         <v>83</v>
@@ -4670,7 +4720,7 @@
         <v>98</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="O20" s="22" t="s">
         <v>107</v>
@@ -4683,7 +4733,7 @@
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
       <c r="D21" s="22" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E21" s="22" t="s">
         <v>197</v>
@@ -4693,28 +4743,28 @@
         <v>115</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -4722,7 +4772,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="C22" s="55" t="s">
         <v>108</v>
@@ -4731,33 +4781,33 @@
         <v>111</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="L22" s="22"/>
       <c r="M22" s="22" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="N22" s="53" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="O22" s="22" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -4770,33 +4820,33 @@
         <v>112</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="L23" s="22"/>
       <c r="M23" s="22" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="N23" s="53" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="O23" s="22" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -4806,38 +4856,38 @@
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
       <c r="D24" s="22" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="L24" s="22"/>
       <c r="M24" s="22" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="N24" s="53" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -4847,38 +4897,38 @@
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
       <c r="D25" s="22" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="G25" s="22" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="L25" s="22"/>
       <c r="M25" s="22" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="N25" s="53" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="O25" s="22" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -4888,38 +4938,38 @@
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="22" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="G26" s="22" t="s">
         <v>16</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="L26" s="22"/>
       <c r="M26" s="22" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="N26" s="53" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -4929,38 +4979,38 @@
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
       <c r="D27" s="22" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="L27" s="22"/>
       <c r="M27" s="22" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="N27" s="53" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="O27" s="22" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -4985,10 +5035,10 @@
         <v>31</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K28" s="22" t="s">
         <v>116</v>
@@ -5000,7 +5050,7 @@
         <v>118</v>
       </c>
       <c r="N28" s="53" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="O28" s="22" t="s">
         <v>119</v>
@@ -5018,7 +5068,7 @@
         <v>121</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22" t="s">
@@ -5028,10 +5078,10 @@
         <v>31</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K29" s="22" t="s">
         <v>109</v>
@@ -5043,7 +5093,7 @@
         <v>122</v>
       </c>
       <c r="N29" s="22" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="O29" s="22" t="s">
         <v>123</v>
@@ -5074,7 +5124,7 @@
       </c>
       <c r="I30" s="22"/>
       <c r="J30" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K30" s="22" t="s">
         <v>127</v>
@@ -5086,7 +5136,7 @@
         <v>129</v>
       </c>
       <c r="N30" s="53" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="O30" s="22" t="s">
         <v>130</v>
@@ -5113,7 +5163,7 @@
       </c>
       <c r="I31" s="22"/>
       <c r="J31" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K31" s="22" t="s">
         <v>127</v>
@@ -5125,7 +5175,7 @@
         <v>129</v>
       </c>
       <c r="N31" s="53" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="O31" s="22" t="s">
         <v>132</v>
@@ -5152,7 +5202,7 @@
       </c>
       <c r="I32" s="22"/>
       <c r="J32" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K32" s="22" t="s">
         <v>127</v>
@@ -5164,7 +5214,7 @@
         <v>129</v>
       </c>
       <c r="N32" s="53" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="O32" s="22" t="s">
         <v>134</v>
@@ -5179,25 +5229,25 @@
         <v>135</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="E33" s="22" t="s">
         <v>197</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="K33" s="22" t="s">
         <v>136</v>
@@ -5207,10 +5257,10 @@
       </c>
       <c r="M33" s="22"/>
       <c r="N33" s="54" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="O33" s="22" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -5233,10 +5283,10 @@
         <v>139</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K34" s="22" t="s">
         <v>140</v>
@@ -5245,10 +5295,10 @@
         <v>141</v>
       </c>
       <c r="M34" s="22" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="N34" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O34" s="22" t="s">
         <v>142</v>
@@ -5268,7 +5318,7 @@
         <v>145</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" t="s">
@@ -5278,10 +5328,10 @@
         <v>147</v>
       </c>
       <c r="I35" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="K35" t="s">
         <v>148</v>
@@ -5293,7 +5343,7 @@
         <v>150</v>
       </c>
       <c r="N35" s="52" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -5308,7 +5358,7 @@
         <v>152</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" t="s">
@@ -5318,10 +5368,10 @@
         <v>147</v>
       </c>
       <c r="I36" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="K36" t="s">
         <v>148</v>
@@ -5333,7 +5383,7 @@
         <v>150</v>
       </c>
       <c r="N36" s="52" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -5346,7 +5396,7 @@
         <v>153</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" t="s">
@@ -5356,10 +5406,10 @@
         <v>147</v>
       </c>
       <c r="I37" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="K37" t="s">
         <v>148</v>
@@ -5371,7 +5421,7 @@
         <v>150</v>
       </c>
       <c r="N37" s="52" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -5384,7 +5434,7 @@
         <v>154</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" t="s">
@@ -5394,10 +5444,10 @@
         <v>147</v>
       </c>
       <c r="I38" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="J38" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K38" t="s">
         <v>148</v>
@@ -5409,7 +5459,7 @@
         <v>150</v>
       </c>
       <c r="N38" s="52" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -5424,7 +5474,7 @@
         <v>156</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" t="s">
@@ -5434,7 +5484,7 @@
         <v>147</v>
       </c>
       <c r="I39" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="J39" s="22"/>
       <c r="K39" t="s">
@@ -5447,7 +5497,7 @@
         <v>150</v>
       </c>
       <c r="N39" s="52" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -5460,7 +5510,7 @@
         <v>157</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="F40" s="22"/>
       <c r="G40" t="s">
@@ -5470,7 +5520,7 @@
         <v>147</v>
       </c>
       <c r="I40" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="J40" s="22"/>
       <c r="K40" t="s">
@@ -5483,11 +5533,16 @@
         <v>150</v>
       </c>
       <c r="N40" s="52" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B30:B34"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="C6:C9"/>
@@ -5497,11 +5552,6 @@
     <mergeCell ref="C16:C21"/>
     <mergeCell ref="B22:B29"/>
     <mergeCell ref="C22:C27"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B30:B34"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:J5">
     <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
@@ -5534,9 +5584,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F95016-FFA1-D04E-AB0C-5DF6EE3EB4E3}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5566,7 +5616,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>4</v>
@@ -5581,7 +5631,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>8</v>
@@ -5623,10 +5673,10 @@
         <v>17</v>
       </c>
       <c r="I2" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>501</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>508</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>161</v>
@@ -5638,7 +5688,7 @@
         <v>162</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O2" s="22" t="s">
         <v>163</v>
@@ -5664,10 +5714,10 @@
         <v>17</v>
       </c>
       <c r="I3" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="J3" s="22" t="s">
         <v>501</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>508</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>161</v>
@@ -5679,7 +5729,7 @@
         <v>162</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O3" s="22" t="s">
         <v>165</v>
@@ -5709,10 +5759,10 @@
         <v>169</v>
       </c>
       <c r="I4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K4" s="22" t="s">
         <v>170</v>
@@ -5724,7 +5774,7 @@
         <v>172</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="O4" s="22" t="s">
         <v>173</v>
@@ -5782,7 +5832,7 @@
         <v>32</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>177</v>
@@ -5794,7 +5844,7 @@
         <v>162</v>
       </c>
       <c r="N6" s="53" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="O6" s="22" t="s">
         <v>179</v>
@@ -5821,7 +5871,7 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="22" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K7" s="22" t="s">
         <v>33</v>
@@ -5830,10 +5880,10 @@
         <v>34</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="N7" s="53" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="O7" s="22" t="s">
         <v>182</v>
@@ -5859,10 +5909,10 @@
         <v>169</v>
       </c>
       <c r="I8" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K8" s="22" t="s">
         <v>170</v>
@@ -5871,10 +5921,10 @@
         <v>171</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="O8" s="22" t="s">
         <v>184</v>
@@ -5900,10 +5950,10 @@
         <v>169</v>
       </c>
       <c r="I9" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>170</v>
@@ -5912,10 +5962,10 @@
         <v>171</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="O9" s="22" t="s">
         <v>186</v>
@@ -5941,10 +5991,10 @@
         <v>169</v>
       </c>
       <c r="I10" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>170</v>
@@ -5953,10 +6003,10 @@
         <v>171</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="O10" s="22" t="s">
         <v>188</v>
@@ -5984,10 +6034,10 @@
         <v>31</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>191</v>
@@ -5997,10 +6047,10 @@
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -6052,10 +6102,10 @@
         <v>31</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K13" s="22" t="s">
         <v>198</v>
@@ -6067,10 +6117,10 @@
         <v>200</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -6123,7 +6173,7 @@
         <v>204</v>
       </c>
       <c r="N15" s="33" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="O15" s="25" t="s">
         <v>48</v>
@@ -6208,7 +6258,7 @@
         <v>211</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="O18" s="25" t="s">
         <v>48</v>
@@ -6261,10 +6311,10 @@
         <v>31</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K20" s="22" t="s">
         <v>33</v>
@@ -6276,7 +6326,7 @@
         <v>215</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="O20" s="22" t="s">
         <v>216</v>
@@ -6302,10 +6352,10 @@
         <v>31</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K21" s="22" t="s">
         <v>33</v>
@@ -6317,7 +6367,7 @@
         <v>215</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="O21" s="22" t="s">
         <v>218</v>
@@ -6374,10 +6424,10 @@
         <v>31</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K23" s="22" t="s">
         <v>33</v>
@@ -6386,7 +6436,7 @@
         <v>34</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="O23" s="22" t="s">
         <v>224</v>
@@ -6414,10 +6464,10 @@
         <v>17</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="K24" s="22" t="s">
         <v>161</v>
@@ -6429,7 +6479,7 @@
         <v>227</v>
       </c>
       <c r="N24" s="22" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="O24" s="22" t="s">
         <v>228</v>
@@ -6455,10 +6505,10 @@
         <v>17</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K25" s="22" t="s">
         <v>161</v>
@@ -6468,7 +6518,7 @@
       </c>
       <c r="M25" s="22"/>
       <c r="N25" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O25" s="22" t="s">
         <v>230</v>
@@ -6495,7 +6545,7 @@
       </c>
       <c r="I26" s="22"/>
       <c r="J26" s="22" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="K26" s="22" t="s">
         <v>161</v>
@@ -6507,7 +6557,7 @@
         <v>232</v>
       </c>
       <c r="N26" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O26" s="22" t="s">
         <v>233</v>
@@ -6535,10 +6585,10 @@
         <v>31</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K27" s="22" t="s">
         <v>33</v>
@@ -6550,7 +6600,7 @@
         <v>181</v>
       </c>
       <c r="N27" s="22" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="O27" s="22" t="s">
         <v>236</v>
@@ -6603,10 +6653,10 @@
         <v>31</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K29" s="22" t="s">
         <v>33</v>
@@ -6618,7 +6668,7 @@
         <v>240</v>
       </c>
       <c r="N29" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O29" s="22" t="s">
         <v>241</v>
@@ -6631,7 +6681,7 @@
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
       <c r="D30" s="22" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>197</v>
@@ -6644,10 +6694,10 @@
         <v>31</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K30" s="22" t="s">
         <v>33</v>
@@ -6657,10 +6707,10 @@
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O30" s="22" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -6683,10 +6733,10 @@
         <v>31</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K31" s="22" t="s">
         <v>33</v>
@@ -6696,7 +6746,7 @@
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="22" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="O31" s="22" t="s">
         <v>243</v>
@@ -6725,7 +6775,7 @@
         <v>245</v>
       </c>
       <c r="N32" s="33" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="O32" s="25" t="s">
         <v>48</v>
@@ -6767,16 +6817,16 @@
     </sortState>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B32"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B32"/>
   </mergeCells>
   <conditionalFormatting sqref="I4">
     <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
@@ -6795,10 +6845,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345648BA-9C58-4148-8A4E-841344F5CF5C}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6808,7 +6858,7 @@
     <col min="3" max="3" width="36.44140625" style="29" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="9" width="21.33203125" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" customWidth="1"/>
@@ -6833,7 +6883,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>4</v>
@@ -6848,7 +6898,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>8</v>
@@ -6877,10 +6927,10 @@
         <v>249</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22" t="s">
@@ -6890,10 +6940,10 @@
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>250</v>
@@ -6905,7 +6955,7 @@
         <v>252</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="O2" t="s">
         <v>253</v>
@@ -6920,10 +6970,10 @@
         <v>254</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22" t="s">
@@ -6933,10 +6983,10 @@
         <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>255</v>
@@ -6948,7 +6998,7 @@
         <v>256</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="O3" t="s">
         <v>257</v>
@@ -6965,21 +7015,38 @@
         <v>259</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34" t="s">
-        <v>260</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>527</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>586</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="34"/>
       <c r="N4" s="33" t="s">
-        <v>532</v>
+        <v>581</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -6988,7 +7055,7 @@
       </c>
       <c r="B5" s="58"/>
       <c r="C5" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>48</v>
@@ -7010,7 +7077,7 @@
       </c>
       <c r="B6" s="58"/>
       <c r="C6" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>48</v>
@@ -7024,10 +7091,10 @@
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
       <c r="M6" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -7036,7 +7103,7 @@
       </c>
       <c r="B7" s="58"/>
       <c r="C7" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>48</v>
@@ -7050,10 +7117,10 @@
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
       <c r="M7" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -7061,16 +7128,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="D8" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>267</v>
-      </c>
       <c r="E8" s="22" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22" t="s">
@@ -7080,23 +7147,23 @@
         <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K8" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="L8" s="22" t="s">
         <v>268</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>269</v>
       </c>
       <c r="M8" s="22"/>
       <c r="N8" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -7104,27 +7171,46 @@
         <v>48</v>
       </c>
       <c r="B9" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>272</v>
-      </c>
       <c r="D9" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
+        <v>582</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>527</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>511</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>61</v>
+      </c>
       <c r="M9" s="34" t="s">
-        <v>273</v>
+        <v>583</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>529</v>
+        <v>581</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7132,16 +7218,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>276</v>
-      </c>
       <c r="E10" s="30" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="30" t="s">
@@ -7151,10 +7237,10 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>18</v>
@@ -7164,27 +7250,27 @@
       </c>
       <c r="M10" s="30"/>
       <c r="N10" s="30" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="26">
         <v>1</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>280</v>
-      </c>
       <c r="E11" s="30" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22" t="s">
@@ -7194,10 +7280,10 @@
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>18</v>
@@ -7206,41 +7292,43 @@
         <v>19</v>
       </c>
       <c r="M11" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="O11" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="26">
-        <v>1</v>
-      </c>
-      <c r="B12" s="55"/>
+      <c r="A12" s="23">
+        <v>2</v>
+      </c>
+      <c r="B12" s="56"/>
       <c r="C12" s="28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>282</v>
+        <v>588</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>537</v>
-      </c>
-      <c r="F12" s="22"/>
+        <v>527</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>589</v>
+      </c>
       <c r="G12" s="22" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>504</v>
+        <v>382</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K12" s="22" t="s">
         <v>18</v>
@@ -7248,19 +7336,21 @@
       <c r="L12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="22"/>
+      <c r="M12" s="22" t="s">
+        <v>590</v>
+      </c>
       <c r="N12" s="52" t="s">
-        <v>534</v>
+        <v>581</v>
       </c>
       <c r="O12" t="s">
-        <v>283</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
-      <c r="B13" s="55"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="42" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>48</v>
@@ -7274,7 +7364,7 @@
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
       <c r="M13" s="34" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="N13" s="34"/>
       <c r="O13" s="34"/>
@@ -7283,18 +7373,18 @@
       <c r="A14" s="24">
         <v>3</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="55" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>16</v>
@@ -7303,10 +7393,10 @@
         <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K14" s="22" t="s">
         <v>60</v>
@@ -7316,26 +7406,26 @@
       </c>
       <c r="M14" s="22"/>
       <c r="N14" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O14" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>3</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="55"/>
       <c r="D15" s="22" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>16</v>
@@ -7344,10 +7434,10 @@
         <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K15" s="22" t="s">
         <v>60</v>
@@ -7357,71 +7447,159 @@
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O15" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="72" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
+        <v>2</v>
+      </c>
+      <c r="B16" s="56"/>
+      <c r="C16" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>598</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>527</v>
+      </c>
+      <c r="F16" s="71" t="s">
+        <v>603</v>
+      </c>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" t="s">
+        <v>382</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="71"/>
+      <c r="N16" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="O16" s="72" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="72" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
+        <v>2</v>
+      </c>
+      <c r="B17" s="56"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="71" t="s">
+        <v>599</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>527</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>604</v>
+      </c>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" t="s">
+        <v>382</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="71"/>
+      <c r="N17" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="O17" s="72" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="72" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
+        <v>2</v>
+      </c>
+      <c r="B18" s="56"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="71" t="s">
+        <v>602</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>527</v>
+      </c>
+      <c r="F18" s="71" t="s">
+        <v>605</v>
+      </c>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" t="s">
+        <v>382</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" s="71"/>
+      <c r="N18" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="O18" s="72" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="D16" s="34" t="s">
+      <c r="B19" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="D19" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="N16" s="33" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B11:B16"/>
     <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:J3">
     <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
@@ -7438,7 +7616,7 @@
       <formula>"NONE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:J15">
+  <conditionalFormatting sqref="I14:J18">
     <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
@@ -7454,11 +7632,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB29AFA-0DDE-5049-B8DC-113E6F66B101}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7490,7 +7668,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>4</v>
@@ -7505,7 +7683,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="K1" s="17" t="s">
         <v>8</v>
@@ -7528,10 +7706,10 @@
         <v>48</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>48</v>
@@ -7545,7 +7723,7 @@
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
       <c r="M2" s="20" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
@@ -7556,7 +7734,7 @@
       </c>
       <c r="B3" s="57"/>
       <c r="C3" s="38" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>48</v>
@@ -7579,7 +7757,7 @@
       </c>
       <c r="B4" s="57"/>
       <c r="C4" s="38" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>48</v>
@@ -7602,7 +7780,7 @@
       </c>
       <c r="B5" s="57"/>
       <c r="C5" s="38" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>48</v>
@@ -7625,10 +7803,10 @@
       </c>
       <c r="B6" s="57"/>
       <c r="C6" s="57" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D6" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E6" t="s">
         <v>197</v>
@@ -7641,10 +7819,10 @@
         <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="J6" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K6" t="s">
         <v>33</v>
@@ -7653,13 +7831,13 @@
         <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="N6" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="O6" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7669,7 +7847,7 @@
       <c r="B7" s="57"/>
       <c r="C7" s="57"/>
       <c r="D7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E7" t="s">
         <v>197</v>
@@ -7682,10 +7860,10 @@
         <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="J7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K7" t="s">
         <v>33</v>
@@ -7694,13 +7872,13 @@
         <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="N7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="O7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7710,7 +7888,7 @@
       <c r="B8" s="57"/>
       <c r="C8" s="57"/>
       <c r="D8" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="E8" t="s">
         <v>197</v>
@@ -7719,18 +7897,18 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="J8" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="N8" s="53" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="O8"/>
     </row>
@@ -7740,7 +7918,7 @@
       </c>
       <c r="B9" s="57"/>
       <c r="C9" s="38" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
@@ -7754,7 +7932,7 @@
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
@@ -7765,7 +7943,7 @@
       </c>
       <c r="B10" s="57"/>
       <c r="C10" s="38" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D10" t="s">
         <v>48</v>
@@ -7779,7 +7957,7 @@
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
@@ -7789,16 +7967,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D11" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E11" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
@@ -7808,10 +7986,10 @@
         <v>31</v>
       </c>
       <c r="I11" t="s">
-        <v>387</v>
+        <v>593</v>
       </c>
       <c r="J11" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K11" t="s">
         <v>18</v>
@@ -7820,54 +7998,54 @@
         <v>19</v>
       </c>
       <c r="M11" t="s">
-        <v>308</v>
-      </c>
-      <c r="N11" s="52" t="s">
-        <v>412</v>
+        <v>595</v>
+      </c>
+      <c r="N11" t="s">
+        <v>396</v>
       </c>
       <c r="O11" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="57"/>
       <c r="C12" s="29" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D12" t="s">
-        <v>311</v>
+        <v>592</v>
       </c>
       <c r="E12" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="s">
         <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I12" t="s">
-        <v>387</v>
-      </c>
-      <c r="J12" t="s">
-        <v>519</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="J12"/>
       <c r="K12" t="s">
         <v>18</v>
       </c>
       <c r="L12" t="s">
         <v>19</v>
       </c>
-      <c r="M12"/>
+      <c r="M12" t="s">
+        <v>595</v>
+      </c>
       <c r="N12" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O12" t="s">
-        <v>312</v>
+        <v>596</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7876,13 +8054,13 @@
       </c>
       <c r="B13" s="57"/>
       <c r="C13" s="29" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D13" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="E13" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="s">
@@ -7892,10 +8070,10 @@
         <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="J13" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="K13" t="s">
         <v>18</v>
@@ -7905,48 +8083,62 @@
       </c>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O13" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
-        <v>48</v>
+      <c r="A14">
+        <v>3</v>
       </c>
       <c r="B14" s="57"/>
-      <c r="C14" s="38" t="s">
-        <v>316</v>
+      <c r="C14" s="29" t="s">
+        <v>307</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20" t="s">
-        <v>536</v>
-      </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
+        <v>308</v>
+      </c>
+      <c r="E14" t="s">
+        <v>527</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>381</v>
+      </c>
+      <c r="J14" t="s">
+        <v>501</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14"/>
+      <c r="N14" t="s">
+        <v>396</v>
+      </c>
+      <c r="O14" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="15" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="57" t="s">
-        <v>317</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="D15" s="41" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="20"/>
@@ -7957,62 +8149,50 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
+      <c r="M15" s="20" t="s">
+        <v>526</v>
+      </c>
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
     </row>
     <row r="16" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57" t="s">
-        <v>319</v>
-      </c>
-      <c r="D16" t="s">
-        <v>320</v>
-      </c>
-      <c r="E16" t="s">
-        <v>537</v>
-      </c>
-      <c r="F16"/>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" t="s">
-        <v>485</v>
-      </c>
-      <c r="J16" t="s">
-        <v>508</v>
-      </c>
-      <c r="K16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16"/>
-      <c r="N16" t="s">
-        <v>402</v>
-      </c>
-      <c r="O16" t="s">
-        <v>321</v>
-      </c>
+      <c r="A16" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
     </row>
     <row r="17" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
+      <c r="C17" s="57" t="s">
+        <v>313</v>
+      </c>
       <c r="D17" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E17" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F17"/>
       <c r="G17" t="s">
@@ -8022,10 +8202,10 @@
         <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="J17" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K17" t="s">
         <v>18</v>
@@ -8035,10 +8215,10 @@
       </c>
       <c r="M17"/>
       <c r="N17" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O17" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -8048,10 +8228,10 @@
       <c r="B18" s="57"/>
       <c r="C18" s="57"/>
       <c r="D18" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E18" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F18"/>
       <c r="G18" t="s">
@@ -8061,10 +8241,10 @@
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="J18" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K18" t="s">
         <v>18</v>
@@ -8074,10 +8254,10 @@
       </c>
       <c r="M18"/>
       <c r="N18" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O18" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -8085,75 +8265,75 @@
         <v>2</v>
       </c>
       <c r="B19" s="57"/>
-      <c r="C19" s="38" t="s">
-        <v>326</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
+      <c r="C19" s="57"/>
+      <c r="D19" t="s">
+        <v>318</v>
+      </c>
+      <c r="E19" t="s">
+        <v>527</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>478</v>
+      </c>
+      <c r="J19" t="s">
+        <v>501</v>
+      </c>
+      <c r="K19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19"/>
+      <c r="N19" t="s">
+        <v>396</v>
+      </c>
+      <c r="O19" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="20" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="D20" t="s">
-        <v>329</v>
-      </c>
-      <c r="E20" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20"/>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" t="s">
-        <v>502</v>
-      </c>
-      <c r="J20" t="s">
-        <v>508</v>
-      </c>
-      <c r="K20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20"/>
-      <c r="N20" t="s">
-        <v>413</v>
-      </c>
-      <c r="O20" t="s">
-        <v>330</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B20" s="57"/>
+      <c r="C20" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
     </row>
     <row r="21" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>322</v>
+      </c>
       <c r="D21" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E21" t="s">
         <v>197</v>
@@ -8166,10 +8346,10 @@
         <v>31</v>
       </c>
       <c r="I21" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="J21" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K21" t="s">
         <v>33</v>
@@ -8179,36 +8359,50 @@
       </c>
       <c r="M21"/>
       <c r="N21" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="O21" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
-        <v>48</v>
+      <c r="A22">
+        <v>1</v>
       </c>
       <c r="B22" s="57"/>
-      <c r="C22" s="38" t="s">
-        <v>333</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
+      <c r="C22" s="57"/>
+      <c r="D22" t="s">
+        <v>325</v>
+      </c>
+      <c r="E22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s">
+        <v>495</v>
+      </c>
+      <c r="J22" t="s">
+        <v>501</v>
+      </c>
+      <c r="K22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22"/>
+      <c r="N22" t="s">
+        <v>406</v>
+      </c>
+      <c r="O22" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="23" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
@@ -8216,7 +8410,7 @@
       </c>
       <c r="B23" s="57"/>
       <c r="C23" s="38" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>48</v>
@@ -8230,7 +8424,7 @@
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
       <c r="M23" s="20" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
@@ -8241,7 +8435,7 @@
       </c>
       <c r="B24" s="57"/>
       <c r="C24" s="38" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>48</v>
@@ -8255,7 +8449,7 @@
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
       <c r="M24" s="20" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N24" s="20"/>
       <c r="O24" s="20"/>
@@ -8266,7 +8460,7 @@
       </c>
       <c r="B25" s="57"/>
       <c r="C25" s="38" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>48</v>
@@ -8280,7 +8474,7 @@
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
       <c r="M25" s="20" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N25" s="20"/>
       <c r="O25" s="20"/>
@@ -8291,7 +8485,7 @@
       </c>
       <c r="B26" s="57"/>
       <c r="C26" s="38" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>48</v>
@@ -8305,66 +8499,50 @@
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
       <c r="M26" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="N26" s="33" t="s">
-        <v>535</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="N26" s="20"/>
       <c r="O26" s="20"/>
     </row>
     <row r="27" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" s="57" t="s">
-        <v>340</v>
-      </c>
-      <c r="C27" s="57" t="s">
-        <v>341</v>
-      </c>
-      <c r="D27" t="s">
-        <v>342</v>
-      </c>
-      <c r="E27" t="s">
-        <v>197</v>
-      </c>
-      <c r="F27"/>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" t="s">
-        <v>502</v>
-      </c>
-      <c r="J27" t="s">
-        <v>510</v>
-      </c>
-      <c r="K27" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" t="s">
-        <v>34</v>
-      </c>
-      <c r="M27" t="s">
-        <v>343</v>
-      </c>
-      <c r="N27" t="s">
-        <v>414</v>
-      </c>
-      <c r="O27" t="s">
-        <v>344</v>
-      </c>
+      <c r="A27" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="57"/>
+      <c r="C27" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="N27" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="O27" s="20"/>
     </row>
     <row r="28" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
+      <c r="B28" s="57" t="s">
+        <v>334</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>335</v>
+      </c>
       <c r="D28" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E28" t="s">
         <v>197</v>
@@ -8377,10 +8555,10 @@
         <v>31</v>
       </c>
       <c r="I28" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="J28" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K28" t="s">
         <v>33</v>
@@ -8389,37 +8567,55 @@
         <v>34</v>
       </c>
       <c r="M28" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="N28" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="O28" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="33" t="s">
-        <v>48</v>
+      <c r="A29">
+        <v>1</v>
       </c>
       <c r="B29" s="57"/>
-      <c r="C29" s="38" t="s">
-        <v>347</v>
-      </c>
+      <c r="C29" s="57"/>
       <c r="D29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
+        <v>339</v>
+      </c>
+      <c r="E29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s">
+        <v>495</v>
+      </c>
+      <c r="J29" t="s">
+        <v>503</v>
+      </c>
+      <c r="K29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N29" t="s">
+        <v>407</v>
+      </c>
+      <c r="O29" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="30" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
@@ -8427,7 +8623,7 @@
       </c>
       <c r="B30" s="57"/>
       <c r="C30" s="38" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D30" t="s">
         <v>48</v>
@@ -8440,65 +8636,88 @@
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
-      <c r="M30" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="N30" s="33" t="s">
-        <v>585</v>
-      </c>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
       <c r="O30" s="20"/>
     </row>
     <row r="31" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20">
+      <c r="A31" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="57"/>
+      <c r="C31" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="N31" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="O31" s="20"/>
+    </row>
+    <row r="32" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="20">
         <v>2</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="D31" t="s">
-        <v>351</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="B32" s="57"/>
+      <c r="C32" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="D32" t="s">
+        <v>345</v>
+      </c>
+      <c r="E32" t="s">
         <v>197</v>
       </c>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31" t="s">
-        <v>502</v>
-      </c>
-      <c r="J31" t="s">
-        <v>519</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32" t="s">
+        <v>495</v>
+      </c>
+      <c r="J32" t="s">
+        <v>512</v>
+      </c>
+      <c r="K32" t="s">
         <v>36</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L32" t="s">
         <v>37</v>
       </c>
-      <c r="M31" t="s">
-        <v>352</v>
-      </c>
-      <c r="N31" s="52" t="s">
-        <v>415</v>
-      </c>
-      <c r="O31"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
+      <c r="M32" t="s">
+        <v>346</v>
+      </c>
+      <c r="N32" s="52" t="s">
+        <v>408</v>
+      </c>
+      <c r="O32"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O1" xr:uid="{9FB29AFA-0DDE-5049-B8DC-113E6F66B101}"/>
   <mergeCells count="9">
     <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B27"/>
     <mergeCell ref="C6:C8"/>
   </mergeCells>
   <conditionalFormatting sqref="A1">
@@ -8518,7 +8737,7 @@
       <formula>"rework"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A8 A11:A13 A16:A21 A27:A28 A31">
+  <conditionalFormatting sqref="A6:A8 A11:A14 A17:A22 A28:A29 A32">
     <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -8529,37 +8748,37 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:F13 D14 E14:F15">
+  <conditionalFormatting sqref="D1:F14 G12:H12 D15 E15:F16">
     <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:F31">
+  <conditionalFormatting sqref="D17:F32">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G8 G23:G24">
+  <conditionalFormatting sqref="G7:G8 G24:G25">
     <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:J13">
+  <conditionalFormatting sqref="I11:J14">
     <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:J18">
+  <conditionalFormatting sqref="I17:J19">
     <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20:J21">
+  <conditionalFormatting sqref="J21:J22">
     <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O14 C15:D15 G15:O15 O16:O18 O20:O31">
+  <conditionalFormatting sqref="O2:O15 C16:D16 G16:O16 O17:O19 O21:O32">
     <cfRule type="cellIs" dxfId="9" priority="29" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
@@ -8584,88 +8803,88 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="61" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" s="62"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="63" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="64"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" s="64"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="B6" s="60"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="59"/>
+      <c r="B7" s="60"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="63" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="64"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="59" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="B9" s="60"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+    </row>
+    <row r="11" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="67" t="s">
         <v>355</v>
       </c>
-      <c r="B2" s="70"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="B11" s="68"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="69" t="s">
         <v>356</v>
       </c>
-      <c r="B3" s="60"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
+      <c r="B12" s="64"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="70"/>
+      <c r="B13" s="64"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="B5" s="60"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
+      <c r="B14" s="64"/>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="65" t="s">
         <v>358</v>
       </c>
-      <c r="B6" s="64"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="s">
-        <v>359</v>
-      </c>
-      <c r="B8" s="60"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="B9" s="64"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-    </row>
-    <row r="11" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="65" t="s">
-        <v>361</v>
-      </c>
-      <c r="B11" s="66"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="67" t="s">
-        <v>362</v>
-      </c>
-      <c r="B12" s="60"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="60"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="59" t="s">
-        <v>363</v>
-      </c>
-      <c r="B14" s="60"/>
-    </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="61" t="s">
-        <v>364</v>
-      </c>
-      <c r="B15" s="62"/>
+      <c r="B15" s="66"/>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B17" s="2"/>
     </row>
@@ -8674,23 +8893,23 @@
         <v>11</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -8698,7 +8917,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -8706,7 +8925,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -8714,7 +8933,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -8722,7 +8941,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -8730,23 +8949,23 @@
         <v>7</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -8754,23 +8973,23 @@
         <v>0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -8779,16 +8998,16 @@
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -8796,25 +9015,25 @@
         <v>48</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -8822,12 +9041,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A8:B8"/>
@@ -8836,6 +9049,12 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{A59DB292-A126-46C8-AAB0-2FF5AD1DDD57}"/>
@@ -8853,7 +9072,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8889,7 +9108,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>8</v>
@@ -8900,10 +9119,10 @@
     </row>
     <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B2" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C2" t="s">
         <v>54</v>
@@ -8915,21 +9134,21 @@
         <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="I2" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -8938,21 +9157,21 @@
         <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="I3" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C4" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -8961,7 +9180,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
@@ -8972,13 +9191,13 @@
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B5" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C5" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -8995,13 +9214,13 @@
     </row>
     <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B6" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C6" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -9010,21 +9229,21 @@
         <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H6" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="C7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -9033,61 +9252,61 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="H7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B8" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C8" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D8" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E8" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="H8" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B9" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C9" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D9" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E9" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="H9" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C10" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D10" t="s">
         <v>115</v>
@@ -9096,21 +9315,21 @@
         <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B11" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C11" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -9119,21 +9338,21 @@
         <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="H11" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B12" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C12" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -9142,7 +9361,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="H12" t="s">
         <v>18</v>
@@ -9153,13 +9372,13 @@
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B13" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C13" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -9168,7 +9387,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="H13" t="s">
         <v>18</v>
@@ -9179,13 +9398,13 @@
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B14" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C14" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -9194,7 +9413,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="H14" t="s">
         <v>18</v>
@@ -9205,13 +9424,13 @@
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B15" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C15" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -9220,7 +9439,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="H15" t="s">
         <v>18</v>
@@ -9231,13 +9450,13 @@
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B16" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C16" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -9254,13 +9473,13 @@
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B17" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C17" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -9277,30 +9496,30 @@
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B18" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="F18" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="G18" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B19" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F19" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G19" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.4" x14ac:dyDescent="0.3"/>

--- a/2_clean/secondary_metrics.xlsx
+++ b/2_clean/secondary_metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/swalshda_uvm_edu/Documents/Food Systems Research Center/Sustainability Metrics/Sustainability Metrics Manuscript/Metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="528" documentId="8_{735FDC36-AB7D-4B4C-AD9F-35DAC55E2D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{027C2C65-E462-4B51-B72C-51237B548663}"/>
+  <xr:revisionPtr revIDLastSave="575" documentId="8_{735FDC36-AB7D-4B4C-AD9F-35DAC55E2D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA7A8823-C9E1-415D-84B8-7F52847B13FB}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1860" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Economics" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="523">
   <si>
     <t>quality</t>
   </si>
@@ -377,21 +377,9 @@
     <t>educational attainment</t>
   </si>
   <si>
-    <t>Percentage with bachelor's degree</t>
-  </si>
-  <si>
     <t>U.S. Census Bureau, American Community Survey: 5-Year Estimates: Detailed Tables, 2022</t>
   </si>
   <si>
-    <t>edPercBS</t>
-  </si>
-  <si>
-    <t>Percentage with high school diploma, GED, or equivalent</t>
-  </si>
-  <si>
-    <t>edPercHSGED</t>
-  </si>
-  <si>
     <t>food security</t>
   </si>
   <si>
@@ -1058,12 +1046,6 @@
     <t xml:space="preserve">annualAvgWklyWageNAICS11       </t>
   </si>
   <si>
-    <t>lower?</t>
-  </si>
-  <si>
-    <t>higher?</t>
-  </si>
-  <si>
     <t>target?</t>
   </si>
   <si>
@@ -1145,9 +1127,6 @@
     <t>4km</t>
   </si>
   <si>
-    <t>target? How to account for extreme events</t>
-  </si>
-  <si>
     <t>daily</t>
   </si>
   <si>
@@ -1469,9 +1448,6 @@
     <t>Consider, GDP, distance to min wage or poverty</t>
   </si>
   <si>
-    <t>?+</t>
-  </si>
-  <si>
     <t>inputs</t>
   </si>
   <si>
@@ -1481,9 +1457,6 @@
     <t>What does this mean in relation to value from rural landscape? We can get production variety from NASS, but more categorical distinctions might be farm level only. Consider natural capital index to match index? Or consider proportion of family farms vs corporate? Check NASS again for this</t>
   </si>
   <si>
-    <t>in progress</t>
-  </si>
-  <si>
     <t>market health index</t>
   </si>
   <si>
@@ -1541,9 +1514,6 @@
     <t>prevalence of diet-related disease</t>
   </si>
   <si>
-    <t>check whether this is terminal degree</t>
-  </si>
-  <si>
     <t>access to social support</t>
   </si>
   <si>
@@ -1574,9 +1544,6 @@
     <t>x for metrics that we will assign a good/bad rating to use in analyses. Others will be observed, but not given a normative valuation</t>
   </si>
   <si>
-    <t>(Violent crime instead of firearm fatalities if possible)</t>
-  </si>
-  <si>
     <t>Heart disease prevalence</t>
   </si>
   <si>
@@ -1629,6 +1596,27 @@
   </si>
   <si>
     <t>propInvasive</t>
+  </si>
+  <si>
+    <t>maybe?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done, not sure whether this is best way to handle it though. </t>
+  </si>
+  <si>
+    <t>High school graduation rate</t>
+  </si>
+  <si>
+    <t>Percent of population with a high school degree, GED, or equivalent, or any higher degree</t>
+  </si>
+  <si>
+    <t>edPercHSOrMore</t>
+  </si>
+  <si>
+    <t>Violent crime rate</t>
+  </si>
+  <si>
+    <t>target</t>
   </si>
 </sst>
 </file>
@@ -2087,18 +2075,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2107,6 +2089,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2605,7 +2593,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2636,19 +2624,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>5</v>
@@ -2660,7 +2648,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M1" s="21" t="s">
         <v>8</v>
@@ -2686,22 +2674,22 @@
         <v>20</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>15</v>
@@ -2713,7 +2701,7 @@
         <v>22</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M2" s="22" t="s">
         <v>30</v>
@@ -2723,10 +2711,10 @@
       </c>
       <c r="O2" s="22"/>
       <c r="P2" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,7 +2743,7 @@
       <c r="M3" s="20"/>
       <c r="N3" s="34"/>
       <c r="O3" s="20" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="P3" s="20"/>
       <c r="Q3" s="34" t="s">
@@ -2768,10 +2756,10 @@
       </c>
       <c r="B4" s="60"/>
       <c r="C4" s="35" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="34" t="s">
@@ -2799,22 +2787,22 @@
       </c>
       <c r="B5" s="60"/>
       <c r="C5" s="59" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>15</v>
@@ -2823,10 +2811,10 @@
         <v>21</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M5" s="22" t="s">
         <v>30</v>
@@ -2836,10 +2824,10 @@
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,19 +2837,19 @@
       <c r="B6" s="60"/>
       <c r="C6" s="59"/>
       <c r="D6" s="53" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H6" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="I6" s="22" t="s">
         <v>15</v>
@@ -2870,10 +2858,10 @@
         <v>16</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M6" s="22" t="s">
         <v>26</v>
@@ -2885,7 +2873,7 @@
         <v>28</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q6" s="22" t="s">
         <v>29</v>
@@ -2896,22 +2884,22 @@
         <v>2</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="22" t="s">
@@ -2921,10 +2909,10 @@
         <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M7" s="22" t="s">
         <v>17</v>
@@ -2934,7 +2922,7 @@
       </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q7" s="22" t="s">
         <v>19</v>
@@ -2946,10 +2934,10 @@
       </c>
       <c r="B8" s="60"/>
       <c r="C8" s="35" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="40" t="s">
@@ -2980,7 +2968,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="40" t="s">
@@ -3019,13 +3007,13 @@
         <v>96</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I10" s="22" t="s">
         <v>15</v>
@@ -3037,7 +3025,7 @@
         <v>22</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M10" s="22" t="s">
         <v>30</v>
@@ -3047,10 +3035,10 @@
       </c>
       <c r="O10" s="22"/>
       <c r="P10" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,10 +3057,10 @@
         <v>37</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H11" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>15</v>
@@ -3081,10 +3069,10 @@
         <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M11" s="22" t="s">
         <v>17</v>
@@ -3094,7 +3082,7 @@
       </c>
       <c r="O11" s="22"/>
       <c r="P11" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="22" t="s">
         <v>39</v>
@@ -3116,10 +3104,10 @@
         <v>36</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H12" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>15</v>
@@ -3131,7 +3119,7 @@
         <v>22</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M12" s="22" t="s">
         <v>17</v>
@@ -3141,10 +3129,10 @@
       </c>
       <c r="O12" s="22"/>
       <c r="P12" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q12" s="22" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,19 +3144,19 @@
         <v>40</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>15</v>
@@ -3180,7 +3168,7 @@
         <v>22</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="M13" s="22" t="s">
         <v>17</v>
@@ -3189,13 +3177,13 @@
         <v>18</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q13" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,7 +3195,7 @@
         <v>42</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="25" t="s">
@@ -3238,19 +3226,19 @@
         <v>43</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>15</v>
@@ -3262,7 +3250,7 @@
         <v>22</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M15" s="22" t="s">
         <v>44</v>
@@ -3272,10 +3260,10 @@
       </c>
       <c r="O15" s="22"/>
       <c r="P15" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,22 +3272,22 @@
       </c>
       <c r="B16" s="60"/>
       <c r="C16" s="28" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="I16" s="22" t="s">
         <v>15</v>
@@ -3308,23 +3296,23 @@
         <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="O16" s="22"/>
       <c r="P16" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -3360,8 +3348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802AE4B4-391E-474A-9621-08E11B188749}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3372,7 +3360,7 @@
     <col min="5" max="5" width="9.21875" style="29" customWidth="1"/>
     <col min="6" max="6" width="29.88671875" customWidth="1"/>
     <col min="7" max="7" width="18.109375" customWidth="1"/>
-    <col min="8" max="8" width="77" customWidth="1"/>
+    <col min="8" max="8" width="49.88671875" customWidth="1"/>
     <col min="11" max="11" width="13.21875" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" customWidth="1"/>
     <col min="15" max="15" width="42.33203125" customWidth="1"/>
@@ -3391,19 +3379,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H1" s="55" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>5</v>
@@ -3415,7 +3403,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M1" s="21" t="s">
         <v>8</v>
@@ -3438,22 +3426,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C2" s="60" t="s">
         <v>50</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H2" t="s">
         <v>51</v>
@@ -3465,22 +3453,22 @@
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M2" s="22" t="s">
         <v>52</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q2" s="22" t="s">
         <v>53</v>
@@ -3493,16 +3481,16 @@
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
       <c r="D3" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H3" t="s">
         <v>54</v>
@@ -3514,19 +3502,19 @@
         <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M3" s="22" t="s">
         <v>52</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q3" s="22" t="s">
         <v>55</v>
@@ -3539,16 +3527,16 @@
       <c r="B4" s="60"/>
       <c r="C4" s="60"/>
       <c r="D4" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
@@ -3560,22 +3548,22 @@
         <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>52</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q4" s="22" t="s">
         <v>57</v>
@@ -3587,49 +3575,49 @@
       </c>
       <c r="B5" s="60"/>
       <c r="C5" s="28" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H5" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>66</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,19 +3629,19 @@
         <v>58</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I6" s="22" t="s">
         <v>15</v>
@@ -3662,10 +3650,10 @@
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M6" s="22" t="s">
         <v>17</v>
@@ -3673,10 +3661,10 @@
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,42 +3672,52 @@
         <v>3</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="C7" s="60" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H7" s="56" t="s">
-        <v>487</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+        <v>478</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="K7" s="22" t="s">
-        <v>491</v>
-      </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
+        <v>482</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>484</v>
+      </c>
       <c r="O7" s="22" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,40 +3727,46 @@
       <c r="B8" s="60"/>
       <c r="C8" s="60"/>
       <c r="D8" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H8" s="56" t="s">
-        <v>522</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+        <v>511</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="K8" s="22" t="s">
-        <v>491</v>
-      </c>
-      <c r="L8" s="22"/>
+        <v>482</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>328</v>
+      </c>
       <c r="M8" s="22" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,40 +3778,46 @@
         <v>60</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>490</v>
+        <v>15</v>
       </c>
       <c r="J9" s="22" t="s">
         <v>21</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>491</v>
-      </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
+        <v>482</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>484</v>
+      </c>
       <c r="O9" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>267</v>
+        <v>485</v>
+      </c>
+      <c r="P9" s="49" t="s">
+        <v>517</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,37 +3827,39 @@
       <c r="B10" s="60"/>
       <c r="C10" s="60"/>
       <c r="D10" s="28" t="s">
-        <v>471</v>
+        <v>96</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>471</v>
+        <v>96</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="J10" s="22" t="s">
         <v>21</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>491</v>
-      </c>
-      <c r="L10" s="22"/>
+        <v>482</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>328</v>
+      </c>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="P10" s="48" t="s">
-        <v>477</v>
+        <v>485</v>
+      </c>
+      <c r="P10" s="49" t="s">
+        <v>516</v>
       </c>
       <c r="Q10" s="22"/>
     </row>
@@ -3868,7 +3880,7 @@
         <v>94</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" t="s">
@@ -3878,10 +3890,10 @@
         <v>96</v>
       </c>
       <c r="K11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M11" t="s">
         <v>97</v>
@@ -3893,7 +3905,7 @@
         <v>99</v>
       </c>
       <c r="P11" s="48" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,7 +3923,7 @@
         <v>101</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" t="s">
@@ -3921,10 +3933,10 @@
         <v>96</v>
       </c>
       <c r="K12" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M12" t="s">
         <v>97</v>
@@ -3936,7 +3948,7 @@
         <v>99</v>
       </c>
       <c r="P12" s="48" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,7 +3964,7 @@
         <v>103</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" t="s">
@@ -3962,10 +3974,10 @@
         <v>96</v>
       </c>
       <c r="K13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L13" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M13" t="s">
         <v>97</v>
@@ -3977,7 +3989,7 @@
         <v>99</v>
       </c>
       <c r="P13" s="48" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,7 +4005,7 @@
         <v>102</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" t="s">
@@ -4003,10 +4015,10 @@
         <v>96</v>
       </c>
       <c r="K14" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M14" t="s">
         <v>97</v>
@@ -4018,7 +4030,7 @@
         <v>99</v>
       </c>
       <c r="P14" s="48" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,7 +4048,7 @@
         <v>106</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" t="s">
@@ -4046,7 +4058,7 @@
         <v>96</v>
       </c>
       <c r="K15" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L15" s="22"/>
       <c r="M15" t="s">
@@ -4059,7 +4071,7 @@
         <v>99</v>
       </c>
       <c r="P15" s="48" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4075,7 +4087,7 @@
         <v>105</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" t="s">
@@ -4085,7 +4097,7 @@
         <v>96</v>
       </c>
       <c r="K16" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L16" s="22"/>
       <c r="M16" t="s">
@@ -4098,7 +4110,7 @@
         <v>99</v>
       </c>
       <c r="P16" s="48" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,50 +4118,50 @@
         <v>3</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C17" s="60" t="s">
         <v>61</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H17" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="I17" s="22" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="N17" s="22"/>
       <c r="O17" s="22" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P17" s="49" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="Q17" s="22" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,44 +4171,44 @@
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
       <c r="D18" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H18" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="I18" s="22" t="s">
         <v>15</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="N18" s="22"/>
       <c r="O18" s="22" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P18" s="49" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="Q18" s="22" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,19 +4220,19 @@
         <v>64</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>65</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H19" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="I19" s="22" t="s">
         <v>66</v>
@@ -4229,10 +4241,10 @@
         <v>21</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M19" s="22" t="s">
         <v>67</v>
@@ -4244,7 +4256,7 @@
         <v>69</v>
       </c>
       <c r="P19" s="49" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="Q19" s="22" t="s">
         <v>70</v>
@@ -4259,19 +4271,19 @@
         <v>71</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>72</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H20" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="I20" s="22" t="s">
         <v>46</v>
@@ -4280,10 +4292,10 @@
         <v>21</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M20" s="22" t="s">
         <v>62</v>
@@ -4295,7 +4307,7 @@
         <v>73</v>
       </c>
       <c r="P20" s="22" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="Q20" s="22" t="s">
         <v>74</v>
@@ -4312,7 +4324,7 @@
         <v>76</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>96</v>
@@ -4321,10 +4333,10 @@
         <v>77</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H21" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="I21" s="22" t="s">
         <v>46</v>
@@ -4334,7 +4346,7 @@
       </c>
       <c r="K21" s="22"/>
       <c r="L21" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M21" s="22" t="s">
         <v>78</v>
@@ -4346,7 +4358,7 @@
         <v>80</v>
       </c>
       <c r="P21" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q21" s="22" t="s">
         <v>81</v>
@@ -4359,7 +4371,7 @@
       <c r="B22" s="60"/>
       <c r="C22" s="60"/>
       <c r="D22" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>96</v>
@@ -4368,10 +4380,10 @@
         <v>82</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H22" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="I22" s="22" t="s">
         <v>46</v>
@@ -4381,7 +4393,7 @@
       </c>
       <c r="K22" s="22"/>
       <c r="L22" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M22" s="22" t="s">
         <v>78</v>
@@ -4393,7 +4405,7 @@
         <v>80</v>
       </c>
       <c r="P22" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q22" s="22" t="s">
         <v>83</v>
@@ -4408,31 +4420,31 @@
         <v>84</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H23" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>365</v>
+        <v>522</v>
       </c>
       <c r="M23" s="22" t="s">
         <v>85</v>
@@ -4442,10 +4454,10 @@
       </c>
       <c r="O23" s="22"/>
       <c r="P23" s="50" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="Q23" s="22" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,19 +4467,19 @@
       <c r="B24" s="60"/>
       <c r="C24" s="60"/>
       <c r="D24" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>87</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H24" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="I24" s="22" t="s">
         <v>15</v>
@@ -4476,10 +4488,10 @@
         <v>88</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M24" s="22" t="s">
         <v>89</v>
@@ -4488,10 +4500,10 @@
         <v>90</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P24" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q24" s="22" t="s">
         <v>91</v>
@@ -4542,11 +4554,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F95016-FFA1-D04E-AB0C-5DF6EE3EB4E3}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4557,7 +4569,7 @@
     <col min="5" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="6" width="38.77734375" customWidth="1"/>
     <col min="7" max="7" width="17.5546875" customWidth="1"/>
-    <col min="8" max="8" width="71.77734375" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" customWidth="1"/>
     <col min="11" max="12" width="14.21875" customWidth="1"/>
     <col min="15" max="15" width="35" customWidth="1"/>
     <col min="16" max="16" width="25.109375" customWidth="1"/>
@@ -4575,19 +4587,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>5</v>
@@ -4599,7 +4611,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M1" s="21" t="s">
         <v>8</v>
@@ -4621,25 +4633,27 @@
       <c r="A2" s="24">
         <v>3</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="28" t="s">
         <v>108</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>96</v>
+        <v>464</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>96</v>
+        <v>464</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>109</v>
+        <v>518</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H2" s="22"/>
+        <v>129</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>519</v>
+      </c>
       <c r="I2" s="22" t="s">
         <v>15</v>
       </c>
@@ -4647,118 +4661,122 @@
         <v>16</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="22"/>
+      <c r="O2" s="49"/>
       <c r="P2" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q2" s="22" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="24">
-        <v>3</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>473</v>
+      <c r="D3" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>464</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>112</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" t="s">
+        <v>258</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="60"/>
+      <c r="C4" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" t="s">
+        <v>444</v>
+      </c>
+      <c r="I4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="49" t="s">
-        <v>497</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="23">
-        <v>2</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22" t="s">
-        <v>46</v>
-      </c>
       <c r="J4" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="K4" t="s">
-        <v>262</v>
+        <v>21</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>324</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>268</v>
+        <v>373</v>
+      </c>
+      <c r="P4" s="50" t="s">
+        <v>400</v>
       </c>
       <c r="Q4" s="22" t="s">
         <v>121</v>
@@ -4769,23 +4787,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="60"/>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>471</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>471</v>
+      <c r="D5" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>464</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>123</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H5" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>15</v>
@@ -4794,262 +4812,264 @@
         <v>21</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M5" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>464</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24">
+        <v>3</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="47" t="s">
+        <v>490</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>464</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>464</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" t="s">
+        <v>446</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
+        <v>2</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>488</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>464</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>464</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>413</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="M8" t="s">
+        <v>415</v>
+      </c>
+      <c r="N8" t="s">
+        <v>416</v>
+      </c>
+      <c r="O8" t="s">
+        <v>417</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>464</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
+        <v>2</v>
+      </c>
+      <c r="B10" s="60"/>
+      <c r="C10" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" t="s">
+        <v>447</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="P5" s="50" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q5" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="24">
+      <c r="O10" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
         <v>3</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H6" t="s">
-        <v>452</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="N6" s="22" t="s">
+      <c r="B11" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>471</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24">
-        <v>3</v>
-      </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="47" t="s">
-        <v>500</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>471</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>471</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" t="s">
-        <v>453</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q8" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="23">
-        <v>2</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>498</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>471</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>471</v>
-      </c>
-      <c r="F9" s="52" t="s">
-        <v>420</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="M9" t="s">
-        <v>422</v>
-      </c>
-      <c r="N9" t="s">
-        <v>423</v>
-      </c>
-      <c r="O9" t="s">
-        <v>424</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q9" s="22" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>471</v>
-      </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
-        <v>2</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="29" t="s">
-        <v>499</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>133</v>
-      </c>
       <c r="H11" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>15</v>
@@ -5058,10 +5078,10 @@
         <v>21</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M11" s="22" t="s">
         <v>23</v>
@@ -5069,61 +5089,59 @@
       <c r="N11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="22" t="s">
-        <v>140</v>
-      </c>
       <c r="P11" s="22" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="22" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="24">
-        <v>3</v>
-      </c>
-      <c r="B12" s="60" t="s">
+      <c r="A12" s="23">
+        <v>2</v>
+      </c>
+      <c r="B12" s="60"/>
+      <c r="C12" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="D12" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>144</v>
-      </c>
       <c r="G12" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H12" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>15</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>333</v>
+        <v>522</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q12" s="22" t="s">
         <v>145</v>
@@ -5134,50 +5152,50 @@
         <v>2</v>
       </c>
       <c r="B13" s="60"/>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>471</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>471</v>
+      <c r="D13" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>464</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>147</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H13" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>15</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O13" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q13" s="22" t="s">
         <v>148</v>
-      </c>
-      <c r="P13" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q13" s="22" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,50 +5203,48 @@
         <v>2</v>
       </c>
       <c r="B14" s="60"/>
-      <c r="C14" s="61" t="s">
-        <v>150</v>
-      </c>
+      <c r="C14" s="61"/>
       <c r="D14" s="29" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>151</v>
+        <v>421</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H14" t="s">
-        <v>457</v>
+        <v>129</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>423</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>15</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>124</v>
+        <v>329</v>
+      </c>
+      <c r="M14" t="s">
+        <v>415</v>
+      </c>
+      <c r="N14" t="s">
+        <v>416</v>
+      </c>
+      <c r="O14" t="s">
+        <v>417</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="22" t="s">
-        <v>152</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,48 +5252,48 @@
         <v>2</v>
       </c>
       <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>471</v>
+      <c r="C15" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>464</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="M15" t="s">
-        <v>422</v>
-      </c>
-      <c r="N15" t="s">
-        <v>423</v>
-      </c>
-      <c r="O15" t="s">
-        <v>424</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="O15" s="22"/>
       <c r="P15" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,23 +5301,21 @@
         <v>2</v>
       </c>
       <c r="B16" s="60"/>
-      <c r="C16" s="60" t="s">
-        <v>153</v>
-      </c>
+      <c r="C16" s="60"/>
       <c r="D16" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F16" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="22" t="s">
         <v>412</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>418</v>
       </c>
       <c r="I16" s="22" t="s">
         <v>46</v>
@@ -5310,70 +5324,71 @@
         <v>21</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="O16" s="22"/>
       <c r="P16" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
-        <v>2</v>
+      <c r="A17" s="24">
+        <v>3</v>
       </c>
       <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="28" t="s">
-        <v>471</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>471</v>
+      <c r="C17" s="61" t="s">
+        <v>487</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>464</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>419</v>
+        <v>129</v>
+      </c>
+      <c r="H17" t="s">
+        <v>451</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="J17" s="22" t="s">
         <v>21</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>414</v>
+        <v>23</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="O17" s="22"/>
+        <v>24</v>
+      </c>
       <c r="P17" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q17" s="22" t="s">
-        <v>417</v>
+        <v>266</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,96 +5396,48 @@
         <v>3</v>
       </c>
       <c r="B18" s="60"/>
-      <c r="C18" s="61" t="s">
-        <v>496</v>
-      </c>
+      <c r="C18" s="61"/>
       <c r="D18" s="29" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>410</v>
+        <v>498</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" t="s">
-        <v>458</v>
+        <v>129</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>420</v>
       </c>
       <c r="I18" s="22" t="s">
         <v>15</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="M18" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="22" t="s">
-        <v>24</v>
+        <v>329</v>
+      </c>
+      <c r="M18" t="s">
+        <v>415</v>
+      </c>
+      <c r="N18" t="s">
+        <v>416</v>
+      </c>
+      <c r="O18" t="s">
+        <v>417</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
-        <v>3</v>
-      </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="L19" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="M19" t="s">
-        <v>422</v>
-      </c>
-      <c r="N19" t="s">
-        <v>423</v>
-      </c>
-      <c r="O19" t="s">
-        <v>424</v>
-      </c>
-      <c r="P19" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q19" s="22" t="s">
-        <v>426</v>
+        <v>263</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -5481,22 +5448,20 @@
       <sortCondition ref="F2:F36"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q19">
-    <sortCondition ref="B2:B19"/>
-    <sortCondition ref="C2:C19"/>
-    <sortCondition ref="F2:F19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q18">
+    <sortCondition ref="B2:B18"/>
+    <sortCondition ref="C2:C18"/>
+    <sortCondition ref="F2:F18"/>
   </sortState>
-  <mergeCells count="8">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
+  <mergeCells count="6">
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
-  <conditionalFormatting sqref="K4">
+  <conditionalFormatting sqref="K3">
     <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
@@ -5511,7 +5476,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5545,19 +5510,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>5</v>
@@ -5569,7 +5534,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M1" s="21" t="s">
         <v>8</v>
@@ -5592,25 +5557,25 @@
         <v>3</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H2" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>46</v>
@@ -5619,25 +5584,25 @@
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -5646,22 +5611,22 @@
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="28" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H3" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="I3" s="22" t="s">
         <v>46</v>
@@ -5670,25 +5635,25 @@
         <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -5696,25 +5661,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>15</v>
@@ -5723,10 +5688,10 @@
         <v>16</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>44</v>
@@ -5736,10 +5701,10 @@
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q4" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -5747,25 +5712,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H5" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>66</v>
@@ -5774,23 +5739,23 @@
         <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -5798,25 +5763,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H6" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="I6" s="30" t="s">
         <v>15</v>
@@ -5825,10 +5790,10 @@
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M6" s="22" t="s">
         <v>17</v>
@@ -5838,10 +5803,10 @@
       </c>
       <c r="O6" s="22"/>
       <c r="P6" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -5850,22 +5815,22 @@
       </c>
       <c r="B7" s="60"/>
       <c r="C7" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="I7" s="22" t="s">
         <v>15</v>
@@ -5874,10 +5839,10 @@
         <v>16</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="M7" s="22" t="s">
         <v>44</v>
@@ -5886,13 +5851,13 @@
         <v>45</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="R7"/>
     </row>
@@ -5901,25 +5866,25 @@
         <v>1</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H8" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="I8" s="22" t="s">
         <v>15</v>
@@ -5928,10 +5893,10 @@
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M8" s="22" t="s">
         <v>17</v>
@@ -5940,13 +5905,13 @@
         <v>18</v>
       </c>
       <c r="O8" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q8" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -5955,22 +5920,22 @@
       </c>
       <c r="B9" s="59"/>
       <c r="C9" s="28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="I9" s="22" t="s">
         <v>46</v>
@@ -5979,10 +5944,10 @@
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M9" s="22" t="s">
         <v>17</v>
@@ -5991,23 +5956,23 @@
         <v>18</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q9" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="59"/>
       <c r="C10" s="39" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="34" t="s">
@@ -6022,7 +5987,7 @@
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
       <c r="O10" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P10" s="34"/>
       <c r="Q10" s="34"/>
@@ -6031,22 +5996,22 @@
       <c r="A11" s="24"/>
       <c r="B11" s="59"/>
       <c r="C11" s="28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>15</v>
@@ -6055,10 +6020,10 @@
         <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M11" s="22" t="s">
         <v>44</v>
@@ -6068,10 +6033,10 @@
       </c>
       <c r="O11" s="22"/>
       <c r="P11" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q11" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -6080,22 +6045,22 @@
       </c>
       <c r="B12" s="59"/>
       <c r="C12" s="60" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>46</v>
@@ -6104,23 +6069,23 @@
         <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="N12" s="22" t="s">
         <v>45</v>
       </c>
       <c r="O12" s="22"/>
       <c r="P12" s="49" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="Q12" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -6130,19 +6095,19 @@
       <c r="B13" s="59"/>
       <c r="C13" s="60"/>
       <c r="D13" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>46</v>
@@ -6151,10 +6116,10 @@
         <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M13" s="22" t="s">
         <v>44</v>
@@ -6164,10 +6129,10 @@
       </c>
       <c r="O13" s="22"/>
       <c r="P13" s="49" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="Q13" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -6177,19 +6142,19 @@
       <c r="B14" s="59"/>
       <c r="C14" s="60"/>
       <c r="D14" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>46</v>
@@ -6198,23 +6163,23 @@
         <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="N14" s="22" t="s">
         <v>45</v>
       </c>
       <c r="O14" s="22"/>
       <c r="P14" s="49" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="Q14" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -6222,13 +6187,13 @@
         <v>32</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="44" t="s">
@@ -6243,7 +6208,7 @@
       <c r="M15" s="35"/>
       <c r="N15" s="35"/>
       <c r="O15" s="44" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
@@ -6288,9 +6253,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB29AFA-0DDE-5049-B8DC-113E6F66B101}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6303,6 +6268,7 @@
     <col min="6" max="6" width="32.33203125" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="47.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1"/>
     <col min="11" max="11" width="17.5546875" customWidth="1"/>
     <col min="12" max="12" width="13.5546875" customWidth="1"/>
     <col min="15" max="15" width="37.33203125" customWidth="1"/>
@@ -6321,19 +6287,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>5</v>
@@ -6345,7 +6311,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M1" s="17" t="s">
         <v>8</v>
@@ -6368,13 +6334,13 @@
         <v>32</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E2" s="37"/>
       <c r="F2" s="20" t="s">
@@ -6398,10 +6364,10 @@
       </c>
       <c r="B3" s="61"/>
       <c r="C3" s="37" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="20" t="s">
@@ -6425,10 +6391,10 @@
       </c>
       <c r="B4" s="61"/>
       <c r="C4" s="37" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="20" t="s">
@@ -6452,10 +6418,10 @@
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="37" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="20" t="s">
@@ -6479,7 +6445,7 @@
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="61" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>96</v>
@@ -6488,13 +6454,13 @@
         <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H6" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
@@ -6503,10 +6469,10 @@
         <v>21</v>
       </c>
       <c r="K6" t="s">
+        <v>324</v>
+      </c>
+      <c r="L6" t="s">
         <v>328</v>
-      </c>
-      <c r="L6" t="s">
-        <v>332</v>
       </c>
       <c r="M6" t="s">
         <v>23</v>
@@ -6515,13 +6481,13 @@
         <v>24</v>
       </c>
       <c r="O6" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="P6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6531,19 +6497,19 @@
       <c r="B7" s="61"/>
       <c r="C7" s="61"/>
       <c r="D7" s="29" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
@@ -6552,23 +6518,23 @@
         <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="N7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="O7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="P7" s="49"/>
       <c r="Q7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6577,10 +6543,10 @@
       </c>
       <c r="B8" s="61"/>
       <c r="C8" s="37" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" t="s">
@@ -6604,10 +6570,10 @@
       </c>
       <c r="B9" s="61"/>
       <c r="C9" s="37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" t="s">
@@ -6630,25 +6596,25 @@
         <v>2</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G10" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
@@ -6657,9 +6623,11 @@
         <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>392</v>
-      </c>
-      <c r="L10"/>
+        <v>385</v>
+      </c>
+      <c r="L10" t="s">
+        <v>329</v>
+      </c>
       <c r="M10" t="s">
         <v>17</v>
       </c>
@@ -6667,13 +6635,13 @@
         <v>18</v>
       </c>
       <c r="O10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="P10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q10" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6682,20 +6650,20 @@
       </c>
       <c r="B11" s="61"/>
       <c r="C11" s="29" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G11" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
@@ -6704,10 +6672,10 @@
         <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M11" t="s">
         <v>17</v>
@@ -6717,10 +6685,10 @@
       </c>
       <c r="O11"/>
       <c r="P11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6729,20 +6697,20 @@
       </c>
       <c r="B12" s="61"/>
       <c r="C12" s="29" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G12" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H12" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -6751,10 +6719,10 @@
         <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M12" t="s">
         <v>17</v>
@@ -6764,10 +6732,10 @@
       </c>
       <c r="O12"/>
       <c r="P12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q12" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6776,10 +6744,10 @@
       </c>
       <c r="B13" s="61"/>
       <c r="C13" s="37" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" t="s">
@@ -6794,7 +6762,7 @@
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
@@ -6804,10 +6772,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>96</v>
@@ -6816,13 +6784,13 @@
         <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H14" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="I14" t="s">
         <v>15</v>
@@ -6831,10 +6799,10 @@
         <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L14" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M14" t="s">
         <v>23</v>
@@ -6844,10 +6812,10 @@
       </c>
       <c r="O14"/>
       <c r="P14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q14" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6861,10 +6829,10 @@
         <v>96</v>
       </c>
       <c r="F15" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="G15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
@@ -6875,7 +6843,7 @@
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15" s="48" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="Q15"/>
     </row>
@@ -6885,22 +6853,22 @@
       </c>
       <c r="B16" s="61"/>
       <c r="C16" s="29" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F16" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H16" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
@@ -6909,10 +6877,10 @@
         <v>21</v>
       </c>
       <c r="K16" t="s">
+        <v>324</v>
+      </c>
+      <c r="L16" t="s">
         <v>328</v>
-      </c>
-      <c r="L16" t="s">
-        <v>332</v>
       </c>
       <c r="M16" t="s">
         <v>23</v>
@@ -6922,10 +6890,10 @@
       </c>
       <c r="O16"/>
       <c r="P16" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6934,10 +6902,10 @@
       </c>
       <c r="B17" s="61"/>
       <c r="C17" s="37" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="20" t="s">
@@ -6952,7 +6920,7 @@
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
@@ -6963,10 +6931,10 @@
       </c>
       <c r="B18" s="61"/>
       <c r="C18" s="37" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="20" t="s">
@@ -6981,7 +6949,7 @@
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
       <c r="O18" s="20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
@@ -6991,13 +6959,13 @@
         <v>32</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="20" t="s">
@@ -7021,10 +6989,10 @@
       </c>
       <c r="B20" s="61"/>
       <c r="C20" s="37" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" t="s">
@@ -7039,10 +7007,10 @@
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
       <c r="O20" s="20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P20" s="57" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="Q20" s="20"/>
     </row>
@@ -7052,28 +7020,32 @@
       </c>
       <c r="B21" s="61"/>
       <c r="C21" s="29" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F21" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
       <c r="K21" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L21" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M21" t="s">
         <v>26</v>
@@ -7082,10 +7054,10 @@
         <v>27</v>
       </c>
       <c r="O21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P21" s="48" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q21"/>
     </row>
@@ -7094,25 +7066,25 @@
         <v>2</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F22" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H22" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
@@ -7121,10 +7093,10 @@
         <v>16</v>
       </c>
       <c r="K22" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M22" t="s">
         <v>17</v>
@@ -7134,10 +7106,10 @@
       </c>
       <c r="O22"/>
       <c r="P22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q22" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7146,10 +7118,10 @@
       </c>
       <c r="B23" s="61"/>
       <c r="C23" s="37" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="19" t="s">
@@ -7164,7 +7136,7 @@
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
       <c r="O23" s="20" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="P23" s="20"/>
       <c r="Q23" s="20"/>
@@ -7216,7 +7188,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:H9 Q2:Q14 I6:I7 J7 L7 F10:G10 I10:J10 K10:L12 F11:H23 L16 Q16:Q18 Q21:Q23">
+  <conditionalFormatting sqref="F1:H9 Q2:Q14 I6:I7 J7 L7 F10:G10 I10:J10 K10:L12 F11:H23 L16 Q16:Q18 I21 Q21:Q23">
     <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
@@ -7246,88 +7218,88 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="73"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="63"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="63"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="66" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
+      <c r="B6" s="67"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="62" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="65"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="B8" s="63"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="67"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
+      <c r="B9" s="67"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+    </row>
+    <row r="11" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="B5" s="67"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="B11" s="69"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="63"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
+      <c r="B12" s="63"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="71"/>
+      <c r="B13" s="63"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="B8" s="67"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="62" t="s">
+      <c r="B14" s="63"/>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="64" t="s">
         <v>231</v>
       </c>
-      <c r="B9" s="63"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
-    </row>
-    <row r="11" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
-        <v>232</v>
-      </c>
-      <c r="B11" s="71"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="72" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" s="67"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="73"/>
-      <c r="B13" s="67"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="66" t="s">
-        <v>234</v>
-      </c>
-      <c r="B14" s="67"/>
-    </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="B15" s="69"/>
+      <c r="B15" s="65"/>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B17" s="2"/>
     </row>
@@ -7336,31 +7308,31 @@
         <v>11</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -7368,7 +7340,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -7376,7 +7348,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -7384,7 +7356,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -7392,7 +7364,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -7400,23 +7372,23 @@
         <v>7</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -7424,23 +7396,23 @@
         <v>0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -7449,16 +7421,16 @@
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -7466,25 +7438,25 @@
         <v>32</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -7492,6 +7464,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A8:B8"/>
@@ -7500,12 +7478,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{A59DB292-A126-46C8-AAB0-2FF5AD1DDD57}"/>
@@ -7559,7 +7531,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>8</v>
@@ -7570,10 +7542,10 @@
     </row>
     <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
@@ -7585,21 +7557,21 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -7608,21 +7580,21 @@
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -7631,7 +7603,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -7642,13 +7614,13 @@
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -7665,13 +7637,13 @@
     </row>
     <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -7680,21 +7652,21 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -7703,61 +7675,61 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B9" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -7766,21 +7738,21 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H10" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B11" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C11" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -7789,21 +7761,21 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H11" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B12" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -7812,7 +7784,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H12" t="s">
         <v>17</v>
@@ -7823,13 +7795,13 @@
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B13" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" t="s">
         <v>312</v>
-      </c>
-      <c r="C13" t="s">
-        <v>316</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -7838,7 +7810,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H13" t="s">
         <v>17</v>
@@ -7849,13 +7821,13 @@
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" t="s">
         <v>313</v>
-      </c>
-      <c r="C14" t="s">
-        <v>317</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -7864,7 +7836,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H14" t="s">
         <v>17</v>
@@ -7875,13 +7847,13 @@
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C15" t="s">
         <v>314</v>
-      </c>
-      <c r="C15" t="s">
-        <v>318</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -7890,7 +7862,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H15" t="s">
         <v>17</v>
@@ -7901,13 +7873,13 @@
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B16" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C16" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -7924,13 +7896,13 @@
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C17" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -7947,30 +7919,30 @@
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B18" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F18" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G18" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B19" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F19" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G19" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.4" x14ac:dyDescent="0.3"/>

--- a/2_clean/secondary_metrics.xlsx
+++ b/2_clean/secondary_metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/swalshda_uvm_edu/Documents/Food Systems Research Center/Sustainability Metrics/Sustainability Metrics Manuscript/Metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="575" documentId="8_{735FDC36-AB7D-4B4C-AD9F-35DAC55E2D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA7A8823-C9E1-415D-84B8-7F52847B13FB}"/>
+  <xr:revisionPtr revIDLastSave="742" documentId="8_{735FDC36-AB7D-4B4C-AD9F-35DAC55E2D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C999FA10-89E2-4932-A0E4-1D856A1885B6}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1860" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14592" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Economics" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Economics!$A$1:$Q$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Health!$A$1:$O$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Social!$A$1:$Q$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">utilities!$A$1:$I$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">utilities!$A$1:$I$27</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="524">
   <si>
     <t>quality</t>
   </si>
@@ -332,45 +332,18 @@
     <t>biology</t>
   </si>
   <si>
-    <t>Limitations for aerobic soil organisms</t>
-  </si>
-  <si>
-    <t>vector</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
-    <t>NRCS Web Soil Survey</t>
-  </si>
-  <si>
-    <t>https://websoilsurvey.nrcs.usda.gov/app/</t>
-  </si>
-  <si>
-    <t>updates slow or inconsistent, depending on layer. Not clear whether historical data is accessible</t>
-  </si>
-  <si>
     <t>chemistry</t>
   </si>
   <si>
     <t>Cation exchange capacity</t>
   </si>
   <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Organic matter</t>
-  </si>
-  <si>
     <t>structure</t>
   </si>
   <si>
-    <t>Fragile soil index</t>
-  </si>
-  <si>
-    <t>Bulk density</t>
-  </si>
-  <si>
     <t>education</t>
   </si>
   <si>
@@ -614,12 +587,6 @@
     <t>social connectedness</t>
   </si>
   <si>
-    <t>Social associations</t>
-  </si>
-  <si>
-    <t>socialAssociations</t>
-  </si>
-  <si>
     <t>tradition/heritage</t>
   </si>
   <si>
@@ -851,9 +818,6 @@
     <t>done unless source rather than UW, but UW data looks cleaner than source</t>
   </si>
   <si>
-    <t>done unless we want source instead of UW - but UW is cleaner</t>
-  </si>
-  <si>
     <t>done unless we want source instead of UW</t>
   </si>
   <si>
@@ -1163,9 +1127,6 @@
     <t>Farm to School Survey</t>
   </si>
   <si>
-    <t>See Rupasingha 2006, social capital index. BLS lists establishments by NAICS code, weight by population</t>
-  </si>
-  <si>
     <t>population/sector if filtered to ag land?</t>
   </si>
   <si>
@@ -1301,9 +1262,6 @@
     <t>https://data.cdc.gov/500-Cities-Places/PLACES-County-Data-GIS-Friendly-Format-2024-releas/i46a-9kgh/about_data</t>
   </si>
   <si>
-    <t>Only have data for 2022</t>
-  </si>
-  <si>
     <t>lackSocialSupport</t>
   </si>
   <si>
@@ -1331,9 +1289,6 @@
     <t>Model-based estimate for crude prevalence of lack of social and emotional support among adults. Question reads: How often do you get the social and emotional support that you need? (5-point Likert). Cutoff unclear?</t>
   </si>
   <si>
-    <t>to do - SSURGO</t>
-  </si>
-  <si>
     <t>1-year sample is done. Need to expand to all years</t>
   </si>
   <si>
@@ -1418,15 +1373,9 @@
     <t>Fertilizer expenses as a percentage of operations expenses</t>
   </si>
   <si>
-    <t>Number of membership associations per 10,000 population.</t>
-  </si>
-  <si>
     <t>Shannon index of NASS producer race statistics</t>
   </si>
   <si>
-    <t>Weighted skew of distribution of producer age using type 3 skewness (MINITAB and BMDP)</t>
-  </si>
-  <si>
     <t>Acres in conservation easements</t>
   </si>
   <si>
@@ -1445,9 +1394,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Consider, GDP, distance to min wage or poverty</t>
-  </si>
-  <si>
     <t>inputs</t>
   </si>
   <si>
@@ -1481,9 +1427,6 @@
     <t>business failure rate</t>
   </si>
   <si>
-    <t>exogenous forces</t>
-  </si>
-  <si>
     <t>Standard deviation of distribution of tree sizes as measured by DBH (diameter at breast height)</t>
   </si>
   <si>
@@ -1505,9 +1448,6 @@
     <t>https://research.fs.usda.gov/products/dataandtools/fia-datamart</t>
   </si>
   <si>
-    <t>Need to see whether state or county level makes more sense based on number of observations</t>
-  </si>
-  <si>
     <t>carbon, ghg, and nutrients</t>
   </si>
   <si>
@@ -1535,9 +1475,6 @@
     <t>to do - look for violent crime instead of firearm deaths</t>
   </si>
   <si>
-    <t>Only have data for 2022. If we can't find more, then use social associations instead</t>
-  </si>
-  <si>
     <t>could check natural capital index</t>
   </si>
   <si>
@@ -1559,18 +1496,12 @@
     <t>Market channel ratio</t>
   </si>
   <si>
-    <t>Functionally only 2 NASS variables that work here, despite many apparent options: retail and wholesale.</t>
-  </si>
-  <si>
     <t>retailSalesPropWholesale</t>
   </si>
   <si>
     <t>Proportion of commodity sales, including value-added, from retail channels to wholesale channels</t>
   </si>
   <si>
-    <t>target: 50/50?</t>
-  </si>
-  <si>
     <t>forests</t>
   </si>
   <si>
@@ -1617,6 +1548,78 @@
   </si>
   <si>
     <t>target</t>
+  </si>
+  <si>
+    <t>propForest</t>
+  </si>
+  <si>
+    <t>Proportion of forest</t>
+  </si>
+  <si>
+    <t>multiple this by acres of land to get acres of forest</t>
+  </si>
+  <si>
+    <t>Functionally only 2 NASS variables that work here, despite many apparent options: retail and wholesale. And it is dominated by wholesale, so if we want diversity here, it should just be a higher ratio of retail to wholesale</t>
+  </si>
+  <si>
+    <t>Soil respiration</t>
+  </si>
+  <si>
+    <t>Soil organic carbon</t>
+  </si>
+  <si>
+    <t>Available water storage</t>
+  </si>
+  <si>
+    <t>U.S. Department of Agriculture, Natural Resources Conservation Service (2025). Soil Survey Geographic Database (SSURGO)</t>
+  </si>
+  <si>
+    <t>https://www.nrcs.usda.gov/resources/data-and-reports/gridded-soil-survey-geographic-gssurgo-database</t>
+  </si>
+  <si>
+    <t>The State of Soil Health in Vermont</t>
+  </si>
+  <si>
+    <t>https://www.uvm.edu/extension/nwcrops/state-soil-health-vermont</t>
+  </si>
+  <si>
+    <t>Metabolic diversity</t>
+  </si>
+  <si>
+    <t>Not in state of VT soils or SSURGO apparently</t>
+  </si>
+  <si>
+    <t>soilOrganicCarbon</t>
+  </si>
+  <si>
+    <t>availableWaterStorage</t>
+  </si>
+  <si>
+    <t>Available water storage estimate (AWS) as a sum of layers 1, 2, and 3 (0 to 50 cm depth total) expressed in mm. The volume of plant available water that the soil can store in this layer based on all map unit components (weighted average).</t>
+  </si>
+  <si>
+    <t>Soil organic carbon stock estimate (SOC) as weighted average of standard layers 1, 2, and 3 (0 to 50cm depth total). The concentration of organic carbon present in the soil expressed in grams C per square meter</t>
+  </si>
+  <si>
+    <t>Functional metabolic diversity as % (percent of available carbon substrates metabolized within 72 hours)</t>
+  </si>
+  <si>
+    <t>Vermont only. Not pulling data because it can't be compared</t>
+  </si>
+  <si>
+    <t>Soil respiration in mg CO2/g</t>
+  </si>
+  <si>
+    <t>not collecting - nothing to compare</t>
+  </si>
+  <si>
+    <t>Need to see whether state or county level makes more sense based on number of observations. Also note that 2024 data exist but are very sparse (about a third of the observations of 2021)</t>
+  </si>
+  <si>
+    <t>New question in 2023, only 2 years data</t>
+  </si>
+  <si>
+    <t>New question in 2024, only 1 year data</t>
   </si>
 </sst>
 </file>
@@ -1934,7 +1937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2067,6 +2070,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2075,12 +2081,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2089,18 +2101,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill>
@@ -2161,6 +2167,13 @@
       <fill>
         <patternFill>
           <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2592,8 +2605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D1AE80-3BFB-3B41-8518-A67336181549}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2624,19 +2637,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>5</v>
@@ -2648,7 +2661,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="M1" s="21" t="s">
         <v>8</v>
@@ -2670,26 +2683,26 @@
       <c r="A2" s="24">
         <v>3</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>15</v>
@@ -2701,7 +2714,7 @@
         <v>22</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M2" s="22" t="s">
         <v>30</v>
@@ -2711,25 +2724,27 @@
       </c>
       <c r="O2" s="22"/>
       <c r="P2" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="60"/>
+      <c r="B3" s="59" t="s">
+        <v>20</v>
+      </c>
       <c r="C3" s="35" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F3" s="40" t="s">
         <v>32</v>
@@ -2743,7 +2758,7 @@
       <c r="M3" s="20"/>
       <c r="N3" s="34"/>
       <c r="O3" s="20" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="P3" s="20"/>
       <c r="Q3" s="34" t="s">
@@ -2754,12 +2769,14 @@
       <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="59" t="s">
+        <v>20</v>
+      </c>
       <c r="C4" s="35" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="34" t="s">
@@ -2785,24 +2802,26 @@
       <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="59" t="s">
-        <v>467</v>
+      <c r="B5" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>449</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>15</v>
@@ -2811,10 +2830,10 @@
         <v>21</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>465</v>
+        <v>306</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M5" s="22" t="s">
         <v>30</v>
@@ -2824,32 +2843,34 @@
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="24">
         <v>3</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="59"/>
+      <c r="B6" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="60"/>
       <c r="D6" s="53" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H6" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="I6" s="22" t="s">
         <v>15</v>
@@ -2858,10 +2879,10 @@
         <v>16</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M6" s="22" t="s">
         <v>26</v>
@@ -2873,7 +2894,7 @@
         <v>28</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q6" s="22" t="s">
         <v>29</v>
@@ -2883,23 +2904,23 @@
       <c r="A7" s="23">
         <v>2</v>
       </c>
-      <c r="B7" s="60" t="s">
-        <v>477</v>
+      <c r="B7" s="59" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="22" t="s">
@@ -2909,10 +2930,10 @@
         <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M7" s="22" t="s">
         <v>17</v>
@@ -2922,7 +2943,7 @@
       </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="22" t="s">
         <v>19</v>
@@ -2932,12 +2953,14 @@
       <c r="A8" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="59" t="s">
+        <v>34</v>
+      </c>
       <c r="C8" s="35" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="40" t="s">
@@ -2963,12 +2986,14 @@
       <c r="A9" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="60"/>
+      <c r="B9" s="59" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" s="35" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="40" t="s">
@@ -2994,26 +3019,26 @@
       <c r="A10" s="24">
         <v>3</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="61" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="I10" s="22" t="s">
         <v>15</v>
@@ -3025,7 +3050,7 @@
         <v>22</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M10" s="22" t="s">
         <v>30</v>
@@ -3035,32 +3060,34 @@
       </c>
       <c r="O10" s="22"/>
       <c r="P10" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>3</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
+      <c r="B11" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="61"/>
       <c r="D11" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>37</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H11" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>15</v>
@@ -3069,10 +3096,10 @@
         <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M11" s="22" t="s">
         <v>17</v>
@@ -3082,7 +3109,7 @@
       </c>
       <c r="O11" s="22"/>
       <c r="P11" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="22" t="s">
         <v>39</v>
@@ -3092,22 +3119,24 @@
       <c r="A12" s="24">
         <v>3</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
+      <c r="B12" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="61"/>
       <c r="D12" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H12" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>15</v>
@@ -3119,7 +3148,7 @@
         <v>22</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M12" s="22" t="s">
         <v>17</v>
@@ -3129,34 +3158,36 @@
       </c>
       <c r="O12" s="22"/>
       <c r="P12" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q12" s="22" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>3</v>
       </c>
-      <c r="B13" s="60"/>
+      <c r="B13" s="59" t="s">
+        <v>34</v>
+      </c>
       <c r="C13" s="28" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>15</v>
@@ -3168,7 +3199,7 @@
         <v>22</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>506</v>
+        <v>316</v>
       </c>
       <c r="M13" s="22" t="s">
         <v>17</v>
@@ -3180,22 +3211,24 @@
         <v>503</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q13" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="60"/>
+      <c r="B14" s="59" t="s">
+        <v>34</v>
+      </c>
       <c r="C14" s="35" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="25" t="s">
@@ -3221,24 +3254,26 @@
       <c r="A15" s="24">
         <v>3</v>
       </c>
-      <c r="B15" s="60"/>
+      <c r="B15" s="59" t="s">
+        <v>34</v>
+      </c>
       <c r="C15" s="28" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>15</v>
@@ -3250,7 +3285,7 @@
         <v>22</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M15" s="22" t="s">
         <v>44</v>
@@ -3260,34 +3295,36 @@
       </c>
       <c r="O15" s="22"/>
       <c r="P15" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>3</v>
       </c>
-      <c r="B16" s="60"/>
+      <c r="B16" s="59" t="s">
+        <v>34</v>
+      </c>
       <c r="C16" s="28" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="G16" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="H16" s="22" t="s">
         <v>340</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>352</v>
       </c>
       <c r="I16" s="22" t="s">
         <v>15</v>
@@ -3296,23 +3333,23 @@
         <v>21</v>
       </c>
       <c r="K16" t="s">
+        <v>305</v>
+      </c>
+      <c r="L16" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="L16" s="22" t="s">
-        <v>329</v>
-      </c>
       <c r="M16" s="22" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="O16" s="22"/>
       <c r="P16" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -3327,15 +3364,12 @@
     <sortCondition ref="F2:F16"/>
   </sortState>
   <dataConsolidate/>
-  <mergeCells count="5">
+  <mergeCells count="2">
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3346,10 +3380,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802AE4B4-391E-474A-9621-08E11B188749}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3379,19 +3413,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="H1" s="55" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>5</v>
@@ -3403,7 +3437,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="M1" s="21" t="s">
         <v>8</v>
@@ -3425,23 +3459,23 @@
       <c r="A2" s="23">
         <v>2</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>486</v>
-      </c>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="61" t="s">
+        <v>466</v>
+      </c>
+      <c r="C2" s="61" t="s">
         <v>50</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="H2" t="s">
         <v>51</v>
@@ -3453,22 +3487,22 @@
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M2" s="22" t="s">
         <v>52</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="P2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="Q2" s="22" t="s">
         <v>53</v>
@@ -3478,19 +3512,19 @@
       <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="H3" t="s">
         <v>54</v>
@@ -3502,19 +3536,19 @@
         <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M3" s="22" t="s">
         <v>52</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="P3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="Q3" s="22" t="s">
         <v>55</v>
@@ -3524,19 +3558,19 @@
       <c r="A4" s="23">
         <v>2</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
@@ -3548,22 +3582,22 @@
         <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>52</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="P4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="Q4" s="22" t="s">
         <v>57</v>
@@ -3573,75 +3607,75 @@
       <c r="A5" s="23">
         <v>2</v>
       </c>
-      <c r="B5" s="60"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="28" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H5" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>66</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>22</v>
+        <v>283</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="28" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="I6" s="22" t="s">
         <v>15</v>
@@ -3650,10 +3684,10 @@
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M6" s="22" t="s">
         <v>17</v>
@@ -3661,36 +3695,36 @@
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="24">
         <v>3</v>
       </c>
-      <c r="B7" s="60" t="s">
-        <v>507</v>
-      </c>
-      <c r="C7" s="60" t="s">
+      <c r="B7" s="61" t="s">
+        <v>484</v>
+      </c>
+      <c r="C7" s="61" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H7" s="56" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="I7" s="22" t="s">
         <v>15</v>
@@ -3698,48 +3732,48 @@
       <c r="J7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="22" t="s">
-        <v>482</v>
+      <c r="K7" s="49" t="s">
+        <v>283</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="24">
         <v>3</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H8" s="56" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="I8" s="22" t="s">
         <v>15</v>
@@ -3747,50 +3781,50 @@
       <c r="J8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="22" t="s">
-        <v>482</v>
+      <c r="K8" s="49" t="s">
+        <v>283</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="24">
         <v>3</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60" t="s">
+      <c r="B9" s="61"/>
+      <c r="C9" s="61" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="I9" s="22" t="s">
         <v>15</v>
@@ -3798,545 +3832,548 @@
       <c r="J9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="22" t="s">
-        <v>482</v>
+      <c r="K9" s="49" t="s">
+        <v>283</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="P9" s="49" t="s">
-        <v>517</v>
+        <v>521</v>
+      </c>
+      <c r="P9" s="50" t="s">
+        <v>494</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <v>3</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="J10" s="22" t="s">
         <v>21</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="P10" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q10" s="22"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="26">
+        <v>1</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="N11" s="46" t="s">
+        <v>510</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="26">
+        <v>1</v>
+      </c>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="N12" s="46" t="s">
+        <v>510</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q12" s="22"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="26">
+        <v>1</v>
+      </c>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="22" t="s">
         <v>516</v>
       </c>
-      <c r="Q10" s="22"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
-        <v>2</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="29" t="s">
+      <c r="I13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="26">
+        <v>1</v>
+      </c>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="G14" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26">
+        <v>1</v>
+      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="I15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" t="s">
-        <v>307</v>
-      </c>
-      <c r="L11" s="22" t="s">
+      <c r="K15" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
+        <v>3</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="M11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N11" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="O11" t="s">
-        <v>99</v>
-      </c>
-      <c r="P11" s="48" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
-        <v>2</v>
-      </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="K12" t="s">
-        <v>307</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="M12" t="s">
-        <v>97</v>
-      </c>
-      <c r="N12" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="O12" t="s">
-        <v>99</v>
-      </c>
-      <c r="P12" s="48" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
-        <v>2</v>
-      </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" t="s">
-        <v>96</v>
-      </c>
-      <c r="K13" t="s">
-        <v>307</v>
-      </c>
-      <c r="L13" t="s">
-        <v>328</v>
-      </c>
-      <c r="M13" t="s">
-        <v>97</v>
-      </c>
-      <c r="N13" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="O13" t="s">
-        <v>99</v>
-      </c>
-      <c r="P13" s="48" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
-        <v>2</v>
-      </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="I14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" t="s">
-        <v>96</v>
-      </c>
-      <c r="K14" t="s">
-        <v>307</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="M14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N14" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="O14" t="s">
-        <v>99</v>
-      </c>
-      <c r="P14" s="48" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
-        <v>2</v>
-      </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="H15" s="22"/>
-      <c r="I15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" t="s">
-        <v>96</v>
-      </c>
-      <c r="K15" t="s">
-        <v>307</v>
-      </c>
-      <c r="L15" s="22"/>
-      <c r="M15" t="s">
-        <v>97</v>
-      </c>
-      <c r="N15" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="O15" t="s">
-        <v>99</v>
-      </c>
-      <c r="P15" s="48" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
-        <v>2</v>
-      </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>105</v>
-      </c>
       <c r="G16" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="H16" s="22"/>
-      <c r="I16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16" t="s">
-        <v>96</v>
-      </c>
-      <c r="K16" t="s">
-        <v>307</v>
-      </c>
-      <c r="L16" s="22"/>
-      <c r="M16" t="s">
-        <v>97</v>
-      </c>
-      <c r="N16" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="O16" t="s">
-        <v>99</v>
-      </c>
-      <c r="P16" s="48" t="s">
-        <v>427</v>
+        <v>359</v>
+      </c>
+      <c r="H16" t="s">
+        <v>334</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="P16" s="49" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>3</v>
       </c>
-      <c r="B17" s="60" t="s">
-        <v>350</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>61</v>
-      </c>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="H17" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="I17" s="22" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="N17" s="22"/>
       <c r="O17" s="22" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="P17" s="49" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="Q17" s="22" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
-        <v>3</v>
-      </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
+      <c r="A18" s="23">
+        <v>2</v>
+      </c>
+      <c r="B18" s="61"/>
+      <c r="C18" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="D18" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>343</v>
+        <v>65</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>372</v>
+        <v>120</v>
       </c>
       <c r="H18" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>335</v>
+        <v>21</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="N18" s="22"/>
+        <v>67</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>68</v>
+      </c>
       <c r="O18" s="22" t="s">
-        <v>349</v>
+        <v>69</v>
       </c>
       <c r="P18" s="49" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="Q18" s="22" t="s">
-        <v>347</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>2</v>
       </c>
-      <c r="B19" s="60"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="28" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>129</v>
+        <v>359</v>
       </c>
       <c r="H19" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="J19" s="22" t="s">
         <v>21</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N19" s="22" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="P19" s="49" t="s">
-        <v>428</v>
+        <v>73</v>
+      </c>
+      <c r="P19" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="Q19" s="22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
-        <v>2</v>
-      </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="28" t="s">
-        <v>71</v>
+      <c r="A20" s="26">
+        <v>1</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>76</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>464</v>
+        <v>94</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>372</v>
+        <v>120</v>
       </c>
       <c r="H20" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="I20" s="22" t="s">
         <v>46</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>295</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K20" s="22"/>
       <c r="L20" s="22" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="P20" s="22" t="s">
-        <v>364</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="22" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>1</v>
       </c>
-      <c r="B21" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>76</v>
-      </c>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H21" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="I21" s="22" t="s">
         <v>46</v>
@@ -4346,7 +4383,7 @@
       </c>
       <c r="K21" s="22"/>
       <c r="L21" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M21" s="22" t="s">
         <v>78</v>
@@ -4358,195 +4395,144 @@
         <v>80</v>
       </c>
       <c r="P21" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q21" s="22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="26">
-        <v>1</v>
-      </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
+      <c r="A22" s="23">
+        <v>2</v>
+      </c>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61" t="s">
+        <v>84</v>
+      </c>
       <c r="D22" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>96</v>
+        <v>447</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>82</v>
+        <v>344</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H22" t="s">
-        <v>442</v>
+        <v>345</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>46</v>
+        <v>346</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="22"/>
+        <v>347</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>283</v>
+      </c>
       <c r="L22" s="22" t="s">
-        <v>328</v>
+        <v>499</v>
       </c>
       <c r="M22" s="22" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="O22" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="P22" s="22" t="s">
-        <v>263</v>
+        <v>86</v>
+      </c>
+      <c r="O22" s="22"/>
+      <c r="P22" s="50" t="s">
+        <v>353</v>
       </c>
       <c r="Q22" s="22" t="s">
-        <v>83</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>2</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60" t="s">
-        <v>84</v>
-      </c>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>356</v>
+        <v>87</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H23" t="s">
-        <v>357</v>
+        <v>428</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>358</v>
+        <v>15</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>359</v>
+        <v>88</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>522</v>
+        <v>317</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="O23" s="22"/>
-      <c r="P23" s="50" t="s">
-        <v>365</v>
+        <v>90</v>
+      </c>
+      <c r="O23" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="P23" s="22" t="s">
+        <v>252</v>
       </c>
       <c r="Q23" s="22" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
-        <v>2</v>
-      </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="28" t="s">
-        <v>464</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>464</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H24" t="s">
-        <v>443</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="M24" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="N24" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="O24" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="P24" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q24" s="22" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q24">
-    <sortCondition ref="B2:B24"/>
-    <sortCondition ref="C2:C24"/>
-    <sortCondition ref="F2:F24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q23">
+    <sortCondition ref="B2:B23"/>
+    <sortCondition ref="C2:C23"/>
+    <sortCondition ref="F2:F23"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B23"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C20:C21"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L4 K20:L24">
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+  <conditionalFormatting sqref="K2:L4 K19:L23">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="N11" r:id="rId1" xr:uid="{3D79DC03-4AD8-4138-BA78-16543353E812}"/>
-    <hyperlink ref="N14" r:id="rId2" xr:uid="{2C5D8387-C3E7-4558-8512-24776549ECBC}"/>
-    <hyperlink ref="N16" r:id="rId3" xr:uid="{74409AF7-44EC-4DDA-94CE-5CFE6B6EF45D}"/>
-    <hyperlink ref="N15" r:id="rId4" xr:uid="{C809E76F-A449-46AC-8602-30F16878D60F}"/>
-    <hyperlink ref="N12" r:id="rId5" xr:uid="{E454A5A6-3A9A-4343-AB97-574D153141D3}"/>
-    <hyperlink ref="N13" r:id="rId6" xr:uid="{A9860B9E-3E33-44F9-9771-16C1931572D4}"/>
+    <hyperlink ref="N13" r:id="rId1" xr:uid="{EB6BDC39-8ADC-422E-BC41-57AC7D94AB43}"/>
+    <hyperlink ref="N15" r:id="rId2" xr:uid="{BE6247DD-9AB3-4AC3-A6FB-CD722F1DEA22}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4556,9 +4542,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F95016-FFA1-D04E-AB0C-5DF6EE3EB4E3}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4567,9 +4553,9 @@
     <col min="3" max="3" width="35.109375" style="51" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
     <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="38.77734375" customWidth="1"/>
+    <col min="6" max="6" width="34.21875" customWidth="1"/>
     <col min="7" max="7" width="17.5546875" customWidth="1"/>
-    <col min="8" max="8" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" customWidth="1"/>
     <col min="11" max="12" width="14.21875" customWidth="1"/>
     <col min="15" max="15" width="35" customWidth="1"/>
     <col min="16" max="16" width="25.109375" customWidth="1"/>
@@ -4587,19 +4573,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>5</v>
@@ -4611,7 +4597,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="M1" s="21" t="s">
         <v>8</v>
@@ -4634,25 +4620,25 @@
         <v>3</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>15</v>
@@ -4661,98 +4647,98 @@
         <v>16</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="N2" s="22" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="49"/>
       <c r="P2" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>110</v>
+      <c r="B3" s="61" t="s">
+        <v>101</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="22" t="s">
         <v>46</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K3" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="28" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H4" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>15</v>
@@ -4761,10 +4747,10 @@
         <v>21</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>23</v>
@@ -4773,37 +4759,37 @@
         <v>24</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="P4" s="50" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" s="60"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="38" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H5" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>15</v>
@@ -4812,35 +4798,35 @@
         <v>21</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="39" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="40" t="s">
@@ -4855,7 +4841,7 @@
       <c r="M6" s="34"/>
       <c r="N6" s="34"/>
       <c r="O6" s="57" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="P6" s="34"/>
       <c r="Q6" s="25" t="s">
@@ -4866,24 +4852,24 @@
       <c r="A7" s="24">
         <v>3</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="47" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H7" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="I7" s="22" t="s">
         <v>15</v>
@@ -4892,90 +4878,90 @@
         <v>21</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>2</v>
       </c>
-      <c r="B8" s="60" t="s">
-        <v>134</v>
+      <c r="B8" s="61" t="s">
+        <v>125</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="N8" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="O8" t="s">
-        <v>417</v>
+        <v>523</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="60"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="39" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="40" t="s">
@@ -4999,24 +4985,24 @@
       <c r="A10" s="23">
         <v>2</v>
       </c>
-      <c r="B10" s="60"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="29" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H10" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="I10" s="22" t="s">
         <v>15</v>
@@ -5025,10 +5011,10 @@
         <v>21</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M10" s="22" t="s">
         <v>23</v>
@@ -5037,39 +5023,39 @@
         <v>24</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>3</v>
       </c>
-      <c r="B11" s="60" t="s">
-        <v>138</v>
+      <c r="B11" s="61" t="s">
+        <v>129</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H11" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>15</v>
@@ -5078,10 +5064,10 @@
         <v>21</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M11" s="22" t="s">
         <v>23</v>
@@ -5090,34 +5076,34 @@
         <v>24</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>2</v>
       </c>
-      <c r="B12" s="60"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="28" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H12" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>15</v>
@@ -5126,49 +5112,49 @@
         <v>16</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="N12" s="22" t="s">
         <v>27</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q12" s="22" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>2</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61" t="s">
-        <v>146</v>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62" t="s">
+        <v>137</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H13" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>15</v>
@@ -5177,10 +5163,10 @@
         <v>21</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M13" s="22" t="s">
         <v>23</v>
@@ -5189,86 +5175,86 @@
         <v>24</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="22" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>2</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="29" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>15</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M14" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="N14" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="O14" t="s">
-        <v>417</v>
+        <v>522</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="22" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>2</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60" t="s">
-        <v>149</v>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61" t="s">
+        <v>140</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>46</v>
@@ -5277,45 +5263,45 @@
         <v>21</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="O15" s="22"/>
       <c r="P15" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>2</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="I16" s="22" t="s">
         <v>46</v>
@@ -5324,47 +5310,47 @@
         <v>21</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="O16" s="22"/>
       <c r="P16" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>3</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61" t="s">
-        <v>487</v>
+      <c r="B17" s="61"/>
+      <c r="C17" s="62" t="s">
+        <v>467</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H17" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="I17" s="22" t="s">
         <v>15</v>
@@ -5373,10 +5359,10 @@
         <v>21</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M17" s="22" t="s">
         <v>23</v>
@@ -5385,59 +5371,56 @@
         <v>24</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="Q17" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>3</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="29" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="I18" s="22" t="s">
         <v>15</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M18" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="N18" t="s">
-        <v>416</v>
-      </c>
-      <c r="O18" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q18" s="22" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -5462,7 +5445,7 @@
     <mergeCell ref="C15:C16"/>
   </mergeCells>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5475,20 +5458,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345648BA-9C58-4148-8A4E-841344F5CF5C}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="31"/>
     <col min="2" max="2" width="25.5546875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="29" customWidth="1"/>
     <col min="6" max="6" width="33.6640625" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="8" max="8" width="54" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" customWidth="1"/>
     <col min="11" max="11" width="21.33203125" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" customWidth="1"/>
@@ -5510,19 +5494,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>5</v>
@@ -5534,7 +5518,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="M1" s="21" t="s">
         <v>8</v>
@@ -5556,26 +5540,26 @@
       <c r="A2" s="24">
         <v>3</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>150</v>
+      <c r="B2" s="60" t="s">
+        <v>141</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="H2" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>46</v>
@@ -5584,49 +5568,49 @@
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="Q2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="28" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="H3" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="I3" s="22" t="s">
         <v>46</v>
@@ -5635,25 +5619,25 @@
         <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="O3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="Q3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -5661,25 +5645,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>15</v>
@@ -5688,10 +5672,10 @@
         <v>16</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>44</v>
@@ -5701,10 +5685,10 @@
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q4" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -5712,25 +5696,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="H5" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>66</v>
@@ -5739,49 +5723,49 @@
         <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="26">
         <v>1</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>167</v>
+      <c r="B6" s="61" t="s">
+        <v>158</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H6" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="I6" s="30" t="s">
         <v>15</v>
@@ -5790,10 +5774,10 @@
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M6" s="22" t="s">
         <v>17</v>
@@ -5803,34 +5787,34 @@
       </c>
       <c r="O6" s="22"/>
       <c r="P6" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q6" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>2</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="28" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="I7" s="22" t="s">
         <v>15</v>
@@ -5839,10 +5823,10 @@
         <v>16</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M7" s="22" t="s">
         <v>44</v>
@@ -5851,13 +5835,13 @@
         <v>45</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q7" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="R7"/>
     </row>
@@ -5865,26 +5849,26 @@
       <c r="A8" s="26">
         <v>1</v>
       </c>
-      <c r="B8" s="59" t="s">
-        <v>171</v>
+      <c r="B8" s="60" t="s">
+        <v>162</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H8" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="I8" s="22" t="s">
         <v>15</v>
@@ -5893,10 +5877,10 @@
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M8" s="22" t="s">
         <v>17</v>
@@ -5905,37 +5889,37 @@
         <v>18</v>
       </c>
       <c r="O8" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q8" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>2</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="28" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="I9" s="22" t="s">
         <v>46</v>
@@ -5944,10 +5928,10 @@
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M9" s="22" t="s">
         <v>17</v>
@@ -5956,23 +5940,23 @@
         <v>18</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
-      <c r="B10" s="59"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="39" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="34" t="s">
@@ -5987,31 +5971,31 @@
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
       <c r="O10" s="34" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="P10" s="34"/>
       <c r="Q10" s="34"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
-      <c r="B11" s="59"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="28" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>15</v>
@@ -6020,10 +6004,10 @@
         <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M11" s="22" t="s">
         <v>44</v>
@@ -6033,34 +6017,34 @@
       </c>
       <c r="O11" s="22"/>
       <c r="P11" s="22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q11" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>2</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60" t="s">
-        <v>178</v>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61" t="s">
+        <v>169</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>46</v>
@@ -6069,45 +6053,45 @@
         <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="N12" s="22" t="s">
         <v>45</v>
       </c>
       <c r="O12" s="22"/>
       <c r="P12" s="49" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="Q12" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>2</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>46</v>
@@ -6116,10 +6100,10 @@
         <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M13" s="22" t="s">
         <v>44</v>
@@ -6129,32 +6113,32 @@
       </c>
       <c r="O13" s="22"/>
       <c r="P13" s="49" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="Q13" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>2</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>46</v>
@@ -6163,23 +6147,23 @@
         <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="N14" s="22" t="s">
         <v>45</v>
       </c>
       <c r="O14" s="22"/>
       <c r="P14" s="49" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="Q14" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -6187,13 +6171,13 @@
         <v>32</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="44" t="s">
@@ -6208,7 +6192,7 @@
       <c r="M15" s="35"/>
       <c r="N15" s="35"/>
       <c r="O15" s="44" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
@@ -6226,22 +6210,22 @@
     <mergeCell ref="B6:B7"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:L3 Q11 K11:L14">
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L5">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L9">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q3 Q5 Q8:Q9">
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6251,11 +6235,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB29AFA-0DDE-5049-B8DC-113E6F66B101}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6287,19 +6271,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>5</v>
@@ -6311,7 +6295,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="M1" s="17" t="s">
         <v>8</v>
@@ -6333,14 +6317,14 @@
       <c r="A2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>182</v>
+      <c r="B2" s="62" t="s">
+        <v>173</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E2" s="37"/>
       <c r="F2" s="20" t="s">
@@ -6362,12 +6346,12 @@
       <c r="A3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="37" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="20" t="s">
@@ -6389,12 +6373,12 @@
       <c r="A4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="37" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="20" t="s">
@@ -6416,12 +6400,12 @@
       <c r="A5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="37" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="20" t="s">
@@ -6441,26 +6425,26 @@
     </row>
     <row r="6" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61" t="s">
-        <v>187</v>
+        <v>2</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="29" t="s">
+        <v>178</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>96</v>
+        <v>447</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>96</v>
+        <v>447</v>
       </c>
       <c r="F6" t="s">
-        <v>188</v>
+        <v>401</v>
       </c>
       <c r="G6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H6" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
@@ -6469,84 +6453,64 @@
         <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="L6" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>402</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>403</v>
       </c>
       <c r="O6" t="s">
-        <v>371</v>
+        <v>523</v>
       </c>
       <c r="P6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="Q6" t="s">
-        <v>189</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>464</v>
-      </c>
+      <c r="A7" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="E7" s="37"/>
       <c r="F7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" t="s">
-        <v>425</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L7" t="s">
-        <v>329</v>
-      </c>
-      <c r="M7" t="s">
-        <v>415</v>
-      </c>
-      <c r="N7" t="s">
-        <v>416</v>
-      </c>
-      <c r="O7" t="s">
-        <v>495</v>
-      </c>
-      <c r="P7" s="49"/>
-      <c r="Q7" t="s">
-        <v>424</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" t="s">
@@ -6565,68 +6529,90 @@
       <c r="Q8" s="20"/>
     </row>
     <row r="9" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>464</v>
-      </c>
-      <c r="E9" s="37"/>
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>447</v>
+      </c>
       <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
+        <v>371</v>
+      </c>
+      <c r="G9" t="s">
+        <v>328</v>
+      </c>
+      <c r="H9" t="s">
+        <v>372</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>243</v>
+      </c>
+      <c r="L9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" t="s">
+        <v>373</v>
+      </c>
+      <c r="P9" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="10" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>192</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B10" s="62"/>
       <c r="C10" s="29" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>464</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="E10" s="29"/>
       <c r="F10" t="s">
-        <v>384</v>
+        <v>184</v>
       </c>
       <c r="G10" t="s">
-        <v>340</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>458</v>
+        <v>328</v>
+      </c>
+      <c r="H10" t="s">
+        <v>184</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>385</v>
+        <v>243</v>
       </c>
       <c r="L10" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="M10" t="s">
         <v>17</v>
@@ -6634,36 +6620,34 @@
       <c r="N10" t="s">
         <v>18</v>
       </c>
-      <c r="O10" t="s">
-        <v>386</v>
-      </c>
+      <c r="O10"/>
       <c r="P10" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q10" t="s">
-        <v>387</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="61"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="29" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G11" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H11" t="s">
-        <v>195</v>
+        <v>441</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
@@ -6672,10 +6656,10 @@
         <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="L11" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="M11" t="s">
         <v>17</v>
@@ -6685,227 +6669,209 @@
       </c>
       <c r="O11"/>
       <c r="P11" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="62"/>
+      <c r="C12" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+    </row>
+    <row r="13" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" t="s">
+        <v>415</v>
+      </c>
+      <c r="G13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" t="s">
+        <v>444</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>312</v>
+      </c>
+      <c r="L13" t="s">
+        <v>317</v>
+      </c>
+      <c r="M13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13"/>
+      <c r="P13" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" t="s">
+        <v>498</v>
+      </c>
+      <c r="G14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="29" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="29" t="s">
+      <c r="D15" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="F15" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" t="s">
+      <c r="G15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" t="s">
+        <v>443</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>312</v>
+      </c>
+      <c r="L15" t="s">
+        <v>316</v>
+      </c>
+      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15"/>
+      <c r="P15" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q15" t="s">
         <v>198</v>
       </c>
-      <c r="G12" t="s">
-        <v>340</v>
-      </c>
-      <c r="H12" t="s">
-        <v>457</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" t="s">
-        <v>254</v>
-      </c>
-      <c r="L12" t="s">
-        <v>328</v>
-      </c>
-      <c r="M12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12"/>
-      <c r="P12" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q12" t="s">
+    </row>
+    <row r="16" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="62"/>
+      <c r="C16" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>464</v>
-      </c>
-      <c r="E13" s="37"/>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-    </row>
-    <row r="14" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" t="s">
-        <v>430</v>
-      </c>
-      <c r="G14" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" t="s">
-        <v>461</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" t="s">
-        <v>324</v>
-      </c>
-      <c r="L14" t="s">
-        <v>329</v>
-      </c>
-      <c r="M14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14"/>
-      <c r="P14" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" t="s">
-        <v>521</v>
-      </c>
-      <c r="G15" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15" s="48" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q15"/>
-    </row>
-    <row r="16" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F16" t="s">
-        <v>208</v>
-      </c>
-      <c r="G16" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" t="s">
-        <v>460</v>
-      </c>
-      <c r="I16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" t="s">
-        <v>324</v>
-      </c>
-      <c r="L16" t="s">
-        <v>328</v>
-      </c>
-      <c r="M16" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" t="s">
-        <v>24</v>
-      </c>
-      <c r="O16"/>
-      <c r="P16" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>209</v>
-      </c>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
     </row>
     <row r="17" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="61"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="37" t="s">
-        <v>493</v>
+        <v>200</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="20" t="s">
@@ -6920,21 +6886,23 @@
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
     </row>
-    <row r="18" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="61"/>
+      <c r="B18" s="62" t="s">
+        <v>202</v>
+      </c>
       <c r="C18" s="37" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="20" t="s">
@@ -6948,9 +6916,7 @@
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
-      <c r="O18" s="20" t="s">
-        <v>210</v>
-      </c>
+      <c r="O18" s="20"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
     </row>
@@ -6958,17 +6924,15 @@
       <c r="A19" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="61" t="s">
-        <v>213</v>
-      </c>
+      <c r="B19" s="62"/>
       <c r="C19" s="37" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E19" s="37"/>
-      <c r="F19" s="20" t="s">
+      <c r="F19" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="20"/>
@@ -6979,62 +6943,86 @@
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
+      <c r="O19" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="P19" s="57" t="s">
+        <v>475</v>
+      </c>
       <c r="Q19" s="20"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>464</v>
-      </c>
-      <c r="E20" s="37"/>
+    <row r="20" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="62"/>
+      <c r="C20" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>447</v>
+      </c>
       <c r="F20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="P20" s="57" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q20" s="20"/>
+        <v>207</v>
+      </c>
+      <c r="G20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s">
+        <v>312</v>
+      </c>
+      <c r="L20" t="s">
+        <v>320</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" t="s">
+        <v>208</v>
+      </c>
+      <c r="P20" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q20"/>
     </row>
     <row r="21" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20">
+      <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" s="61"/>
+      <c r="B21" s="62" t="s">
+        <v>190</v>
+      </c>
       <c r="C21" s="29" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F21" t="s">
-        <v>218</v>
+        <v>442</v>
       </c>
       <c r="G21" t="s">
-        <v>129</v>
-      </c>
-      <c r="H21"/>
+        <v>328</v>
+      </c>
+      <c r="H21" t="s">
+        <v>192</v>
+      </c>
       <c r="I21" t="s">
         <v>15</v>
       </c>
@@ -7042,159 +7030,112 @@
         <v>16</v>
       </c>
       <c r="K21" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="L21" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="M21" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N21" t="s">
-        <v>27</v>
-      </c>
-      <c r="O21" t="s">
-        <v>219</v>
-      </c>
-      <c r="P21" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q21"/>
+        <v>18</v>
+      </c>
+      <c r="O21"/>
+      <c r="P21" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="22" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" s="61" t="s">
-        <v>201</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F22" t="s">
-        <v>459</v>
-      </c>
-      <c r="G22" t="s">
-        <v>340</v>
-      </c>
-      <c r="H22" t="s">
-        <v>203</v>
-      </c>
-      <c r="I22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" t="s">
-        <v>307</v>
-      </c>
-      <c r="L22" t="s">
-        <v>328</v>
-      </c>
-      <c r="M22" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" t="s">
-        <v>18</v>
-      </c>
-      <c r="O22"/>
-      <c r="P22" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>464</v>
-      </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="19" t="s">
+      <c r="B22" s="62"/>
+      <c r="C22" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{9FB29AFA-0DDE-5049-B8DC-113E6F66B101}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q23">
-    <sortCondition ref="B2:B23"/>
-    <sortCondition ref="C2:C23"/>
-    <sortCondition ref="F2:F23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q22">
+    <sortCondition ref="B2:B22"/>
+    <sortCondition ref="C2:C22"/>
+    <sortCondition ref="F2:F22"/>
   </sortState>
-  <mergeCells count="7">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B18"/>
+  <mergeCells count="6">
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"pull it"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"find source"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="16" priority="19">
+    <cfRule type="containsBlanks" dxfId="17" priority="20">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
       <formula>"rework"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A7 A10:A12 A14:A16 A19 A22:A23">
-    <cfRule type="cellIs" dxfId="13" priority="25" operator="equal">
+  <conditionalFormatting sqref="A9:A11 A13:A15 A18 A21:A22 A6">
+    <cfRule type="cellIs" dxfId="14" priority="26" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:H9 Q2:Q14 I6:I7 J7 L7 F10:G10 I10:J10 K10:L12 F11:H23 L16 Q16:Q18 I21 Q21:Q23">
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+  <conditionalFormatting sqref="L6 K10:L11 F10:H22 L15 Q15:Q17 I20 Q20:Q22 F1:H8 Q2:Q13 I6:J6">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:L14">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+  <conditionalFormatting sqref="F9:L9">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>"NONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:L13">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"NONE"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7218,88 +7159,88 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="73"/>
+      <c r="A2" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="66"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="63"/>
+      <c r="A3" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="68"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="62" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="63"/>
+      <c r="A5" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="68"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="66" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" s="67"/>
+      <c r="A6" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="64"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="B8" s="63"/>
+      <c r="A8" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="68"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" s="67"/>
+      <c r="A9" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="64"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
-      <c r="B10" s="67"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="64"/>
     </row>
     <row r="11" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" s="69"/>
+      <c r="A11" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="72"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
-        <v>229</v>
-      </c>
-      <c r="B12" s="63"/>
+      <c r="A12" s="73" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="68"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="71"/>
-      <c r="B13" s="63"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="68"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="62" t="s">
-        <v>230</v>
-      </c>
-      <c r="B14" s="63"/>
+      <c r="A14" s="67" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="68"/>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="B15" s="65"/>
+      <c r="A15" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="70"/>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B17" s="2"/>
     </row>
@@ -7308,31 +7249,31 @@
         <v>11</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -7340,7 +7281,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -7348,7 +7289,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -7356,7 +7297,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -7364,7 +7305,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -7372,23 +7313,23 @@
         <v>7</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -7396,23 +7337,23 @@
         <v>0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -7421,16 +7362,16 @@
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -7438,25 +7379,25 @@
         <v>32</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -7464,12 +7405,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A8:B8"/>
@@ -7478,6 +7413,12 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{A59DB292-A126-46C8-AAB0-2FF5AD1DDD57}"/>
@@ -7491,11 +7432,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E65C56-A834-4ED4-A193-64A017DCA518}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7531,7 +7472,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>8</v>
@@ -7542,10 +7483,10 @@
     </row>
     <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
@@ -7557,21 +7498,21 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="I2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -7580,21 +7521,21 @@
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="I3" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -7603,7 +7544,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -7614,13 +7555,13 @@
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C5" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -7637,13 +7578,13 @@
     </row>
     <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C6" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -7652,21 +7593,21 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="H6" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C7" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -7675,61 +7616,61 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="H7" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D8" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E8" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="H8" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B9" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C9" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D9" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E9" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="H9" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -7738,21 +7679,21 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="H10" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B11" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C11" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -7761,21 +7702,21 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="H11" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B12" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C12" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -7784,7 +7725,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="H12" t="s">
         <v>17</v>
@@ -7795,13 +7736,13 @@
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B13" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C13" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -7810,7 +7751,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="H13" t="s">
         <v>17</v>
@@ -7821,13 +7762,13 @@
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B14" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C14" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -7836,7 +7777,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="H14" t="s">
         <v>17</v>
@@ -7847,13 +7788,13 @@
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B15" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C15" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -7862,7 +7803,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="H15" t="s">
         <v>17</v>
@@ -7873,13 +7814,13 @@
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B16" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C16" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -7896,13 +7837,13 @@
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B17" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C17" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -7919,34 +7860,48 @@
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="B18" t="s">
-        <v>367</v>
+        <v>501</v>
+      </c>
+      <c r="C18" t="s">
+        <v>500</v>
       </c>
       <c r="F18" t="s">
-        <v>368</v>
-      </c>
-      <c r="G18" t="s">
-        <v>369</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B19" t="s">
-        <v>258</v>
+        <v>355</v>
       </c>
       <c r="F19" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="G19" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="14.4" x14ac:dyDescent="0.3"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>287</v>
+      </c>
+      <c r="B20" t="s">
+        <v>247</v>
+      </c>
+      <c r="F20" t="s">
+        <v>303</v>
+      </c>
+      <c r="G20" t="s">
+        <v>358</v>
+      </c>
+    </row>
     <row r="25" spans="1:9" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:9" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:I7" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A1:A1048576">
